--- a/MM.xlsx
+++ b/MM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Andromede-app-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FED8EFB-2CAD-4877-945C-48C50E3723FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45CE1C5-FA57-4E59-8E41-B18C860DA44B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="66">
   <si>
     <t>Code IDH</t>
   </si>
@@ -233,6 +233,15 @@
   </si>
   <si>
     <t>SEBAIHI SIDALI</t>
+  </si>
+  <si>
+    <t>2940803</t>
+  </si>
+  <si>
+    <t>LE CHAT ROSE 1L</t>
+  </si>
+  <si>
+    <t>LE CHAT power gel 4L</t>
   </si>
 </sst>
 </file>
@@ -897,7 +906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1111,6 +1120,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5645,10 +5660,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:B57"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6451,65 +6466,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="77" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="87">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="15">
+        <f>+'1'!E44+'2'!E44+'3'!E44+'4'!E44+'5'!E44+'6'!E44+'7'!E44+'8'!E44+'9'!E44+'10'!E44+'11'!E44+'12'!E44+'13'!E44+'14'!E44+'15'!E44+'16'!E44+'17'!E44+'18'!E44+'19'!E44</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <f>C44*D44*E44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="86">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="87">
+        <v>4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="15">
+        <f>+'1'!E45+'2'!E45+'3'!E45+'4'!E45+'5'!E45+'6'!E45+'7'!E45+'8'!E45+'9'!E45+'10'!E45+'11'!E45+'12'!E45+'13'!E45+'14'!E45+'15'!E45+'16'!E45+'17'!E45+'18'!E45+'19'!E45</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <f>C45*D45*E45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="10">
-        <f>SUM(E12:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E12:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="17">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="68" t="s">
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="70"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32">
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="70"/>
+    </row>
+    <row r="49" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32">
         <v>2845959</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B49" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="34">
-        <f>+'12'!D47+'5'!D47++'8'!D47+'2'!D47+'7'!D47+'6'!D47+'4'!D47+'9'!D47+'1'!D47+'10'!D47+'3'!D47+'11'!D47+'13'!D47+'14'!D47+'15'!D47+'16'!D47+'17'!D47+'18'!D47+'19'!D47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="34">
-        <f>+'12'!D48+'5'!D48++'8'!D48+'2'!D48+'7'!D48+'6'!D48+'4'!D48+'9'!D48+'1'!D48+'10'!D48+'3'!D48+'11'!D48+'13'!D48+'14'!D48+'15'!D48+'16'!D48+'17'!D48+'18'!D48+'19'!D48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="40"/>
       <c r="D49" s="34">
@@ -6517,100 +6550,126 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B50" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="44"/>
+    <row r="50" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="40"/>
       <c r="D50" s="34">
         <f>+'12'!D50+'5'!D50++'8'!D50+'2'!D50+'7'!D50+'6'!D50+'4'!D50+'9'!D50+'1'!D50+'10'!D50+'3'!D50+'11'!D50+'13'!D50+'14'!D50+'15'!D50+'16'!D50+'17'!D50+'18'!D50+'19'!D50</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="52" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="54" t="s">
+    <row r="51" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="34">
+        <f>+'12'!D51+'5'!D51++'8'!D51+'2'!D51+'7'!D51+'6'!D51+'4'!D51+'9'!D51+'1'!D51+'10'!D51+'3'!D51+'11'!D51+'13'!D51+'14'!D51+'15'!D51+'16'!D51+'17'!D51+'18'!D51+'19'!D51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="44"/>
+      <c r="D52" s="34">
+        <f>+'12'!D52+'5'!D52++'8'!D52+'2'!D52+'7'!D52+'6'!D52+'4'!D52+'9'!D52+'1'!D52+'10'!D52+'3'!D52+'11'!D52+'13'!D52+'14'!D52+'15'!D52+'16'!D52+'17'!D52+'18'!D52+'19'!D52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="54" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="21" t="s">
+      <c r="B54" s="55"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E54" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="64" t="s">
+      <c r="F54" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="65"/>
-    </row>
-    <row r="53" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
-    </row>
-    <row r="55" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="80"/>
-    </row>
+      <c r="G54" s="65"/>
+    </row>
+    <row r="55" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="55"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="80"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="67"/>
     </row>
     <row r="57" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="55"/>
       <c r="C57" s="23"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="57"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="80"/>
+    </row>
+    <row r="58" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="55"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="80"/>
+    </row>
+    <row r="59" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="55"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="F57:G57"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="F58:G58"/>
   </mergeCells>
   <conditionalFormatting sqref="D12">
     <cfRule type="cellIs" dxfId="530" priority="28" operator="greaterThan">
@@ -6623,7 +6682,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="527" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6656,7 +6715,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
+  <conditionalFormatting sqref="E12:E45">
     <cfRule type="cellIs" dxfId="518" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6667,7 +6726,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D50">
+  <conditionalFormatting sqref="D49:D52">
     <cfRule type="cellIs" dxfId="515" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6688,10 +6747,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6812,7 +6871,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -7405,77 +7464,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="77" t="s">
+    <row r="44" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38">
+        <v>4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="17">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="81" t="s">
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32">
+      <c r="B48" s="82"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32">
         <v>2845959</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B49" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="34"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="34"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="40"/>
       <c r="D49" s="34"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
         <v>2875891</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B52" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -7494,7 +7591,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="293" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7527,7 +7624,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
+  <conditionalFormatting sqref="E12:E45">
     <cfRule type="cellIs" dxfId="284" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7538,7 +7635,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="281" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7549,7 +7646,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
+  <conditionalFormatting sqref="D49:D50 D52">
     <cfRule type="cellIs" dxfId="278" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7560,7 +7657,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="275" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7571,7 +7668,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="272" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7583,16 +7680,19 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" fitToHeight="0" orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F50"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7713,7 +7813,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -8306,77 +8406,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="77" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38">
+        <v>4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="17">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="81" t="s">
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32">
+      <c r="B48" s="82"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32">
         <v>2845959</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B49" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="34"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="34"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="40"/>
       <c r="D49" s="34"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
         <v>2875891</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B52" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -8395,7 +8533,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="266" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8428,7 +8566,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
+  <conditionalFormatting sqref="E12:E45">
     <cfRule type="cellIs" dxfId="257" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8439,7 +8577,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="254" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8450,7 +8588,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
+  <conditionalFormatting sqref="D49:D50 D52">
     <cfRule type="cellIs" dxfId="251" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8461,7 +8599,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="248" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8472,7 +8610,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="245" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8484,16 +8622,19 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F50"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8614,7 +8755,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -9207,77 +9348,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="77" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38">
+        <v>4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="17">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="81" t="s">
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32">
+      <c r="B48" s="82"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32">
         <v>2845959</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B49" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="34"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="34"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="40"/>
       <c r="D49" s="34"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
         <v>2875891</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B52" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -9296,7 +9475,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="239" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9329,7 +9508,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
+  <conditionalFormatting sqref="E12:E45">
     <cfRule type="cellIs" dxfId="230" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9340,7 +9519,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="227" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9351,7 +9530,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
+  <conditionalFormatting sqref="D49:D50 D52">
     <cfRule type="cellIs" dxfId="224" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9362,7 +9541,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="221" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9373,7 +9552,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="218" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9385,7 +9564,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9394,10 +9573,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9516,7 +9695,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -10109,77 +10288,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="77" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38">
+        <v>4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="17">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="81" t="s">
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="49">
-        <v>2845959</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="34"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="49">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="34"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="49">
-        <v>2728382</v>
+        <v>2845959</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C49" s="48"/>
       <c r="D49" s="34"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="49">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="48"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="49">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="48"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
         <v>2875891</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B52" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:B48"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -10197,7 +10414,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="212" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10230,7 +10447,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
+  <conditionalFormatting sqref="E12:E45">
     <cfRule type="cellIs" dxfId="203" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10241,7 +10458,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="200" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10252,7 +10469,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
+  <conditionalFormatting sqref="D49:D50 D52">
     <cfRule type="cellIs" dxfId="197" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10263,7 +10480,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="194" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10274,7 +10491,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="191" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10292,10 +10509,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:F50"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10416,7 +10636,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -11009,77 +11229,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="77" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38">
+        <v>4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="17">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="81" t="s">
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32">
+      <c r="B48" s="82"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32">
         <v>2845959</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B49" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="34"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="34"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="40"/>
       <c r="D49" s="34"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
         <v>2875891</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B52" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -11098,7 +11356,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="185" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11131,7 +11389,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
+  <conditionalFormatting sqref="E12:E45">
     <cfRule type="cellIs" dxfId="176" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11142,7 +11400,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="173" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11153,7 +11411,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
+  <conditionalFormatting sqref="D49:D50 D52">
     <cfRule type="cellIs" dxfId="170" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11164,7 +11422,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="167" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11175,7 +11433,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="164" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11187,16 +11445,19 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:F50"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11317,7 +11578,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -11910,77 +12171,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="77" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38">
+        <v>4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="17">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="81" t="s">
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32">
+      <c r="B48" s="82"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32">
         <v>2845959</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B49" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="34"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="34"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="40"/>
       <c r="D49" s="34"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
         <v>2875891</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B52" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -11999,7 +12298,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="158" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12032,7 +12331,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
+  <conditionalFormatting sqref="E12:E45">
     <cfRule type="cellIs" dxfId="149" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12043,7 +12342,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="146" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12054,7 +12353,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
+  <conditionalFormatting sqref="D49:D50 D52">
     <cfRule type="cellIs" dxfId="143" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12065,7 +12364,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="140" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12076,7 +12375,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="137" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12088,16 +12387,19 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F50"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12218,7 +12520,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -12811,77 +13113,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="77" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38">
+        <v>4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="17">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="81" t="s">
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32">
+      <c r="B48" s="82"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32">
         <v>2845959</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B49" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="34"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="34"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="40"/>
       <c r="D49" s="34"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
         <v>2875891</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B52" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -12900,7 +13240,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="131" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12933,7 +13273,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
+  <conditionalFormatting sqref="E12:E45">
     <cfRule type="cellIs" dxfId="122" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12944,7 +13284,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="119" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12955,7 +13295,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
+  <conditionalFormatting sqref="D49:D50 D52">
     <cfRule type="cellIs" dxfId="116" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12966,7 +13306,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="113" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12977,7 +13317,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="110" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12989,16 +13329,19 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F50"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13119,7 +13462,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -13712,77 +14055,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="77" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38">
+        <v>4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="17">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="81" t="s">
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32">
+      <c r="B48" s="82"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32">
         <v>2845959</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B49" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="34"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="34"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="40"/>
       <c r="D49" s="34"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
         <v>2875891</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B52" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -13801,7 +14182,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="104" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13834,7 +14215,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
+  <conditionalFormatting sqref="E12:E45">
     <cfRule type="cellIs" dxfId="95" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13845,7 +14226,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="92" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13856,7 +14237,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
+  <conditionalFormatting sqref="D49:D50 D52">
     <cfRule type="cellIs" dxfId="89" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13867,7 +14248,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="86" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13878,7 +14259,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="83" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13890,16 +14271,19 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F50"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14020,7 +14404,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -14613,77 +14997,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="77" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38">
+        <v>4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="10">
-        <f>SUM(E12:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="17">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="81" t="s">
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32">
+      <c r="B48" s="82"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32">
         <v>2845959</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B49" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="34"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="34"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="40"/>
       <c r="D49" s="34"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
         <v>2875891</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B52" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -14702,7 +15124,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="77" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14735,7 +15157,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
+  <conditionalFormatting sqref="E12:E45">
     <cfRule type="cellIs" dxfId="68" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14746,7 +15168,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="65" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14757,7 +15179,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
+  <conditionalFormatting sqref="D49:D50 D52">
     <cfRule type="cellIs" dxfId="62" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14768,7 +15190,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="59" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14779,7 +15201,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="56" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14791,16 +15213,19 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:F50"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14921,7 +15346,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -15514,77 +15939,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="77" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38">
+        <v>4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="10">
-        <f>SUM(E12:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="17">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="81" t="s">
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32">
+      <c r="B48" s="82"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32">
         <v>2845959</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B49" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="34"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="34"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="40"/>
       <c r="D49" s="34"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
         <v>2875891</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B52" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -15603,7 +16066,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="50" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15636,7 +16099,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
+  <conditionalFormatting sqref="E12:E45">
     <cfRule type="cellIs" dxfId="41" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15647,7 +16110,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15658,7 +16121,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
+  <conditionalFormatting sqref="D49:D50 D52">
     <cfRule type="cellIs" dxfId="35" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15669,7 +16132,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="32" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15680,7 +16143,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="29" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15692,7 +16155,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15701,10 +16164,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15825,7 +16288,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -16418,77 +16881,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="77" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38">
+        <v>4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="17">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="81" t="s">
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32">
+      <c r="B48" s="82"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32">
         <v>2845959</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B49" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="34"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="34"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="40"/>
       <c r="D49" s="34"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
         <v>2875891</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B52" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -16507,7 +17008,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="509" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16540,7 +17041,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
+  <conditionalFormatting sqref="E12:E45">
     <cfRule type="cellIs" dxfId="500" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16551,7 +17052,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="497" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16562,7 +17063,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
+  <conditionalFormatting sqref="D49:D50 D52">
     <cfRule type="cellIs" dxfId="494" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16573,7 +17074,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="491" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16584,7 +17085,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="488" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16602,10 +17103,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:F50"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16723,7 +17227,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -17316,77 +17820,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="77" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38">
+        <v>4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="10">
-        <f>SUM(E12:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="17">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="81" t="s">
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32">
+      <c r="B48" s="82"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32">
         <v>2845959</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B49" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="34"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="34"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="40"/>
       <c r="D49" s="34"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
         <v>2875891</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B52" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -17405,7 +17947,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="23" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17438,7 +17980,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
+  <conditionalFormatting sqref="E12:E45">
     <cfRule type="cellIs" dxfId="14" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17449,7 +17991,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17460,7 +18002,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
+  <conditionalFormatting sqref="D49:D50 D52">
     <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17471,7 +18013,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17482,7 +18024,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17494,7 +18036,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17503,10 +18045,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17627,7 +18169,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -18220,77 +18762,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="77" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38">
+        <v>4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="17">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="81" t="s">
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="49">
-        <v>2845959</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="34"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="49">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="34"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="49">
-        <v>2728382</v>
+        <v>2845959</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C49" s="48"/>
       <c r="D49" s="34"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="49">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="48"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="49">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="48"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
         <v>2875891</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B52" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -18309,7 +18889,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="482" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18342,7 +18922,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
+  <conditionalFormatting sqref="E12:E45">
     <cfRule type="cellIs" dxfId="473" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18353,7 +18933,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="470" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18364,7 +18944,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
+  <conditionalFormatting sqref="D49:D50 D52">
     <cfRule type="cellIs" dxfId="467" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18375,7 +18955,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="464" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18386,7 +18966,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="461" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18407,10 +18987,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18531,7 +19111,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -19124,77 +19704,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="77" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38">
+        <v>4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="17">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="81" t="s">
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32">
+      <c r="B48" s="82"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32">
         <v>2845959</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B49" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="34"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="34"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="40"/>
       <c r="D49" s="34"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
         <v>2875891</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B52" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -19213,7 +19831,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="455" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19246,7 +19864,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
+  <conditionalFormatting sqref="E12:E45">
     <cfRule type="cellIs" dxfId="446" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19257,7 +19875,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="443" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19268,7 +19886,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
+  <conditionalFormatting sqref="D49:D50 D52">
     <cfRule type="cellIs" dxfId="440" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19279,7 +19897,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="437" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19290,7 +19908,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="434" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19311,10 +19929,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19435,7 +20053,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -20028,77 +20646,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="77" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38">
+        <v>4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="17">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="81" t="s">
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32">
+      <c r="B48" s="82"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32">
         <v>2845959</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B49" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="34"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="34"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="40"/>
       <c r="D49" s="34"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
         <v>2875891</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B52" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -20117,7 +20773,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="428" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20150,7 +20806,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
+  <conditionalFormatting sqref="E12:E45">
     <cfRule type="cellIs" dxfId="419" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20161,7 +20817,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="416" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20172,7 +20828,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
+  <conditionalFormatting sqref="D49:D50 D52">
     <cfRule type="cellIs" dxfId="413" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20183,7 +20839,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="410" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20194,7 +20850,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="407" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20215,10 +20871,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20339,7 +20995,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -20932,77 +21588,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="77" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38">
+        <v>4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="17">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="81" t="s">
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="49">
-        <v>2845959</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="34"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="49">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="34"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="49">
-        <v>2728382</v>
+        <v>2845959</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C49" s="48"/>
       <c r="D49" s="34"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="49">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="48"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="49">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="48"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
         <v>2875891</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B52" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -21021,7 +21715,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="401" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21054,7 +21748,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
+  <conditionalFormatting sqref="E12:E45">
     <cfRule type="cellIs" dxfId="392" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21065,7 +21759,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="389" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21076,7 +21770,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
+  <conditionalFormatting sqref="D49:D50 D52">
     <cfRule type="cellIs" dxfId="386" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21087,7 +21781,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="383" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21098,7 +21792,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="380" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21119,10 +21813,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21246,7 +21940,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -21839,77 +22533,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="77" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38">
+        <v>4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="17">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="81" t="s">
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32">
+      <c r="B48" s="82"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32">
         <v>2845959</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B49" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="34"/>
-    </row>
-    <row r="48" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="34"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="40"/>
       <c r="D49" s="34"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+    <row r="50" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
         <v>2875891</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B52" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:B48"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -21927,7 +22659,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="374" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21960,7 +22692,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
+  <conditionalFormatting sqref="E12:E45">
     <cfRule type="cellIs" dxfId="365" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21971,7 +22703,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="362" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21982,7 +22714,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
+  <conditionalFormatting sqref="D49:D50 D52">
     <cfRule type="cellIs" dxfId="359" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21993,7 +22725,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="356" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22004,7 +22736,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="353" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22025,10 +22757,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22149,7 +22881,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -22742,77 +23474,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="77" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38">
+        <v>4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="17">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="81" t="s">
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="49">
+      <c r="B48" s="82"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="49">
         <v>2845959</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B49" s="50" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="34"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="49">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="34"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="49">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="50" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="48"/>
       <c r="D49" s="34"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="49">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="48"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="49">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="48"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
         <v>2875891</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B52" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -22831,7 +23601,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="347" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22864,7 +23634,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
+  <conditionalFormatting sqref="E12:E45">
     <cfRule type="cellIs" dxfId="338" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22875,7 +23645,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="335" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22886,7 +23656,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
+  <conditionalFormatting sqref="D49:D50 D52">
     <cfRule type="cellIs" dxfId="332" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22897,7 +23667,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="329" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22908,7 +23678,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="326" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22929,10 +23699,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23053,7 +23823,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -23646,77 +24416,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="77" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38">
+        <v>4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="17">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="81" t="s">
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="49">
-        <v>2845959</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="34"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="49">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="34"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="49">
-        <v>2728382</v>
+        <v>2845959</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C49" s="48"/>
       <c r="D49" s="34"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="49">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="48"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="49">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="48"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
         <v>2875891</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B52" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:B48"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -23735,7 +24543,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="320" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23768,7 +24576,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
+  <conditionalFormatting sqref="E12:E45">
     <cfRule type="cellIs" dxfId="311" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23779,7 +24587,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="308" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23790,7 +24598,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
+  <conditionalFormatting sqref="D49:D50 D52">
     <cfRule type="cellIs" dxfId="305" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23801,7 +24609,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="302" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23812,7 +24620,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="299" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/MM.xlsx
+++ b/MM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Andromede-app-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45CE1C5-FA57-4E59-8E41-B18C860DA44B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCD8BF2-0235-4AE4-913E-6B090B421FA1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -1025,6 +1025,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1120,12 +1126,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5678,45 +5678,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -6467,13 +6467,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="86" t="s">
+      <c r="A44" s="54" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="87">
+      <c r="C44" s="55">
         <v>10</v>
       </c>
       <c r="D44" s="37">
@@ -6489,13 +6489,13 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="86">
+      <c r="A45" s="54">
         <v>2940804</v>
       </c>
       <c r="B45" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="87">
+      <c r="C45" s="55">
         <v>4</v>
       </c>
       <c r="D45" s="37">
@@ -6512,10 +6512,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E12:E45)</f>
         <v>0</v>
@@ -6530,12 +6530,12 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="68" t="s">
+      <c r="A48" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="70"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="72"/>
     </row>
     <row r="49" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="32">
@@ -6591,10 +6591,10 @@
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="54" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="55"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="20"/>
       <c r="D54" s="21" t="s">
         <v>48</v>
@@ -6602,55 +6602,55 @@
       <c r="E54" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="64" t="s">
+      <c r="F54" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="G54" s="65"/>
+      <c r="G54" s="67"/>
     </row>
     <row r="55" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="54" t="s">
+      <c r="A56" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="55"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="23"/>
       <c r="D56" s="24"/>
       <c r="E56" s="25"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="67"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="69"/>
     </row>
     <row r="57" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="55"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="23"/>
       <c r="D57" s="26"/>
       <c r="E57" s="27"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="80"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="82"/>
     </row>
     <row r="58" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="54" t="s">
+      <c r="A58" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="55"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="51"/>
       <c r="D58" s="52"/>
       <c r="E58" s="53"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="80"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="82"/>
     </row>
     <row r="59" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="54" t="s">
+      <c r="A59" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="55"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="23"/>
       <c r="D59" s="28"/>
       <c r="E59" s="29"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="57"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -6749,60 +6749,60 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -6810,8 +6810,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -6830,11 +6830,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="83" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -7491,7 +7491,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="37">
         <v>1190</v>
@@ -7504,10 +7504,10 @@
     </row>
     <row r="46" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -7522,10 +7522,10 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -7691,60 +7691,60 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -7752,8 +7752,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -7772,11 +7772,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="83" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -8433,7 +8433,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="37">
         <v>1190</v>
@@ -8446,10 +8446,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -8464,10 +8464,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -8633,60 +8633,60 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -8694,8 +8694,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -8714,11 +8714,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="83" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -9375,7 +9375,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="37">
         <v>1190</v>
@@ -9388,10 +9388,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -9406,10 +9406,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -9575,60 +9575,60 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -9654,11 +9654,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="83" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -10315,7 +10315,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="37">
         <v>1190</v>
@@ -10328,10 +10328,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -10346,10 +10346,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -10514,60 +10514,60 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -10575,8 +10575,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -10595,11 +10595,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="83" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -11256,7 +11256,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="37">
         <v>1190</v>
@@ -11269,10 +11269,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -11287,10 +11287,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -11456,60 +11456,60 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -11517,8 +11517,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -11537,11 +11537,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="83" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -12198,7 +12198,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="37">
         <v>1190</v>
@@ -12211,10 +12211,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -12229,10 +12229,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -12398,60 +12398,60 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -12459,8 +12459,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -12479,11 +12479,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="83" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -13140,7 +13140,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="37">
         <v>1190</v>
@@ -13153,10 +13153,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -13171,10 +13171,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -13340,60 +13340,60 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -13401,8 +13401,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -13421,11 +13421,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="83" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -14082,7 +14082,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="37">
         <v>1190</v>
@@ -14095,10 +14095,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -14113,10 +14113,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -14282,60 +14282,60 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -14343,8 +14343,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -14363,11 +14363,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="83" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -15024,7 +15024,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="37">
         <v>1190</v>
@@ -15037,10 +15037,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -15055,10 +15055,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -15224,60 +15224,60 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -15285,8 +15285,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -15305,11 +15305,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="83" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -15966,7 +15966,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="37">
         <v>1190</v>
@@ -15979,10 +15979,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -15997,10 +15997,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -16166,60 +16166,60 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -16227,8 +16227,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -16247,11 +16247,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="83" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -16908,7 +16908,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="37">
         <v>1190</v>
@@ -16921,10 +16921,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -16939,10 +16939,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -17108,60 +17108,60 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -17169,8 +17169,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -17186,11 +17186,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="83" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -17847,7 +17847,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="37">
         <v>1190</v>
@@ -17860,10 +17860,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -17878,10 +17878,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -18047,60 +18047,60 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -18108,8 +18108,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -18128,11 +18128,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="83" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -18789,7 +18789,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="37">
         <v>1190</v>
@@ -18802,10 +18802,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -18820,10 +18820,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -18989,60 +18989,60 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -19050,8 +19050,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -19070,11 +19070,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="83" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -19731,7 +19731,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="37">
         <v>1190</v>
@@ -19744,10 +19744,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -19762,10 +19762,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -19931,60 +19931,60 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -19992,8 +19992,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -20012,11 +20012,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="83" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -20673,7 +20673,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="37">
         <v>1190</v>
@@ -20686,10 +20686,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -20704,10 +20704,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -20873,60 +20873,60 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -20934,8 +20934,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -20954,11 +20954,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="83" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -21615,7 +21615,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="37">
         <v>1190</v>
@@ -21628,10 +21628,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -21646,10 +21646,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -21815,60 +21815,60 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -21894,11 +21894,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="87" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="47" t="s">
@@ -22560,7 +22560,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="37">
         <v>1190</v>
@@ -22573,10 +22573,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -22591,10 +22591,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -22759,60 +22759,60 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -22820,8 +22820,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -22840,11 +22840,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="83" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -23501,7 +23501,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="37">
         <v>1190</v>
@@ -23514,10 +23514,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -23532,10 +23532,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -23701,60 +23701,60 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -23762,8 +23762,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -23782,11 +23782,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="83" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -24443,7 +24443,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="37">
         <v>1190</v>
@@ -24456,10 +24456,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -24474,10 +24474,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>

--- a/MM.xlsx
+++ b/MM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Andromede-app-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCD8BF2-0235-4AE4-913E-6B090B421FA1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3576563E-8D68-4BE4-A7A9-1275F6CA04A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="20475" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -5662,16 +5662,16 @@
   </sheetPr>
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
@@ -6496,7 +6496,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="37">
         <v>1190</v>
@@ -6749,8 +6749,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6758,7 +6758,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -7691,8 +7691,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7700,7 +7700,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -8633,8 +8633,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8642,7 +8642,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -9575,8 +9575,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9584,7 +9584,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -10514,8 +10514,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10523,7 +10523,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -11456,8 +11456,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11465,7 +11465,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -12398,8 +12398,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12407,7 +12407,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -13340,8 +13340,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13349,7 +13349,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -14282,8 +14282,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14291,7 +14291,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -15224,8 +15224,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15233,7 +15233,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -16166,8 +16166,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16175,7 +16175,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -17108,8 +17108,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17117,7 +17117,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -18047,8 +18047,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18057,7 +18057,7 @@
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18989,8 +18989,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18998,7 +18998,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -19931,8 +19931,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19940,7 +19940,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -20873,8 +20873,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20882,7 +20882,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -21815,8 +21815,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21824,7 +21824,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -22759,8 +22759,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22768,7 +22768,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -23701,8 +23701,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23710,7 +23710,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>

--- a/MM.xlsx
+++ b/MM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Andromede-app-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3576563E-8D68-4BE4-A7A9-1275F6CA04A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B938D07-ABFE-43BE-BA4F-2D8F646AA232}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="20475" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -5662,8 +5662,8 @@
   </sheetPr>
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6750,7 +6750,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6758,7 +6758,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -7692,7 +7692,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7700,7 +7700,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -8634,7 +8634,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8642,7 +8642,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -9576,7 +9576,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9584,7 +9584,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -10515,7 +10515,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10523,7 +10523,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -11457,7 +11457,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11465,7 +11465,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -12399,7 +12399,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12407,7 +12407,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -13341,7 +13341,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13349,7 +13349,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -14283,7 +14283,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14291,7 +14291,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -15225,7 +15225,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15233,7 +15233,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -16167,1888 +16167,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
-    </row>
-    <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-    </row>
-    <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="19" t="str">
-        <f>+'BON DE PREPARATION'!B9</f>
-        <v>08 07 2023</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="85" t="str">
-        <f>+'BON DE PREPARATION'!B8</f>
-        <v>ZOUBIRI AMINE</v>
-      </c>
-      <c r="F9" s="85"/>
-    </row>
-    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>2644573</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="13">
-        <v>10</v>
-      </c>
-      <c r="D12" s="16">
-        <v>177</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>2646698</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="13">
-        <v>10</v>
-      </c>
-      <c r="D13" s="16">
-        <v>177</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>2682282</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="13">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7">
-        <v>967</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>2728380</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="13">
-        <v>6</v>
-      </c>
-      <c r="D15" s="7">
-        <v>154</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="13">
-        <v>12</v>
-      </c>
-      <c r="D16" s="7">
-        <v>86</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>2766729</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="13">
-        <v>10</v>
-      </c>
-      <c r="D17" s="7">
-        <v>286</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>2766835</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="13">
-        <v>4</v>
-      </c>
-      <c r="D18" s="7">
-        <v>705</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>2791901</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="13">
-        <v>10</v>
-      </c>
-      <c r="D19" s="7">
-        <v>377</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>2806713</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="13">
-        <v>4</v>
-      </c>
-      <c r="D20" s="7">
-        <v>810</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>2806719</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="13">
-        <v>3</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1190</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>2817870</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="13">
-        <v>4</v>
-      </c>
-      <c r="D22" s="7">
-        <v>772</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>2820870</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="13">
-        <v>12</v>
-      </c>
-      <c r="D23" s="7">
-        <v>203</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>2821686</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="13">
-        <v>25</v>
-      </c>
-      <c r="D24" s="7">
-        <v>85.5</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>2823409</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="13">
-        <v>25</v>
-      </c>
-      <c r="D25" s="7">
-        <v>85.5</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>2823411</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="13">
-        <v>12</v>
-      </c>
-      <c r="D26" s="7">
-        <v>203</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>2829475</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="13">
-        <v>10</v>
-      </c>
-      <c r="D27" s="7">
-        <v>302</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="13">
-        <v>25</v>
-      </c>
-      <c r="D28" s="7">
-        <v>95.5</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>2830114</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="13">
-        <v>12</v>
-      </c>
-      <c r="D29" s="7">
-        <v>224</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="13">
-        <v>12</v>
-      </c>
-      <c r="D30" s="7">
-        <v>278</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>2845956</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="13">
-        <v>4</v>
-      </c>
-      <c r="D31" s="7">
-        <v>664</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>2845959</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="13">
-        <v>12</v>
-      </c>
-      <c r="D32" s="7">
-        <v>164.5</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>2859185</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="13">
-        <v>4</v>
-      </c>
-      <c r="D33" s="7">
-        <v>810</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>2860119</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="13">
-        <v>4</v>
-      </c>
-      <c r="D34" s="7">
-        <v>810</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>2875891</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="13">
-        <v>25</v>
-      </c>
-      <c r="D35" s="7">
-        <v>85.5</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>2875892</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="13">
-        <v>12</v>
-      </c>
-      <c r="D36" s="7">
-        <v>203</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>2875893</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="13">
-        <v>8</v>
-      </c>
-      <c r="D37" s="7">
-        <v>396.5</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="13">
-        <v>4</v>
-      </c>
-      <c r="D38" s="7">
-        <v>568</v>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>2910278</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="13">
-        <v>12</v>
-      </c>
-      <c r="D39" s="16">
-        <v>112.5</v>
-      </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="38">
-        <v>4</v>
-      </c>
-      <c r="D40" s="7">
-        <v>792</v>
-      </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="38">
-        <v>4</v>
-      </c>
-      <c r="D41" s="7">
-        <v>723</v>
-      </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39">
-        <v>2922764</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="38">
-        <v>4</v>
-      </c>
-      <c r="D42" s="37">
-        <v>810</v>
-      </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39">
-        <v>2922795</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="38">
-        <v>10</v>
-      </c>
-      <c r="D43" s="37">
-        <v>377</v>
-      </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="38">
-        <v>10</v>
-      </c>
-      <c r="D44" s="37">
-        <v>377</v>
-      </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39">
-        <v>2940804</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="38">
-        <v>3</v>
-      </c>
-      <c r="D45" s="37">
-        <v>1190</v>
-      </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
-        <f>SUM(E14:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
-        <v>2845959</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="40"/>
-      <c r="D50" s="34"/>
-    </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2728382</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="34"/>
-    </row>
-    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="E7:F7"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="512" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="511" priority="35" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="36" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="509" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="32" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="33" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="506" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="505" priority="29" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="30" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="503" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="26" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="27" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="500" priority="19" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="20" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="21" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="497" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="494" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="11" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="491" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="8" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="488" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F52"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
-    </row>
-    <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-    </row>
-    <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="D9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="85" t="str">
-        <f>+'BON DE PREPARATION'!B8</f>
-        <v>ZOUBIRI AMINE</v>
-      </c>
-      <c r="F9" s="85"/>
-    </row>
-    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>2644573</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="13">
-        <v>10</v>
-      </c>
-      <c r="D12" s="16">
-        <v>177</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>2646698</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="13">
-        <v>10</v>
-      </c>
-      <c r="D13" s="16">
-        <v>177</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>2682282</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="13">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7">
-        <v>967</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>2728380</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="13">
-        <v>6</v>
-      </c>
-      <c r="D15" s="7">
-        <v>154</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="13">
-        <v>12</v>
-      </c>
-      <c r="D16" s="7">
-        <v>86</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>2766729</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="13">
-        <v>10</v>
-      </c>
-      <c r="D17" s="7">
-        <v>286</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>2766835</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="13">
-        <v>4</v>
-      </c>
-      <c r="D18" s="7">
-        <v>705</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>2791901</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="13">
-        <v>10</v>
-      </c>
-      <c r="D19" s="7">
-        <v>377</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>2806713</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="13">
-        <v>4</v>
-      </c>
-      <c r="D20" s="7">
-        <v>810</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>2806719</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="13">
-        <v>3</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1190</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>2817870</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="13">
-        <v>4</v>
-      </c>
-      <c r="D22" s="7">
-        <v>772</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>2820870</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="13">
-        <v>12</v>
-      </c>
-      <c r="D23" s="7">
-        <v>203</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>2821686</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="13">
-        <v>25</v>
-      </c>
-      <c r="D24" s="7">
-        <v>85.5</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>2823409</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="13">
-        <v>25</v>
-      </c>
-      <c r="D25" s="7">
-        <v>85.5</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>2823411</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="13">
-        <v>12</v>
-      </c>
-      <c r="D26" s="7">
-        <v>203</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>2829475</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="13">
-        <v>10</v>
-      </c>
-      <c r="D27" s="7">
-        <v>302</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="13">
-        <v>25</v>
-      </c>
-      <c r="D28" s="7">
-        <v>95.5</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>2830114</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="13">
-        <v>12</v>
-      </c>
-      <c r="D29" s="7">
-        <v>224</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="13">
-        <v>12</v>
-      </c>
-      <c r="D30" s="7">
-        <v>278</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>2845956</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="13">
-        <v>4</v>
-      </c>
-      <c r="D31" s="7">
-        <v>664</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>2845959</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="13">
-        <v>12</v>
-      </c>
-      <c r="D32" s="7">
-        <v>164.5</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>2859185</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="13">
-        <v>4</v>
-      </c>
-      <c r="D33" s="7">
-        <v>810</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>2860119</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="13">
-        <v>4</v>
-      </c>
-      <c r="D34" s="7">
-        <v>810</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>2875891</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="13">
-        <v>25</v>
-      </c>
-      <c r="D35" s="7">
-        <v>85.5</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>2875892</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="13">
-        <v>12</v>
-      </c>
-      <c r="D36" s="7">
-        <v>203</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>2875893</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="13">
-        <v>8</v>
-      </c>
-      <c r="D37" s="7">
-        <v>396.5</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="13">
-        <v>4</v>
-      </c>
-      <c r="D38" s="7">
-        <v>568</v>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>2910278</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="13">
-        <v>12</v>
-      </c>
-      <c r="D39" s="16">
-        <v>112.5</v>
-      </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="38">
-        <v>4</v>
-      </c>
-      <c r="D40" s="7">
-        <v>792</v>
-      </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="38">
-        <v>4</v>
-      </c>
-      <c r="D41" s="7">
-        <v>723</v>
-      </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39">
-        <v>2922764</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="38">
-        <v>4</v>
-      </c>
-      <c r="D42" s="37">
-        <v>810</v>
-      </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39">
-        <v>2922795</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="38">
-        <v>10</v>
-      </c>
-      <c r="D43" s="37">
-        <v>377</v>
-      </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="38">
-        <v>10</v>
-      </c>
-      <c r="D44" s="37">
-        <v>377</v>
-      </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39">
-        <v>2940804</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="38">
-        <v>3</v>
-      </c>
-      <c r="D45" s="37">
-        <v>1190</v>
-      </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
-        <f>SUM(E14:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
-        <v>2845959</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="40"/>
-      <c r="D50" s="34"/>
-    </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2728382</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="34"/>
-    </row>
-    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="E7:F7"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="35" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="36" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="32" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="33" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="20" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="29" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="30" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="26" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="27" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F52"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C1:C1048576"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18828,6 +16947,1887 @@
       <c r="D48" s="42"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32">
+        <v>2845959</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="40"/>
+      <c r="D49" s="34"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="44"/>
+      <c r="D52" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="E7:F7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="512" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="511" priority="35" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="510" priority="36" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="509" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="508" priority="32" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="507" priority="33" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="506" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="505" priority="29" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="504" priority="30" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="503" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="502" priority="26" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="501" priority="27" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="500" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="499" priority="20" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="498" priority="21" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="497" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="496" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="495" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="494" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="493" priority="11" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="492" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="491" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="490" priority="8" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="489" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="488" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="487" priority="5" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="486" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
+    </row>
+    <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+    </row>
+    <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="85" t="str">
+        <f>+'BON DE PREPARATION'!B8</f>
+        <v>ZOUBIRI AMINE</v>
+      </c>
+      <c r="F9" s="85"/>
+    </row>
+    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>2644573</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13">
+        <v>10</v>
+      </c>
+      <c r="D12" s="16">
+        <v>177</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="7">
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>2646698</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>2682282</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="13">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>967</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>2728380</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="13">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7">
+        <v>154</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="13">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7">
+        <v>86</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>2766729</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="13">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7">
+        <v>286</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>2766835</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="13">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>705</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>2791901</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="13">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7">
+        <v>377</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>2806713</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="13">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>810</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>2806719</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="13">
+        <v>3</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1190</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>2817870</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="13">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7">
+        <v>772</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>2820870</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="13">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7">
+        <v>203</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2821686</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="13">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7">
+        <v>85.5</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>2823409</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="13">
+        <v>25</v>
+      </c>
+      <c r="D25" s="7">
+        <v>85.5</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>2823411</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="13">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7">
+        <v>203</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>2829475</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="13">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7">
+        <v>302</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="13">
+        <v>25</v>
+      </c>
+      <c r="D28" s="7">
+        <v>95.5</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>2830114</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="13">
+        <v>12</v>
+      </c>
+      <c r="D29" s="7">
+        <v>224</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="13">
+        <v>12</v>
+      </c>
+      <c r="D30" s="7">
+        <v>278</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="13">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>664</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>2845959</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="13">
+        <v>12</v>
+      </c>
+      <c r="D32" s="7">
+        <v>164.5</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>2859185</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="13">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7">
+        <v>810</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>2860119</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="13">
+        <v>4</v>
+      </c>
+      <c r="D34" s="7">
+        <v>810</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>2875891</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="13">
+        <v>25</v>
+      </c>
+      <c r="D35" s="7">
+        <v>85.5</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="13">
+        <v>12</v>
+      </c>
+      <c r="D36" s="7">
+        <v>203</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>2875893</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="13">
+        <v>8</v>
+      </c>
+      <c r="D37" s="7">
+        <v>396.5</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>2876884</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="13">
+        <v>4</v>
+      </c>
+      <c r="D38" s="7">
+        <v>568</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2910278</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="13">
+        <v>12</v>
+      </c>
+      <c r="D39" s="16">
+        <v>112.5</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="38">
+        <v>4</v>
+      </c>
+      <c r="D40" s="7">
+        <v>792</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="38">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7">
+        <v>723</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="39">
+        <v>2922764</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="38">
+        <v>4</v>
+      </c>
+      <c r="D42" s="37">
+        <v>810</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="39">
+        <v>2922795</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="38">
+        <v>10</v>
+      </c>
+      <c r="D43" s="37">
+        <v>377</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38">
+        <v>3</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="80"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="84"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32">
+        <v>2845959</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="40"/>
+      <c r="D49" s="34"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="44"/>
+      <c r="D52" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="E7:F7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="32" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="33" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
+    </row>
+    <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+    </row>
+    <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f>+'BON DE PREPARATION'!B9</f>
+        <v>08 07 2023</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="85" t="str">
+        <f>+'BON DE PREPARATION'!B8</f>
+        <v>ZOUBIRI AMINE</v>
+      </c>
+      <c r="F9" s="85"/>
+    </row>
+    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>2644573</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13">
+        <v>10</v>
+      </c>
+      <c r="D12" s="16">
+        <v>177</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="7">
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>2646698</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>2682282</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="13">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>967</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>2728380</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="13">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7">
+        <v>154</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="13">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7">
+        <v>86</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>2766729</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="13">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7">
+        <v>286</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>2766835</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="13">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>705</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>2791901</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="13">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7">
+        <v>377</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>2806713</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="13">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>810</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>2806719</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="13">
+        <v>3</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1190</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>2817870</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="13">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7">
+        <v>772</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>2820870</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="13">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7">
+        <v>203</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2821686</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="13">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7">
+        <v>85.5</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>2823409</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="13">
+        <v>25</v>
+      </c>
+      <c r="D25" s="7">
+        <v>85.5</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>2823411</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="13">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7">
+        <v>203</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>2829475</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="13">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7">
+        <v>302</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="13">
+        <v>25</v>
+      </c>
+      <c r="D28" s="7">
+        <v>95.5</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>2830114</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="13">
+        <v>12</v>
+      </c>
+      <c r="D29" s="7">
+        <v>224</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="13">
+        <v>12</v>
+      </c>
+      <c r="D30" s="7">
+        <v>278</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="13">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>664</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>2845959</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="13">
+        <v>12</v>
+      </c>
+      <c r="D32" s="7">
+        <v>164.5</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>2859185</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="13">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7">
+        <v>810</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>2860119</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="13">
+        <v>4</v>
+      </c>
+      <c r="D34" s="7">
+        <v>810</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>2875891</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="13">
+        <v>25</v>
+      </c>
+      <c r="D35" s="7">
+        <v>85.5</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="13">
+        <v>12</v>
+      </c>
+      <c r="D36" s="7">
+        <v>203</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>2875893</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="13">
+        <v>8</v>
+      </c>
+      <c r="D37" s="7">
+        <v>396.5</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>2876884</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="13">
+        <v>4</v>
+      </c>
+      <c r="D38" s="7">
+        <v>568</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2910278</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="13">
+        <v>12</v>
+      </c>
+      <c r="D39" s="16">
+        <v>112.5</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="38">
+        <v>4</v>
+      </c>
+      <c r="D40" s="7">
+        <v>792</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="38">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7">
+        <v>723</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="39">
+        <v>2922764</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="38">
+        <v>4</v>
+      </c>
+      <c r="D42" s="37">
+        <v>810</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="39">
+        <v>2922795</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="38">
+        <v>10</v>
+      </c>
+      <c r="D43" s="37">
+        <v>377</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37">
+        <v>377</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38">
+        <v>3</v>
+      </c>
+      <c r="D45" s="37">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="80"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="17">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="84"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="49">
         <v>2845959</v>
       </c>
@@ -18990,7 +18990,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18998,7 +18998,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -19932,7 +19932,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19940,7 +19940,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -20874,7 +20874,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20882,7 +20882,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -21815,8 +21815,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21824,7 +21824,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -22759,8 +22759,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22768,7 +22768,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
@@ -23702,7 +23702,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23710,7 +23710,7 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>

--- a/MM.xlsx
+++ b/MM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Andromede-app-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B938D07-ABFE-43BE-BA4F-2D8F646AA232}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E0EF19-6247-4837-9F29-0E4604BD5517}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="66">
   <si>
     <t>Code IDH</t>
   </si>
@@ -249,9 +249,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
-    <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -904,9 +904,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -920,14 +920,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -941,14 +941,14 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -988,7 +988,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1012,7 +1012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1126,6 +1126,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5660,10 +5663,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6589,87 +6592,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="53" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A53" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="34">
+        <f>+'12'!D53+'5'!D53++'8'!D53+'2'!D53+'7'!D53+'6'!D53+'4'!D53+'9'!D53+'1'!D53+'10'!D53+'3'!D53+'11'!D53+'13'!D53+'14'!D53+'15'!D53+'16'!D53+'17'!D53+'18'!D53+'19'!D53</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="54" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="56" t="s">
+      <c r="A54" s="88"/>
+      <c r="B54" s="88"/>
+    </row>
+    <row r="55" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="57"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="21" t="s">
+      <c r="B55" s="57"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E55" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="66" t="s">
+      <c r="F55" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="G54" s="67"/>
-    </row>
-    <row r="55" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="57"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="69"/>
-    </row>
+      <c r="G55" s="67"/>
+    </row>
+    <row r="56" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="56" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B57" s="57"/>
       <c r="C57" s="23"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="82"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="69"/>
     </row>
     <row r="58" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="56" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B58" s="57"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="53"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="27"/>
       <c r="F58" s="81"/>
       <c r="G58" s="82"/>
     </row>
     <row r="59" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="57"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="82"/>
+    </row>
+    <row r="60" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="57"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="59"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="F60:G60"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F57:G57"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="F57:G57"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="F58:G58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="F59:G59"/>
   </mergeCells>
   <conditionalFormatting sqref="D12">
     <cfRule type="cellIs" dxfId="530" priority="28" operator="greaterThan">
@@ -6726,7 +6744,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D52">
+  <conditionalFormatting sqref="D49:D53">
     <cfRule type="cellIs" dxfId="515" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6747,10 +6765,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7569,6 +7587,15 @@
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A48:B48"/>
@@ -7635,7 +7662,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="281" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7646,7 +7673,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
+  <conditionalFormatting sqref="D49:D50 D52:D53">
     <cfRule type="cellIs" dxfId="278" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7689,10 +7716,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8511,6 +8538,15 @@
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A48:B48"/>
@@ -8577,7 +8613,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="254" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8588,7 +8624,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
+  <conditionalFormatting sqref="D49:D50 D52:D53">
     <cfRule type="cellIs" dxfId="251" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8631,10 +8667,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9453,6 +9489,15 @@
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A48:B48"/>
@@ -9519,7 +9564,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="227" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9530,7 +9575,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
+  <conditionalFormatting sqref="D49:D50 D52:D53">
     <cfRule type="cellIs" dxfId="224" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9573,10 +9618,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10393,6 +10438,15 @@
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B46:C46"/>
@@ -10458,7 +10512,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="200" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10469,7 +10523,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
+  <conditionalFormatting sqref="D49:D50 D52:D53">
     <cfRule type="cellIs" dxfId="197" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10512,10 +10566,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11334,6 +11388,15 @@
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A48:B48"/>
@@ -11400,7 +11463,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="173" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11411,7 +11474,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
+  <conditionalFormatting sqref="D49:D50 D52:D53">
     <cfRule type="cellIs" dxfId="170" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11454,10 +11517,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12276,6 +12339,15 @@
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A48:B48"/>
@@ -12342,7 +12414,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="146" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12353,7 +12425,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
+  <conditionalFormatting sqref="D49:D50 D52:D53">
     <cfRule type="cellIs" dxfId="143" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12396,10 +12468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13218,6 +13290,15 @@
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A48:B48"/>
@@ -13284,7 +13365,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="119" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13295,7 +13376,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
+  <conditionalFormatting sqref="D49:D50 D52:D53">
     <cfRule type="cellIs" dxfId="116" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13338,10 +13419,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14160,6 +14241,15 @@
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A48:B48"/>
@@ -14226,7 +14316,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="92" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14237,7 +14327,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
+  <conditionalFormatting sqref="D49:D50 D52:D53">
     <cfRule type="cellIs" dxfId="89" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14280,10 +14370,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15102,6 +15192,15 @@
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A48:B48"/>
@@ -15168,7 +15267,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="65" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15179,7 +15278,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
+  <conditionalFormatting sqref="D49:D50 D52:D53">
     <cfRule type="cellIs" dxfId="62" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15222,10 +15321,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16044,6 +16143,15 @@
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A48:B48"/>
@@ -16110,7 +16218,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16121,7 +16229,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
+  <conditionalFormatting sqref="D49:D50 D52:D53">
     <cfRule type="cellIs" dxfId="35" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16164,10 +16272,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16986,6 +17094,15 @@
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A48:B48"/>
@@ -17052,7 +17169,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="497" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17063,7 +17180,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
+  <conditionalFormatting sqref="D49:D50 D52:D53">
     <cfRule type="cellIs" dxfId="494" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17106,10 +17223,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17925,6 +18042,15 @@
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A48:B48"/>
@@ -17991,7 +18117,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18002,7 +18128,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
+  <conditionalFormatting sqref="D49:D50 D52:D53">
     <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18045,10 +18171,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18867,6 +18993,15 @@
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A48:B48"/>
@@ -18933,7 +19068,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="470" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18944,7 +19079,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
+  <conditionalFormatting sqref="D49:D50 D52:D53">
     <cfRule type="cellIs" dxfId="467" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18987,10 +19122,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19809,6 +19944,15 @@
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A48:B48"/>
@@ -19875,7 +20019,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="443" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19886,7 +20030,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
+  <conditionalFormatting sqref="D49:D50 D52:D53">
     <cfRule type="cellIs" dxfId="440" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19929,10 +20073,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20751,6 +20895,15 @@
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A48:B48"/>
@@ -20817,7 +20970,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="416" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20828,7 +20981,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
+  <conditionalFormatting sqref="D49:D50 D52:D53">
     <cfRule type="cellIs" dxfId="413" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20871,10 +21024,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21693,6 +21846,15 @@
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A48:B48"/>
@@ -21759,7 +21921,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="389" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21770,7 +21932,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
+  <conditionalFormatting sqref="D49:D50 D52:D53">
     <cfRule type="cellIs" dxfId="386" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21813,10 +21975,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22638,6 +22800,15 @@
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B46:C46"/>
@@ -22703,7 +22874,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="362" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22714,7 +22885,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
+  <conditionalFormatting sqref="D49:D50 D52:D53">
     <cfRule type="cellIs" dxfId="359" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22757,10 +22928,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23579,6 +23750,15 @@
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A48:B48"/>
@@ -23645,7 +23825,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="335" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23656,7 +23836,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
+  <conditionalFormatting sqref="D49:D50 D52:D53">
     <cfRule type="cellIs" dxfId="332" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23699,10 +23879,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24521,6 +24701,15 @@
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B46:C46"/>
@@ -24587,7 +24776,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="308" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -24598,7 +24787,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
+  <conditionalFormatting sqref="D49:D50 D52:D53">
     <cfRule type="cellIs" dxfId="305" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/MM.xlsx
+++ b/MM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E0EF19-6247-4837-9F29-0E4604BD5517}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08539EB0-96DE-4958-AD4E-8E0591E1ABAF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="66">
   <si>
     <t>Code IDH</t>
   </si>
@@ -249,9 +249,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
-    <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -904,7 +904,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -920,14 +920,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -941,14 +941,14 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -988,7 +988,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1012,7 +1012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1030,6 +1030,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1126,9 +1129,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5663,10 +5663,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:B53"/>
+      <selection activeCell="B49" sqref="B49:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5681,45 +5681,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -6515,10 +6515,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="10">
         <f>SUM(E12:E45)</f>
         <v>0</v>
@@ -6533,12 +6533,12 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="70" t="s">
+      <c r="A48" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="72"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="73"/>
     </row>
     <row r="49" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="32">
@@ -6592,11 +6592,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A53" s="5">
+    <row r="53" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="35">
         <v>2830113</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="43" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="34">
@@ -6605,89 +6605,137 @@
       </c>
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="88"/>
-      <c r="B54" s="88"/>
+      <c r="A54" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="34">
+        <f>+'12'!D54+'5'!D54++'8'!D54+'2'!D54+'7'!D54+'6'!D54+'4'!D54+'9'!D54+'1'!D54+'10'!D54+'3'!D54+'11'!D54+'13'!D54+'14'!D54+'15'!D54+'16'!D54+'17'!D54+'18'!D54+'19'!D54</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="34">
+        <f>+'12'!D55+'5'!D55++'8'!D55+'2'!D55+'7'!D55+'6'!D55+'4'!D55+'9'!D55+'1'!D55+'10'!D55+'3'!D55+'11'!D55+'13'!D55+'14'!D55+'15'!D55+'16'!D55+'17'!D55+'18'!D55+'19'!D55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="35">
+        <v>2918203</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="34">
+        <f>+'12'!D56+'5'!D56++'8'!D56+'2'!D56+'7'!D56+'6'!D56+'4'!D56+'9'!D56+'1'!D56+'10'!D56+'3'!D56+'11'!D56+'13'!D56+'14'!D56+'15'!D56+'16'!D56+'17'!D56+'18'!D56+'19'!D56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="34">
+        <f>+'12'!D57+'5'!D57++'8'!D57+'2'!D57+'7'!D57+'6'!D57+'4'!D57+'9'!D57+'1'!D57+'10'!D57+'3'!D57+'11'!D57+'13'!D57+'14'!D57+'15'!D57+'16'!D57+'17'!D57+'18'!D57+'19'!D57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="56"/>
+      <c r="B58" s="56"/>
+    </row>
+    <row r="59" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B55" s="57"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="21" t="s">
+      <c r="B59" s="58"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E59" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F55" s="66" t="s">
+      <c r="F59" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="G55" s="67"/>
-    </row>
-    <row r="56" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="56" t="s">
+      <c r="G59" s="68"/>
+    </row>
+    <row r="60" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="57"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="69"/>
-    </row>
-    <row r="58" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="56" t="s">
+      <c r="B61" s="58"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="70"/>
+    </row>
+    <row r="62" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="57"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="82"/>
-    </row>
-    <row r="59" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="56" t="s">
+      <c r="B62" s="58"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="83"/>
+    </row>
+    <row r="63" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="57"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="82"/>
-    </row>
-    <row r="60" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="56" t="s">
+      <c r="B63" s="58"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="83"/>
+    </row>
+    <row r="64" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="57"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="59"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="F64:G64"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F61:G61"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="F63:G63"/>
   </mergeCells>
   <conditionalFormatting sqref="D12">
     <cfRule type="cellIs" dxfId="530" priority="28" operator="greaterThan">
@@ -6744,7 +6792,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D53">
+  <conditionalFormatting sqref="D49:D57">
     <cfRule type="cellIs" dxfId="515" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6765,10 +6813,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6782,45 +6830,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -6828,8 +6876,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -6848,11 +6896,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -7522,10 +7570,10 @@
     </row>
     <row r="46" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -7540,10 +7588,10 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -7595,6 +7643,42 @@
         <v>17</v>
       </c>
       <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7662,7 +7746,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="cellIs" dxfId="281" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7673,7 +7757,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D53">
+  <conditionalFormatting sqref="D49:D50 D52:D57">
     <cfRule type="cellIs" dxfId="278" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7716,10 +7800,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7733,45 +7817,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -7779,8 +7863,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -7799,11 +7883,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -8473,10 +8557,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -8491,10 +8575,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -8546,6 +8630,42 @@
         <v>17</v>
       </c>
       <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8613,7 +8733,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="cellIs" dxfId="254" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8624,7 +8744,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D53">
+  <conditionalFormatting sqref="D49:D50 D52:D57">
     <cfRule type="cellIs" dxfId="251" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8667,10 +8787,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8684,45 +8804,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -8730,8 +8850,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -8750,11 +8870,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -9424,10 +9544,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -9442,10 +9562,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -9497,6 +9617,42 @@
         <v>17</v>
       </c>
       <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9564,7 +9720,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="cellIs" dxfId="227" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9575,7 +9731,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D53">
+  <conditionalFormatting sqref="D49:D50 D52:D57">
     <cfRule type="cellIs" dxfId="224" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9618,10 +9774,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9635,45 +9791,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -9699,11 +9855,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -10373,10 +10529,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -10391,10 +10547,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -10446,6 +10602,42 @@
         <v>17</v>
       </c>
       <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="49">
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="49">
+        <v>2922764</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10512,7 +10704,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="cellIs" dxfId="200" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10523,7 +10715,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D53">
+  <conditionalFormatting sqref="D49:D50 D52:D57">
     <cfRule type="cellIs" dxfId="197" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10566,10 +10758,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10583,45 +10775,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -10629,8 +10821,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -10649,11 +10841,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -11323,10 +11515,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -11341,10 +11533,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -11396,6 +11588,42 @@
         <v>17</v>
       </c>
       <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11463,7 +11691,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="cellIs" dxfId="173" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11474,7 +11702,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D53">
+  <conditionalFormatting sqref="D49:D50 D52:D57">
     <cfRule type="cellIs" dxfId="170" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11517,10 +11745,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11534,45 +11762,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -11580,8 +11808,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -11600,11 +11828,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -12274,10 +12502,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -12292,10 +12520,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -12347,6 +12575,42 @@
         <v>17</v>
       </c>
       <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12414,7 +12678,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="cellIs" dxfId="146" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12425,7 +12689,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D53">
+  <conditionalFormatting sqref="D49:D50 D52:D57">
     <cfRule type="cellIs" dxfId="143" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12468,10 +12732,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12485,45 +12749,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -12531,8 +12795,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -12551,11 +12815,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -13225,10 +13489,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -13243,10 +13507,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -13298,6 +13562,42 @@
         <v>17</v>
       </c>
       <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13365,7 +13665,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="cellIs" dxfId="119" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13376,7 +13676,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D53">
+  <conditionalFormatting sqref="D49:D50 D52:D57">
     <cfRule type="cellIs" dxfId="116" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13419,10 +13719,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13436,45 +13736,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -13482,8 +13782,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -13502,11 +13802,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -14176,10 +14476,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -14194,10 +14494,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -14249,6 +14549,42 @@
         <v>17</v>
       </c>
       <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14316,7 +14652,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="cellIs" dxfId="92" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14327,7 +14663,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D53">
+  <conditionalFormatting sqref="D49:D50 D52:D57">
     <cfRule type="cellIs" dxfId="89" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14370,10 +14706,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14387,45 +14723,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -14433,8 +14769,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -14453,11 +14789,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -15127,10 +15463,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -15145,10 +15481,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -15200,6 +15536,42 @@
         <v>17</v>
       </c>
       <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15267,7 +15639,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="cellIs" dxfId="65" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15278,7 +15650,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D53">
+  <conditionalFormatting sqref="D49:D50 D52:D57">
     <cfRule type="cellIs" dxfId="62" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15321,10 +15693,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15338,45 +15710,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -15384,8 +15756,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -15404,11 +15776,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -16078,10 +16450,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -16096,10 +16468,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -16151,6 +16523,42 @@
         <v>17</v>
       </c>
       <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -16218,7 +16626,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16229,7 +16637,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D53">
+  <conditionalFormatting sqref="D49:D50 D52:D57">
     <cfRule type="cellIs" dxfId="35" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16272,10 +16680,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16289,45 +16697,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -16335,8 +16743,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -16355,11 +16763,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -17029,10 +17437,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -17047,10 +17455,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -17102,6 +17510,42 @@
         <v>17</v>
       </c>
       <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -17169,7 +17613,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="cellIs" dxfId="497" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17180,7 +17624,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D53">
+  <conditionalFormatting sqref="D49:D50 D52:D57">
     <cfRule type="cellIs" dxfId="494" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17223,10 +17667,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17240,45 +17684,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -17286,8 +17730,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -17303,11 +17747,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -17977,10 +18421,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -17995,10 +18439,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -18050,6 +18494,42 @@
         <v>17</v>
       </c>
       <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -18117,7 +18597,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18128,7 +18608,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D53">
+  <conditionalFormatting sqref="D49:D50 D52:D57">
     <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18171,10 +18651,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18188,45 +18668,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -18234,8 +18714,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -18254,11 +18734,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -18928,10 +19408,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -18946,10 +19426,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -19001,6 +19481,42 @@
         <v>17</v>
       </c>
       <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="49">
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="49">
+        <v>2922764</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19068,7 +19584,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="cellIs" dxfId="470" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19079,7 +19595,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D53">
+  <conditionalFormatting sqref="D49:D50 D52:D57">
     <cfRule type="cellIs" dxfId="467" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19122,10 +19638,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19139,45 +19655,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -19185,8 +19701,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -19205,11 +19721,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -19879,10 +20395,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -19897,10 +20413,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -19952,6 +20468,42 @@
         <v>17</v>
       </c>
       <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -20019,7 +20571,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="cellIs" dxfId="443" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20030,7 +20582,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D53">
+  <conditionalFormatting sqref="D49:D50 D52:D57">
     <cfRule type="cellIs" dxfId="440" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20073,10 +20625,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20090,45 +20642,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -20136,8 +20688,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -20156,11 +20708,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -20830,10 +21382,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -20848,10 +21400,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -20903,6 +21455,42 @@
         <v>17</v>
       </c>
       <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -20970,7 +21558,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="cellIs" dxfId="416" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20981,7 +21569,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D53">
+  <conditionalFormatting sqref="D49:D50 D52:D57">
     <cfRule type="cellIs" dxfId="413" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21024,10 +21612,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21041,45 +21629,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -21087,8 +21675,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -21107,11 +21695,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -21781,10 +22369,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -21799,10 +22387,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -21854,6 +22442,42 @@
         <v>17</v>
       </c>
       <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="49">
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="49">
+        <v>2922764</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -21921,7 +22545,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="cellIs" dxfId="389" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21932,7 +22556,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D53">
+  <conditionalFormatting sqref="D49:D50 D52:D57">
     <cfRule type="cellIs" dxfId="386" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21975,10 +22599,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21992,45 +22616,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -22056,11 +22680,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="88" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="88"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="47" t="s">
@@ -22735,10 +23359,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -22753,10 +23377,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -22808,6 +23432,42 @@
         <v>17</v>
       </c>
       <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -22874,7 +23534,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="cellIs" dxfId="362" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22885,7 +23545,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D53">
+  <conditionalFormatting sqref="D49:D50 D52:D57">
     <cfRule type="cellIs" dxfId="359" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22928,10 +23588,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22945,45 +23605,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -22991,8 +23651,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -23011,11 +23671,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -23685,10 +24345,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -23703,10 +24363,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -23758,6 +24418,42 @@
         <v>17</v>
       </c>
       <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="49">
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="49">
+        <v>2922764</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -23825,7 +24521,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="cellIs" dxfId="335" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23836,7 +24532,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D53">
+  <conditionalFormatting sqref="D49:D50 D52:D57">
     <cfRule type="cellIs" dxfId="332" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23879,10 +24575,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23896,45 +24592,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -23942,8 +24638,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -23962,11 +24658,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -24636,10 +25332,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -24654,10 +25350,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -24709,6 +25405,42 @@
         <v>17</v>
       </c>
       <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="49">
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="49">
+        <v>2922764</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -24776,7 +25508,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="cellIs" dxfId="308" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -24787,7 +25519,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D53">
+  <conditionalFormatting sqref="D49:D50 D52:D57">
     <cfRule type="cellIs" dxfId="305" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/MM.xlsx
+++ b/MM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\ARCHIVE\Nouveau dossier (3)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08539EB0-96DE-4958-AD4E-8E0591E1ABAF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD50BEC-3CA1-427F-9C1B-C5B34734AF18}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="67">
   <si>
     <t>Code IDH</t>
   </si>
@@ -243,6 +243,9 @@
   <si>
     <t>LE CHAT power gel 4L</t>
   </si>
+  <si>
+    <t>Le Chat HS 300 gr</t>
+  </si>
 </sst>
 </file>
 
@@ -436,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -848,21 +851,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -906,7 +894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1013,18 +1001,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1129,6 +1111,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5663,10 +5648,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:B57"/>
+    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5681,45 +5666,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -6470,13 +6455,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="55">
+      <c r="C44" s="53">
         <v>10</v>
       </c>
       <c r="D44" s="37">
@@ -6492,13 +6477,13 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="54">
+      <c r="A45" s="52">
         <v>2940804</v>
       </c>
       <c r="B45" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="55">
+      <c r="C45" s="53">
         <v>3</v>
       </c>
       <c r="D45" s="37">
@@ -6515,10 +6500,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="10">
         <f>SUM(E12:E45)</f>
         <v>0</v>
@@ -6533,12 +6518,12 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="71" t="s">
+      <c r="A48" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="73"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="71"/>
     </row>
     <row r="49" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="32">
@@ -6555,10 +6540,10 @@
     </row>
     <row r="50" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34">
@@ -6568,10 +6553,10 @@
     </row>
     <row r="51" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34">
@@ -6581,10 +6566,10 @@
     </row>
     <row r="52" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="34">
@@ -6594,10 +6579,10 @@
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="35">
-        <v>2830113</v>
+        <v>2876884</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D53" s="34">
         <f>+'12'!D53+'5'!D53++'8'!D53+'2'!D53+'7'!D53+'6'!D53+'4'!D53+'9'!D53+'1'!D53+'10'!D53+'3'!D53+'11'!D53+'13'!D53+'14'!D53+'15'!D53+'16'!D53+'17'!D53+'18'!D53+'19'!D53</f>
@@ -6606,10 +6591,10 @@
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="35">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D54" s="34">
         <f>+'12'!D54+'5'!D54++'8'!D54+'2'!D54+'7'!D54+'6'!D54+'4'!D54+'9'!D54+'1'!D54+'10'!D54+'3'!D54+'11'!D54+'13'!D54+'14'!D54+'15'!D54+'16'!D54+'17'!D54+'18'!D54+'19'!D54</f>
@@ -6618,10 +6603,10 @@
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="34">
         <f>+'12'!D55+'5'!D55++'8'!D55+'2'!D55+'7'!D55+'6'!D55+'4'!D55+'9'!D55+'1'!D55+'10'!D55+'3'!D55+'11'!D55+'13'!D55+'14'!D55+'15'!D55+'16'!D55+'17'!D55+'18'!D55+'19'!D55</f>
@@ -6630,10 +6615,10 @@
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="35">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D56" s="34">
         <f>+'12'!D56+'5'!D56++'8'!D56+'2'!D56+'7'!D56+'6'!D56+'4'!D56+'9'!D56+'1'!D56+'10'!D56+'3'!D56+'11'!D56+'13'!D56+'14'!D56+'15'!D56+'16'!D56+'17'!D56+'18'!D56+'19'!D56</f>
@@ -6642,10 +6627,10 @@
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="35">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D57" s="34">
         <f>+'12'!D57+'5'!D57++'8'!D57+'2'!D57+'7'!D57+'6'!D57+'4'!D57+'9'!D57+'1'!D57+'10'!D57+'3'!D57+'11'!D57+'13'!D57+'14'!D57+'15'!D57+'16'!D57+'17'!D57+'18'!D57+'19'!D57</f>
@@ -6653,89 +6638,142 @@
       </c>
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="56"/>
-      <c r="B58" s="56"/>
+      <c r="A58" s="52">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="34">
+        <f>+'12'!D58+'5'!D58++'8'!D58+'2'!D58+'7'!D58+'6'!D58+'4'!D58+'9'!D58+'1'!D58+'10'!D58+'3'!D58+'11'!D58+'13'!D58+'14'!D58+'15'!D58+'16'!D58+'17'!D58+'18'!D58+'19'!D58</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="57" t="s">
+      <c r="A59" s="52">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="34">
+        <f>+'12'!D59+'5'!D59++'8'!D59+'2'!D59+'7'!D59+'6'!D59+'4'!D59+'9'!D59+'1'!D59+'10'!D59+'3'!D59+'11'!D59+'13'!D59+'14'!D59+'15'!D59+'16'!D59+'17'!D59+'18'!D59+'19'!D59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="34">
+        <f>+'12'!D60+'5'!D60++'8'!D60+'2'!D60+'7'!D60+'6'!D60+'4'!D60+'9'!D60+'1'!D60+'10'!D60+'3'!D60+'11'!D60+'13'!D60+'14'!D60+'15'!D60+'16'!D60+'17'!D60+'18'!D60+'19'!D60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A61" s="52">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="34">
+        <f>+'12'!D61+'5'!D61++'8'!D61+'2'!D61+'7'!D61+'6'!D61+'4'!D61+'9'!D61+'1'!D61+'10'!D61+'3'!D61+'11'!D61+'13'!D61+'14'!D61+'15'!D61+'16'!D61+'17'!D61+'18'!D61+'19'!D61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A62" s="52"/>
+      <c r="B62" s="54"/>
+      <c r="D62" s="87"/>
+    </row>
+    <row r="63" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+    </row>
+    <row r="64" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="58"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="21" t="s">
+      <c r="B64" s="56"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E64" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F59" s="67" t="s">
+      <c r="F64" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="G59" s="68"/>
-    </row>
-    <row r="60" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="57" t="s">
+      <c r="G64" s="66"/>
+    </row>
+    <row r="65" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="58"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="70"/>
-    </row>
-    <row r="62" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="57" t="s">
+      <c r="B66" s="56"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="68"/>
+    </row>
+    <row r="67" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="58"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="83"/>
-    </row>
-    <row r="63" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="57" t="s">
+      <c r="B67" s="56"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="80"/>
+      <c r="G67" s="81"/>
+    </row>
+    <row r="68" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="58"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="83"/>
-    </row>
-    <row r="64" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="57" t="s">
+      <c r="B68" s="56"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="80"/>
+      <c r="G68" s="81"/>
+    </row>
+    <row r="69" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="58"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="60"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="F69:G69"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F66:G66"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="F68:G68"/>
   </mergeCells>
   <conditionalFormatting sqref="D12">
     <cfRule type="cellIs" dxfId="530" priority="28" operator="greaterThan">
@@ -6792,7 +6830,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D57">
+  <conditionalFormatting sqref="D49:D62">
     <cfRule type="cellIs" dxfId="515" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6813,10 +6851,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6830,45 +6868,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -6876,8 +6914,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -6896,11 +6934,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="86" t="str">
+      <c r="E9" s="84" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -7570,10 +7608,10 @@
     </row>
     <row r="46" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -7588,10 +7626,10 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="85"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -7607,78 +7645,114 @@
     </row>
     <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>17</v>
+      <c r="A53" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>27</v>
+        <v>2917788</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
+      <c r="A56" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2922764</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>59</v>
+        <v>2823409</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7746,7 +7820,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
+  <conditionalFormatting sqref="D52:D61">
     <cfRule type="cellIs" dxfId="281" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7757,7 +7831,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D57">
+  <conditionalFormatting sqref="D49:D50 D52:D61">
     <cfRule type="cellIs" dxfId="278" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7800,10 +7874,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7817,45 +7891,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -7863,8 +7937,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -7883,11 +7957,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="86" t="str">
+      <c r="E9" s="84" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -8557,10 +8631,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -8575,10 +8649,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="85"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -8594,78 +8668,114 @@
     </row>
     <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>17</v>
+      <c r="A53" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>27</v>
+        <v>2917788</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
+      <c r="A56" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2922764</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>59</v>
+        <v>2823409</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8733,7 +8843,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
+  <conditionalFormatting sqref="D52:D61">
     <cfRule type="cellIs" dxfId="254" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8744,7 +8854,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D57">
+  <conditionalFormatting sqref="D49:D50 D52:D61">
     <cfRule type="cellIs" dxfId="251" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8787,10 +8897,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8804,45 +8914,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -8850,8 +8960,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -8870,11 +8980,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="86" t="str">
+      <c r="E9" s="84" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -9544,10 +9654,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -9562,10 +9672,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="85"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -9581,78 +9691,114 @@
     </row>
     <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>17</v>
+      <c r="A53" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>27</v>
+        <v>2917788</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
+      <c r="A56" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2922764</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>59</v>
+        <v>2823409</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9720,7 +9866,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
+  <conditionalFormatting sqref="D52:D61">
     <cfRule type="cellIs" dxfId="227" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9731,7 +9877,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D57">
+  <conditionalFormatting sqref="D49:D50 D52:D61">
     <cfRule type="cellIs" dxfId="224" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9774,10 +9920,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9791,45 +9937,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -9855,11 +10001,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="86" t="str">
+      <c r="E9" s="84" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -10529,10 +10675,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -10547,97 +10693,133 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="85"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="49">
+      <c r="A49" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C49" s="48"/>
       <c r="D49" s="34"/>
     </row>
     <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="49">
-        <v>2845955</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>19</v>
+      <c r="A50" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C50" s="48"/>
       <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="49">
-        <v>2728382</v>
-      </c>
-      <c r="B51" s="50" t="s">
-        <v>8</v>
+      <c r="A51" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="C51" s="48"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>17</v>
+      <c r="A53" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="49">
-        <v>2876884</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>27</v>
+      <c r="A54" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
+      <c r="A56" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="49">
-        <v>2922764</v>
-      </c>
-      <c r="B57" s="50" t="s">
-        <v>59</v>
+      <c r="A57" s="35">
+        <v>2823409</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10704,7 +10886,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
+  <conditionalFormatting sqref="D52:D61">
     <cfRule type="cellIs" dxfId="200" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10715,7 +10897,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D57">
+  <conditionalFormatting sqref="D49:D50 D52:D61">
     <cfRule type="cellIs" dxfId="197" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10758,10 +10940,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10775,45 +10957,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -10821,8 +11003,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -10841,11 +11023,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="86" t="str">
+      <c r="E9" s="84" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -11515,10 +11697,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -11533,10 +11715,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="85"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -11552,78 +11734,114 @@
     </row>
     <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>17</v>
+      <c r="A53" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>27</v>
+        <v>2917788</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
+      <c r="A56" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2922764</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>59</v>
+        <v>2823409</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11691,7 +11909,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
+  <conditionalFormatting sqref="D52:D61">
     <cfRule type="cellIs" dxfId="173" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11702,7 +11920,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D57">
+  <conditionalFormatting sqref="D49:D50 D52:D61">
     <cfRule type="cellIs" dxfId="170" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11745,10 +11963,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11762,45 +11980,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -11808,8 +12026,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -11828,11 +12046,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="86" t="str">
+      <c r="E9" s="84" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -12502,10 +12720,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -12520,10 +12738,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="85"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -12539,78 +12757,114 @@
     </row>
     <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>17</v>
+      <c r="A53" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>27</v>
+        <v>2917788</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
+      <c r="A56" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2922764</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>59</v>
+        <v>2823409</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12678,7 +12932,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
+  <conditionalFormatting sqref="D52:D61">
     <cfRule type="cellIs" dxfId="146" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12689,7 +12943,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D57">
+  <conditionalFormatting sqref="D49:D50 D52:D61">
     <cfRule type="cellIs" dxfId="143" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12732,10 +12986,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12749,45 +13003,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -12795,8 +13049,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -12815,11 +13069,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="86" t="str">
+      <c r="E9" s="84" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -13489,10 +13743,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -13507,10 +13761,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="85"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -13526,78 +13780,114 @@
     </row>
     <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>17</v>
+      <c r="A53" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>27</v>
+        <v>2917788</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
+      <c r="A56" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2922764</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>59</v>
+        <v>2823409</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13665,7 +13955,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
+  <conditionalFormatting sqref="D52:D61">
     <cfRule type="cellIs" dxfId="119" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13676,7 +13966,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D57">
+  <conditionalFormatting sqref="D49:D50 D52:D61">
     <cfRule type="cellIs" dxfId="116" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13719,10 +14009,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13736,45 +14026,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -13782,8 +14072,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -13802,11 +14092,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="86" t="str">
+      <c r="E9" s="84" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -14476,10 +14766,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -14494,10 +14784,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="85"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -14513,78 +14803,114 @@
     </row>
     <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>17</v>
+      <c r="A53" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>27</v>
+        <v>2917788</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
+      <c r="A56" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2922764</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>59</v>
+        <v>2823409</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14652,7 +14978,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
+  <conditionalFormatting sqref="D52:D61">
     <cfRule type="cellIs" dxfId="92" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14663,7 +14989,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D57">
+  <conditionalFormatting sqref="D49:D50 D52:D61">
     <cfRule type="cellIs" dxfId="89" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14706,10 +15032,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14723,45 +15049,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -14769,8 +15095,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -14789,11 +15115,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="86" t="str">
+      <c r="E9" s="84" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -15463,10 +15789,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -15481,10 +15807,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="85"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -15500,78 +15826,114 @@
     </row>
     <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>17</v>
+      <c r="A53" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>27</v>
+        <v>2917788</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
+      <c r="A56" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2922764</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>59</v>
+        <v>2823409</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15639,7 +16001,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
+  <conditionalFormatting sqref="D52:D61">
     <cfRule type="cellIs" dxfId="65" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15650,7 +16012,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D57">
+  <conditionalFormatting sqref="D49:D50 D52:D61">
     <cfRule type="cellIs" dxfId="62" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15693,10 +16055,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15710,45 +16072,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -15756,8 +16118,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -15776,11 +16138,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="86" t="str">
+      <c r="E9" s="84" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -16450,10 +16812,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -16468,10 +16830,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="85"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -16487,78 +16849,114 @@
     </row>
     <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>17</v>
+      <c r="A53" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>27</v>
+        <v>2917788</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
+      <c r="A56" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2922764</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>59</v>
+        <v>2823409</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -16626,7 +17024,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
+  <conditionalFormatting sqref="D52:D61">
     <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16637,7 +17035,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D57">
+  <conditionalFormatting sqref="D49:D50 D52:D61">
     <cfRule type="cellIs" dxfId="35" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16680,10 +17078,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16697,45 +17095,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -16743,8 +17141,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -16763,11 +17161,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="86" t="str">
+      <c r="E9" s="84" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -17437,10 +17835,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -17455,10 +17853,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="85"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -17474,78 +17872,114 @@
     </row>
     <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>17</v>
+      <c r="A53" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>27</v>
+        <v>2917788</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
+      <c r="A56" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2922764</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>59</v>
+        <v>2823409</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -17613,7 +18047,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
+  <conditionalFormatting sqref="D52:D61">
     <cfRule type="cellIs" dxfId="497" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17624,7 +18058,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D57">
+  <conditionalFormatting sqref="D49:D50 D52:D61">
     <cfRule type="cellIs" dxfId="494" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17667,10 +18101,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:B57"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17684,45 +18118,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -17730,8 +18164,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -17747,11 +18181,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="86" t="str">
+      <c r="E9" s="84" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -18421,10 +18855,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -18439,10 +18873,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="85"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -18458,78 +18892,114 @@
     </row>
     <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>17</v>
+      <c r="A53" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>27</v>
+        <v>2917788</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
+      <c r="A56" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2922764</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>59</v>
+        <v>2823409</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -18597,7 +19067,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
+  <conditionalFormatting sqref="D52:D61">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18608,7 +19078,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D57">
+  <conditionalFormatting sqref="D49:D50 D52:D61">
     <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18651,10 +19121,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18668,45 +19138,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -18714,8 +19184,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -18734,11 +19204,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="86" t="str">
+      <c r="E9" s="84" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -19408,10 +19878,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -19426,97 +19896,133 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="85"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="49">
+      <c r="A49" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C49" s="48"/>
       <c r="D49" s="34"/>
     </row>
     <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="49">
-        <v>2845955</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>19</v>
+      <c r="A50" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C50" s="48"/>
       <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="49">
-        <v>2728382</v>
-      </c>
-      <c r="B51" s="50" t="s">
-        <v>8</v>
+      <c r="A51" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="C51" s="48"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>17</v>
+      <c r="A53" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="49">
-        <v>2876884</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>27</v>
+      <c r="A54" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
+      <c r="A56" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="49">
-        <v>2922764</v>
-      </c>
-      <c r="B57" s="50" t="s">
-        <v>59</v>
+      <c r="A57" s="35">
+        <v>2823409</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19584,7 +20090,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
+  <conditionalFormatting sqref="D52:D61">
     <cfRule type="cellIs" dxfId="470" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19595,7 +20101,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D57">
+  <conditionalFormatting sqref="D49:D50 D52:D61">
     <cfRule type="cellIs" dxfId="467" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19638,10 +20144,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19655,45 +20161,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -19701,8 +20207,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -19721,11 +20227,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="86" t="str">
+      <c r="E9" s="84" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -20395,10 +20901,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -20413,10 +20919,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="85"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -20432,78 +20938,114 @@
     </row>
     <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>17</v>
+      <c r="A53" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>27</v>
+        <v>2917788</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
+      <c r="A56" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2922764</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>59</v>
+        <v>2823409</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -20571,7 +21113,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
+  <conditionalFormatting sqref="D52:D61">
     <cfRule type="cellIs" dxfId="443" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20582,7 +21124,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D57">
+  <conditionalFormatting sqref="D49:D50 D52:D61">
     <cfRule type="cellIs" dxfId="440" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20625,10 +21167,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20642,45 +21184,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -20688,8 +21230,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -20708,11 +21250,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="86" t="str">
+      <c r="E9" s="84" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -21382,10 +21924,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -21400,10 +21942,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="85"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -21419,78 +21961,114 @@
     </row>
     <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>17</v>
+      <c r="A53" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>27</v>
+        <v>2917788</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
+      <c r="A56" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2922764</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>59</v>
+        <v>2823409</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -21558,7 +22136,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
+  <conditionalFormatting sqref="D52:D61">
     <cfRule type="cellIs" dxfId="416" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21569,7 +22147,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D57">
+  <conditionalFormatting sqref="D49:D50 D52:D61">
     <cfRule type="cellIs" dxfId="413" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21612,10 +22190,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21629,45 +22207,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -21675,8 +22253,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -21695,11 +22273,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="86" t="str">
+      <c r="E9" s="84" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -22369,10 +22947,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -22387,97 +22965,133 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="85"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="49">
+      <c r="A49" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C49" s="48"/>
       <c r="D49" s="34"/>
     </row>
     <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="49">
-        <v>2845955</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>19</v>
+      <c r="A50" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C50" s="48"/>
       <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="49">
-        <v>2728382</v>
-      </c>
-      <c r="B51" s="50" t="s">
-        <v>8</v>
+      <c r="A51" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="C51" s="48"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>17</v>
+      <c r="A53" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="49">
-        <v>2876884</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>27</v>
+      <c r="A54" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
+      <c r="A56" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="49">
-        <v>2922764</v>
-      </c>
-      <c r="B57" s="50" t="s">
-        <v>59</v>
+      <c r="A57" s="35">
+        <v>2823409</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -22545,7 +23159,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
+  <conditionalFormatting sqref="D52:D61">
     <cfRule type="cellIs" dxfId="389" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22556,7 +23170,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D57">
+  <conditionalFormatting sqref="D49:D50 D52:D61">
     <cfRule type="cellIs" dxfId="386" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22599,10 +23213,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22616,45 +23230,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -22680,11 +23294,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="88" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="88"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="47" t="s">
@@ -23359,10 +23973,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -23377,10 +23991,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="85"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -23396,78 +24010,114 @@
     </row>
     <row r="50" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>17</v>
+      <c r="A53" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>27</v>
+        <v>2917788</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
+      <c r="A56" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2922764</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>59</v>
+        <v>2823409</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -23534,7 +24184,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
+  <conditionalFormatting sqref="D52:D61">
     <cfRule type="cellIs" dxfId="362" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23545,7 +24195,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D57">
+  <conditionalFormatting sqref="D49:D50 D52:D61">
     <cfRule type="cellIs" dxfId="359" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23588,10 +24238,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23605,45 +24255,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -23651,8 +24301,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -23671,11 +24321,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="86" t="str">
+      <c r="E9" s="84" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -24345,10 +24995,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -24363,97 +25013,133 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="85"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="49">
+      <c r="A49" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C49" s="48"/>
       <c r="D49" s="34"/>
     </row>
     <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="49">
-        <v>2845955</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>19</v>
+      <c r="A50" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C50" s="48"/>
       <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="49">
-        <v>2728382</v>
-      </c>
-      <c r="B51" s="50" t="s">
-        <v>8</v>
+      <c r="A51" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="C51" s="48"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>17</v>
+      <c r="A53" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="49">
-        <v>2876884</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>27</v>
+      <c r="A54" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
+      <c r="A56" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="49">
-        <v>2922764</v>
-      </c>
-      <c r="B57" s="50" t="s">
-        <v>59</v>
+      <c r="A57" s="35">
+        <v>2823409</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -24521,7 +25207,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
+  <conditionalFormatting sqref="D52:D61">
     <cfRule type="cellIs" dxfId="335" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -24532,7 +25218,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D57">
+  <conditionalFormatting sqref="D49:D50 D52:D61">
     <cfRule type="cellIs" dxfId="332" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -24575,10 +25261,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24592,45 +25278,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -24638,8 +25324,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -24658,11 +25344,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="86" t="str">
+      <c r="E9" s="84" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -25332,10 +26018,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -25350,97 +26036,133 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="85"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="49">
+      <c r="A49" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C49" s="48"/>
       <c r="D49" s="34"/>
     </row>
     <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="49">
-        <v>2845955</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>19</v>
+      <c r="A50" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C50" s="48"/>
       <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="49">
-        <v>2728382</v>
-      </c>
-      <c r="B51" s="50" t="s">
-        <v>8</v>
+      <c r="A51" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="C51" s="48"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>17</v>
+      <c r="A53" s="35">
+        <v>2876884</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="49">
-        <v>2876884</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>27</v>
+      <c r="A54" s="35">
+        <v>2917788</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
+      <c r="A56" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="49">
-        <v>2922764</v>
-      </c>
-      <c r="B57" s="50" t="s">
-        <v>59</v>
+      <c r="A57" s="35">
+        <v>2823409</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -25508,7 +26230,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
+  <conditionalFormatting sqref="D52:D61">
     <cfRule type="cellIs" dxfId="308" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -25519,7 +26241,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D57">
+  <conditionalFormatting sqref="D49:D50 D52:D61">
     <cfRule type="cellIs" dxfId="305" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/MM.xlsx
+++ b/MM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\ARCHIVE\Nouveau dossier (3)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD50BEC-3CA1-427F-9C1B-C5B34734AF18}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B65D06-60FF-4065-8FBE-488F13C2ED19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6780" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="67">
   <si>
     <t>Code IDH</t>
   </si>
@@ -252,9 +252,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
-    <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -439,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -889,12 +889,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -908,14 +921,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -929,14 +942,14 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,7 +989,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1000,7 +1013,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1015,6 +1028,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1112,7 +1128,10 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1120,487 +1139,7 @@
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="531">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="471">
     <dxf>
       <fill>
         <patternFill>
@@ -5648,10 +5187,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:B61"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5666,45 +5205,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -6091,7 +5630,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="7">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E27" s="15">
         <f>+'1'!E27+'2'!E27+'3'!E27+'4'!E27+'5'!E27+'6'!E27+'7'!E27+'8'!E27+'9'!E27+'10'!E27+'11'!E27+'12'!E27+'13'!E27+'14'!E27+'15'!E27+'16'!E27+'17'!E27+'18'!E27+'19'!E27</f>
@@ -6157,7 +5696,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30" s="15">
         <f>+'1'!E30+'2'!E30+'3'!E30+'4'!E30+'5'!E30+'6'!E30+'7'!E30+'8'!E30+'9'!E30+'10'!E30+'11'!E30+'12'!E30+'13'!E30+'14'!E30+'15'!E30+'16'!E30+'17'!E30+'18'!E30+'19'!E30</f>
@@ -6201,7 +5740,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>164.5</v>
+        <v>168</v>
       </c>
       <c r="E32" s="15">
         <f>+'1'!E32+'2'!E32+'3'!E32+'4'!E32+'5'!E32+'6'!E32+'7'!E32+'8'!E32+'9'!E32+'10'!E32+'11'!E32+'12'!E32+'13'!E32+'14'!E32+'15'!E32+'16'!E32+'17'!E32+'18'!E32+'19'!E32</f>
@@ -6355,7 +5894,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>112.5</v>
+        <v>130</v>
       </c>
       <c r="E39" s="15">
         <f>+'1'!E39+'2'!E39+'3'!E39+'4'!E39+'5'!E39+'6'!E39+'7'!E39+'8'!E39+'9'!E39+'10'!E39+'11'!E39+'12'!E39+'13'!E39+'14'!E39+'15'!E39+'16'!E39+'17'!E39+'18'!E39+'19'!E39</f>
@@ -6500,10 +6039,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E12:E45)</f>
         <v>0</v>
@@ -6518,12 +6057,12 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="69" t="s">
+      <c r="A48" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="71"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="72"/>
     </row>
     <row r="49" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="32">
@@ -6564,26 +6103,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="88"/>
+      <c r="D52" s="34">
+        <f>+'12'!D53+'5'!D53++'8'!D53+'2'!D53+'7'!D53+'6'!D53+'4'!D53+'9'!D53+'1'!D53+'10'!D53+'3'!D53+'11'!D53+'13'!D53+'14'!D53+'15'!D53+'16'!D53+'17'!D53+'18'!D53+'19'!D53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="35">
         <v>2830113</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B53" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="34">
-        <f>+'12'!D52+'5'!D52++'8'!D52+'2'!D52+'7'!D52+'6'!D52+'4'!D52+'9'!D52+'1'!D52+'10'!D52+'3'!D52+'11'!D52+'13'!D52+'14'!D52+'15'!D52+'16'!D52+'17'!D52+'18'!D52+'19'!D52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="35">
-        <v>2876884</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>27</v>
-      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="34">
         <f>+'12'!D53+'5'!D53++'8'!D53+'2'!D53+'7'!D53+'6'!D53+'4'!D53+'9'!D53+'1'!D53+'10'!D53+'3'!D53+'11'!D53+'13'!D53+'14'!D53+'15'!D53+'16'!D53+'17'!D53+'18'!D53+'19'!D53</f>
         <v>0</v>
@@ -6591,10 +6131,10 @@
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D54" s="34">
         <f>+'12'!D54+'5'!D54++'8'!D54+'2'!D54+'7'!D54+'6'!D54+'4'!D54+'9'!D54+'1'!D54+'10'!D54+'3'!D54+'11'!D54+'13'!D54+'14'!D54+'15'!D54+'16'!D54+'17'!D54+'18'!D54+'19'!D54</f>
@@ -6603,10 +6143,10 @@
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="34">
         <f>+'12'!D55+'5'!D55++'8'!D55+'2'!D55+'7'!D55+'6'!D55+'4'!D55+'9'!D55+'1'!D55+'10'!D55+'3'!D55+'11'!D55+'13'!D55+'14'!D55+'15'!D55+'16'!D55+'17'!D55+'18'!D55+'19'!D55</f>
@@ -6615,10 +6155,10 @@
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="35">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="34">
         <f>+'12'!D56+'5'!D56++'8'!D56+'2'!D56+'7'!D56+'6'!D56+'4'!D56+'9'!D56+'1'!D56+'10'!D56+'3'!D56+'11'!D56+'13'!D56+'14'!D56+'15'!D56+'16'!D56+'17'!D56+'18'!D56+'19'!D56</f>
@@ -6627,10 +6167,10 @@
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="35">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D57" s="34">
         <f>+'12'!D57+'5'!D57++'8'!D57+'2'!D57+'7'!D57+'6'!D57+'4'!D57+'9'!D57+'1'!D57+'10'!D57+'3'!D57+'11'!D57+'13'!D57+'14'!D57+'15'!D57+'16'!D57+'17'!D57+'18'!D57+'19'!D57</f>
@@ -6639,10 +6179,10 @@
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="52">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="34">
         <f>+'12'!D58+'5'!D58++'8'!D58+'2'!D58+'7'!D58+'6'!D58+'4'!D58+'9'!D58+'1'!D58+'10'!D58+'3'!D58+'11'!D58+'13'!D58+'14'!D58+'15'!D58+'16'!D58+'17'!D58+'18'!D58+'19'!D58</f>
@@ -6651,22 +6191,22 @@
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="52">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="34">
         <f>+'12'!D59+'5'!D59++'8'!D59+'2'!D59+'7'!D59+'6'!D59+'4'!D59+'9'!D59+'1'!D59+'10'!D59+'3'!D59+'11'!D59+'13'!D59+'14'!D59+'15'!D59+'16'!D59+'17'!D59+'18'!D59+'19'!D59</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60" s="52">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="34">
         <f>+'12'!D60+'5'!D60++'8'!D60+'2'!D60+'7'!D60+'6'!D60+'4'!D60+'9'!D60+'1'!D60+'10'!D60+'3'!D60+'11'!D60+'13'!D60+'14'!D60+'15'!D60+'16'!D60+'17'!D60+'18'!D60+'19'!D60</f>
@@ -6674,170 +6214,147 @@
       </c>
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A61" s="52">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="34">
-        <f>+'12'!D61+'5'!D61++'8'!D61+'2'!D61+'7'!D61+'6'!D61+'4'!D61+'9'!D61+'1'!D61+'10'!D61+'3'!D61+'11'!D61+'13'!D61+'14'!D61+'15'!D61+'16'!D61+'17'!D61+'18'!D61+'19'!D61</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="52"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="54"/>
+      <c r="D61" s="55"/>
+    </row>
+    <row r="62" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="54"/>
       <c r="B62" s="54"/>
-      <c r="D62" s="87"/>
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-    </row>
-    <row r="64" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A64" s="55" t="s">
+      <c r="A63" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="56"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="21" t="s">
+      <c r="B63" s="57"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E63" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="65" t="s">
+      <c r="F63" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="G64" s="66"/>
-    </row>
-    <row r="65" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="G63" s="67"/>
+    </row>
+    <row r="64" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="57"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="69"/>
+    </row>
     <row r="66" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="56"/>
+      <c r="A66" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="57"/>
       <c r="C66" s="23"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="68"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="82"/>
     </row>
     <row r="67" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="B67" s="56"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="80"/>
-      <c r="G67" s="81"/>
+      <c r="A67" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="57"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="82"/>
     </row>
     <row r="68" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" s="56"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="80"/>
-      <c r="G68" s="81"/>
-    </row>
-    <row r="69" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="55" t="s">
+      <c r="A68" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="56"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="58"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="F68:G68"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F65:G65"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="F66:G66"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="F67:G67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="F68:G68"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="530" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="29" operator="greaterThan">
+  <conditionalFormatting sqref="D12 D49:D61">
+    <cfRule type="cellIs" dxfId="470" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="469" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="468" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="527" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="467" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="466" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="465" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="524" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="464" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="463" priority="23" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="462" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="521" priority="19" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="461" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="460" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="519" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="459" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="518" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="517" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="458" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="457" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D62">
-    <cfRule type="cellIs" dxfId="515" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="11" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="456" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6851,10 +6368,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6868,45 +6385,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -6914,8 +6431,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -6934,11 +6451,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="84" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -7256,7 +6773,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="7">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="7">
@@ -7313,7 +6830,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="7">
@@ -7351,7 +6868,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>164.5</v>
+        <v>168</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="7">
@@ -7484,7 +7001,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>112.5</v>
+        <v>130</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -7608,10 +7125,10 @@
     </row>
     <row r="46" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -7626,10 +7143,10 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -7664,95 +7181,87 @@
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="52">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7765,102 +7274,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="296" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D12 D53:D60">
+    <cfRule type="cellIs" dxfId="263" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="261" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="293" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="260" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="258" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="290" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="257" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="255" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="287" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="254" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="252" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="284" priority="19" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="251" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="249" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D61">
-    <cfRule type="cellIs" dxfId="281" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="cellIs" dxfId="248" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="246" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D61">
-    <cfRule type="cellIs" dxfId="278" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="245" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="243" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="275" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="242" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="272" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="240" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7874,10 +7372,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7891,45 +7389,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -7937,8 +7435,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -7957,11 +7455,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="84" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -8279,7 +7777,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="7">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="7">
@@ -8336,7 +7834,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="7">
@@ -8374,7 +7872,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>164.5</v>
+        <v>168</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="7">
@@ -8507,7 +8005,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>112.5</v>
+        <v>130</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -8631,10 +8129,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -8649,10 +8147,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -8687,95 +8185,87 @@
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="52">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8788,102 +8278,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="269" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D12 D53:D60">
+    <cfRule type="cellIs" dxfId="239" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="237" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="266" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="236" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="234" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="263" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="233" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="231" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="260" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="230" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="228" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="257" priority="19" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="227" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="225" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D61">
-    <cfRule type="cellIs" dxfId="254" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="cellIs" dxfId="224" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="222" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D61">
-    <cfRule type="cellIs" dxfId="251" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="221" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="219" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="248" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="218" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="245" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="216" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8897,10 +8376,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8914,45 +8393,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -8960,8 +8439,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -8980,11 +8459,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="84" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -9302,7 +8781,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="7">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="7">
@@ -9359,7 +8838,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="7">
@@ -9397,7 +8876,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>164.5</v>
+        <v>168</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="7">
@@ -9530,7 +9009,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>112.5</v>
+        <v>130</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -9654,10 +9133,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -9672,10 +9151,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -9710,95 +9189,87 @@
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="52">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9811,102 +9282,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="242" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D12 D53:D60">
+    <cfRule type="cellIs" dxfId="215" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="213" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="239" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="212" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="210" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="236" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="209" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="207" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="233" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="206" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="204" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="230" priority="19" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="203" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="201" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D61">
-    <cfRule type="cellIs" dxfId="227" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="cellIs" dxfId="200" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="198" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D61">
-    <cfRule type="cellIs" dxfId="224" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="197" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="195" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="221" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="194" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="218" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="192" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9920,10 +9380,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9937,45 +9397,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -10001,11 +9461,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="84" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -10323,7 +9783,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="7">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="7">
@@ -10380,7 +9840,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="7">
@@ -10418,7 +9878,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>164.5</v>
+        <v>168</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="7">
@@ -10551,7 +10011,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>112.5</v>
+        <v>130</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -10675,10 +10135,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -10693,10 +10153,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -10731,95 +10191,87 @@
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="52">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10831,102 +10283,91 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="215" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D12 D53:D60">
+    <cfRule type="cellIs" dxfId="191" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="189" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="212" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="188" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="186" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="209" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="185" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="206" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="182" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="180" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="203" priority="19" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="177" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D61">
-    <cfRule type="cellIs" dxfId="200" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="cellIs" dxfId="176" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D61">
-    <cfRule type="cellIs" dxfId="197" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="173" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="194" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="170" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="191" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10940,10 +10381,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10957,45 +10398,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -11003,8 +10444,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -11023,11 +10464,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="84" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -11345,7 +10786,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="7">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="7">
@@ -11402,7 +10843,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="7">
@@ -11440,7 +10881,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>164.5</v>
+        <v>168</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="7">
@@ -11573,7 +11014,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>112.5</v>
+        <v>130</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -11697,10 +11138,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -11715,10 +11156,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -11753,95 +11194,87 @@
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="52">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11854,102 +11287,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="188" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D12 D53:D60">
+    <cfRule type="cellIs" dxfId="167" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="185" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="182" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="179" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="176" priority="19" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D61">
-    <cfRule type="cellIs" dxfId="173" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="cellIs" dxfId="152" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D61">
-    <cfRule type="cellIs" dxfId="170" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="149" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="167" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="146" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="164" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11963,10 +11385,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11980,45 +11402,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -12026,8 +11448,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -12046,11 +11468,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="84" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -12368,7 +11790,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="7">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="7">
@@ -12425,7 +11847,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="7">
@@ -12463,7 +11885,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>164.5</v>
+        <v>168</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="7">
@@ -12596,7 +12018,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>112.5</v>
+        <v>130</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -12720,10 +12142,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -12738,10 +12160,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -12776,95 +12198,87 @@
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="52">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12877,102 +12291,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="161" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D12 D53:D60">
+    <cfRule type="cellIs" dxfId="143" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="158" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="155" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="152" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="149" priority="19" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D61">
-    <cfRule type="cellIs" dxfId="146" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="cellIs" dxfId="128" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D61">
-    <cfRule type="cellIs" dxfId="143" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="125" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="140" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="122" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="137" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12986,10 +12389,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13003,45 +12406,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -13049,8 +12452,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -13069,11 +12472,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="84" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -13391,7 +12794,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="7">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="7">
@@ -13448,7 +12851,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="7">
@@ -13486,7 +12889,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>164.5</v>
+        <v>168</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="7">
@@ -13619,7 +13022,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>112.5</v>
+        <v>130</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -13743,10 +13146,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -13761,10 +13164,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -13799,95 +13202,87 @@
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="52">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13900,102 +13295,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="134" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D12 D53:D60">
+    <cfRule type="cellIs" dxfId="119" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="131" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="128" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="125" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="122" priority="19" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D61">
-    <cfRule type="cellIs" dxfId="119" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="cellIs" dxfId="104" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D61">
-    <cfRule type="cellIs" dxfId="116" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="101" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="113" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="98" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="110" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14009,10 +13393,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14026,45 +13410,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -14072,8 +13456,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -14092,11 +13476,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="84" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -14414,7 +13798,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="7">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="7">
@@ -14471,7 +13855,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="7">
@@ -14509,7 +13893,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>164.5</v>
+        <v>168</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="7">
@@ -14642,7 +14026,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>112.5</v>
+        <v>130</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -14766,10 +14150,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -14784,10 +14168,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -14822,95 +14206,87 @@
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="52">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14923,102 +14299,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="107" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D12 D53:D60">
+    <cfRule type="cellIs" dxfId="95" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="104" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="101" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="98" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="95" priority="19" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D61">
-    <cfRule type="cellIs" dxfId="92" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="cellIs" dxfId="80" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D61">
-    <cfRule type="cellIs" dxfId="89" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="77" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="86" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="74" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="83" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15032,10 +14397,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15049,45 +14414,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -15095,8 +14460,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -15115,11 +14480,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="84" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -15437,7 +14802,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="7">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="7">
@@ -15494,7 +14859,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="7">
@@ -15532,7 +14897,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>164.5</v>
+        <v>168</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="7">
@@ -15665,7 +15030,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>112.5</v>
+        <v>130</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -15789,10 +15154,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -15807,10 +15172,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -15845,95 +15210,87 @@
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="52">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15946,102 +15303,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="80" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D12 D53:D60">
+    <cfRule type="cellIs" dxfId="71" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="77" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="74" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="71" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="68" priority="19" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D61">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="cellIs" dxfId="56" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D61">
-    <cfRule type="cellIs" dxfId="62" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="53" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="59" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16055,10 +15401,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16072,45 +15418,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -16118,8 +15464,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -16138,11 +15484,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="84" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -16460,7 +15806,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="7">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="7">
@@ -16517,7 +15863,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="7">
@@ -16555,7 +15901,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>164.5</v>
+        <v>168</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="7">
@@ -16688,7 +16034,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>112.5</v>
+        <v>130</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -16812,10 +16158,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -16830,10 +16176,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -16868,95 +16214,87 @@
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="52">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -16969,102 +16307,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="53" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D12 D53:D60">
+    <cfRule type="cellIs" dxfId="47" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="50" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="47" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="44" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="41" priority="19" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D61">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D61">
-    <cfRule type="cellIs" dxfId="35" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="32" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17078,10 +16405,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17095,45 +16422,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -17141,8 +16468,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -17161,11 +16488,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="84" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -17483,7 +16810,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="7">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="7">
@@ -17540,7 +16867,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="7">
@@ -17578,7 +16905,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>164.5</v>
+        <v>168</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="7">
@@ -17711,7 +17038,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>112.5</v>
+        <v>130</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -17835,10 +17162,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -17853,10 +17180,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -17891,95 +17218,87 @@
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="52">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -17992,102 +17311,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="512" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="511" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D12 D53:D60">
+    <cfRule type="cellIs" dxfId="455" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="454" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="453" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="509" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="452" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="451" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="450" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="506" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="505" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="449" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="448" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="447" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="503" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="446" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="445" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="444" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="500" priority="19" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="443" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="442" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="441" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D61">
-    <cfRule type="cellIs" dxfId="497" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="cellIs" dxfId="440" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="439" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="438" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D61">
-    <cfRule type="cellIs" dxfId="494" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="437" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="436" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="435" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="491" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="434" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="433" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="488" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="432" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18101,10 +17409,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18118,45 +17426,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -18164,8 +17472,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -18181,11 +17489,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="84" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -18503,7 +17811,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="7">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="7">
@@ -18560,7 +17868,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="7">
@@ -18598,7 +17906,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>164.5</v>
+        <v>168</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="7">
@@ -18731,7 +18039,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>112.5</v>
+        <v>130</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -18855,10 +18163,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -18873,10 +18181,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -18911,95 +18219,87 @@
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="52">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19012,73 +18312,62 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D12 D53:D60">
+    <cfRule type="cellIs" dxfId="23" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="20" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D61">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D61">
+  <conditionalFormatting sqref="D49:D50">
     <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19089,7 +18378,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D51:D52">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19100,7 +18389,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D51:D52">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19121,10 +18410,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19138,45 +18427,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -19184,8 +18473,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -19204,11 +18493,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="84" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -19526,7 +18815,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="7">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="7">
@@ -19583,7 +18872,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="7">
@@ -19621,7 +18910,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>164.5</v>
+        <v>168</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="7">
@@ -19754,7 +19043,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>112.5</v>
+        <v>130</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -19878,10 +19167,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -19896,10 +19185,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -19934,95 +19223,87 @@
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="52">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -20035,102 +19316,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="485" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D12 D53:D60">
+    <cfRule type="cellIs" dxfId="431" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="430" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="429" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="482" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="428" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="427" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="426" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="479" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="425" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="424" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="423" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="476" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="422" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="421" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="420" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="473" priority="19" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="419" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="418" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="417" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D61">
-    <cfRule type="cellIs" dxfId="470" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="cellIs" dxfId="416" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="415" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="414" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D61">
-    <cfRule type="cellIs" dxfId="467" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="413" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="412" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="411" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="464" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="410" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="409" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="461" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="408" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20144,10 +19414,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20161,45 +19431,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -20207,8 +19477,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -20227,11 +19497,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="84" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -20549,7 +19819,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="7">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="7">
@@ -20606,7 +19876,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="7">
@@ -20644,7 +19914,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>164.5</v>
+        <v>168</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="7">
@@ -20777,7 +20047,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>112.5</v>
+        <v>130</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -20901,10 +20171,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -20919,10 +20189,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -20957,95 +20227,87 @@
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="52">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -21058,102 +20320,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="458" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D12 D53:D60">
+    <cfRule type="cellIs" dxfId="407" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="406" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="405" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="455" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="404" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="403" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="402" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="452" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="401" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="400" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="399" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="449" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="398" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="397" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="396" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="446" priority="19" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="395" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="394" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="393" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D61">
-    <cfRule type="cellIs" dxfId="443" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="cellIs" dxfId="392" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="391" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="390" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D61">
-    <cfRule type="cellIs" dxfId="440" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="389" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="388" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="387" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="437" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="386" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="385" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="434" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="384" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21167,10 +20418,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21184,45 +20435,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -21230,8 +20481,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -21250,11 +20501,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="84" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -21572,7 +20823,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="7">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="7">
@@ -21629,7 +20880,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="7">
@@ -21667,7 +20918,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>164.5</v>
+        <v>168</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="7">
@@ -21800,7 +21051,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>112.5</v>
+        <v>130</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -21924,10 +21175,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -21942,10 +21193,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -21980,95 +21231,87 @@
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="52">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -22081,102 +21324,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="431" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D12 D53:D60">
+    <cfRule type="cellIs" dxfId="383" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="382" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="381" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="428" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="380" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="379" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="378" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="425" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="377" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="376" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="375" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="422" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="374" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="373" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="372" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="419" priority="19" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="371" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="370" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="369" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D61">
-    <cfRule type="cellIs" dxfId="416" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="cellIs" dxfId="368" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="367" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="366" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D61">
-    <cfRule type="cellIs" dxfId="413" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="365" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="363" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="410" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="362" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="361" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="407" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="360" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22190,10 +21422,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22207,45 +21439,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -22253,8 +21485,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -22273,11 +21505,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="84" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -22595,7 +21827,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="7">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="7">
@@ -22652,7 +21884,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="7">
@@ -22690,7 +21922,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>164.5</v>
+        <v>168</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="7">
@@ -22823,7 +22055,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>112.5</v>
+        <v>130</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -22947,10 +22179,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -22965,10 +22197,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -23003,95 +22235,87 @@
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="52">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -23104,102 +22328,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="404" priority="46" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="47" operator="greaterThan">
+  <conditionalFormatting sqref="D12 D53:D60">
+    <cfRule type="cellIs" dxfId="359" priority="46" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="357" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="401" priority="43" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="356" priority="43" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="355" priority="44" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="354" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="398" priority="40" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="353" priority="40" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="41" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="351" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="395" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="350" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="349" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="348" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="392" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="347" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="345" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D61">
-    <cfRule type="cellIs" dxfId="389" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="cellIs" dxfId="344" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="343" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="342" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D61">
-    <cfRule type="cellIs" dxfId="386" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="341" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="339" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="383" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="338" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="380" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="336" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23213,10 +22426,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23230,45 +22443,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -23294,11 +22507,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="86" t="str">
+      <c r="E9" s="87" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="47" t="s">
@@ -23621,7 +22834,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="7">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="7">
@@ -23678,7 +22891,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="7">
@@ -23716,7 +22929,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>164.5</v>
+        <v>168</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="7">
@@ -23849,7 +23062,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>112.5</v>
+        <v>130</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -23973,10 +23186,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -23991,10 +23204,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -24029,95 +23242,87 @@
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="52">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -24129,102 +23334,91 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="377" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D12 D53:D60">
+    <cfRule type="cellIs" dxfId="335" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="333" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="374" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="332" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="330" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="371" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="329" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="327" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="368" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="326" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="324" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="365" priority="19" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="323" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="321" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D61">
-    <cfRule type="cellIs" dxfId="362" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="cellIs" dxfId="320" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="319" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="318" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D61">
-    <cfRule type="cellIs" dxfId="359" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="317" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="315" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="356" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="314" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="353" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="312" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24238,10 +23432,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24255,45 +23449,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -24301,8 +23495,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -24321,11 +23515,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="84" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -24643,7 +23837,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="7">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="7">
@@ -24700,7 +23894,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="7">
@@ -24738,7 +23932,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>164.5</v>
+        <v>168</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="7">
@@ -24871,7 +24065,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>112.5</v>
+        <v>130</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -24995,10 +24189,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -25013,10 +24207,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -25050,96 +24244,88 @@
       <c r="C51" s="48"/>
       <c r="D51" s="34"/>
     </row>
-    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="14"/>
+    <row r="52" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="52">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -25152,102 +24338,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="350" priority="43" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="44" operator="greaterThan">
+  <conditionalFormatting sqref="D12 D53:D60">
+    <cfRule type="cellIs" dxfId="311" priority="43" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="44" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="309" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="347" priority="40" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="308" priority="40" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="307" priority="41" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="306" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="344" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="305" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="303" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="341" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="302" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="300" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="338" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="299" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="297" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D61">
-    <cfRule type="cellIs" dxfId="335" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="cellIs" dxfId="296" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="294" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D61">
-    <cfRule type="cellIs" dxfId="332" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="293" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="291" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="329" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="290" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="326" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="288" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25261,10 +24436,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25278,45 +24453,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -25324,8 +24499,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -25344,11 +24519,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="84" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -25666,7 +24841,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="7">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="7">
@@ -25723,7 +24898,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="7">
@@ -25761,7 +24936,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>164.5</v>
+        <v>168</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="7">
@@ -25894,7 +25069,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>112.5</v>
+        <v>130</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -26018,10 +25193,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -26036,10 +25211,10 @@
     </row>
     <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
@@ -26074,95 +25249,87 @@
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
     </row>
     <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="52">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -26175,102 +25342,91 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="323" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D12 D53:D60">
+    <cfRule type="cellIs" dxfId="287" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="285" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="320" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="284" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="282" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="317" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="281" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="279" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="314" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="278" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="276" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="311" priority="19" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="275" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="273" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D61">
-    <cfRule type="cellIs" dxfId="308" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="cellIs" dxfId="272" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="270" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52:D61">
-    <cfRule type="cellIs" dxfId="305" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="269" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="267" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="302" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="266" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="299" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="264" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MM.xlsx
+++ b/MM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\Desktop\Nouveau dossier (4)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B65D06-60FF-4065-8FBE-488F13C2ED19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96C45D0-2659-4298-B260-3C21F16C873E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6780" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4425" windowHeight="6120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="68">
   <si>
     <t>Code IDH</t>
   </si>
@@ -246,6 +246,9 @@
   <si>
     <t>Le Chat HS 300 gr</t>
   </si>
+  <si>
+    <t>Pril Power blue 650 ml</t>
+  </si>
 </sst>
 </file>
 
@@ -256,7 +259,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
     <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +402,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -903,9 +911,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1032,6 +1041,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1128,16 +1143,11 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{1912818B-2099-4781-B8AD-80348CC03BD7}"/>
   </cellStyles>
   <dxfs count="471">
     <dxf>
@@ -5187,10 +5197,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:XFD59"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5205,45 +5215,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -6037,52 +6047,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="52">
+        <v>2943549</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="53">
+        <v>12</v>
+      </c>
+      <c r="D46" s="37">
+        <v>168</v>
+      </c>
+      <c r="E46" s="15">
+        <f>+'1'!E46+'2'!E46+'3'!E46+'4'!E46+'5'!E46+'6'!E46+'7'!E46+'8'!E46+'9'!E46+'10'!E46+'11'!E46+'12'!E46+'13'!E46+'14'!E46+'15'!E46+'16'!E46+'17'!E46+'18'!E46+'19'!E46</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <f>C46*D46*E46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
+      <c r="C47" s="82"/>
+      <c r="D47" s="10">
         <f>SUM(E12:E45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="70" t="s">
+      <c r="F47" s="17">
+        <f>SUM(F12:F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="72"/>
-    </row>
-    <row r="49" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="74"/>
+    </row>
+    <row r="50" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="34">
-        <f>+'12'!D49+'5'!D49++'8'!D49+'2'!D49+'7'!D49+'6'!D49+'4'!D49+'9'!D49+'1'!D49+'10'!D49+'3'!D49+'11'!D49+'13'!D49+'14'!D49+'15'!D49+'16'!D49+'17'!D49+'18'!D49+'19'!D49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34">
@@ -6091,11 +6110,11 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>24</v>
+      <c r="A51" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34">
@@ -6105,37 +6124,38 @@
     </row>
     <row r="52" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="34">
+        <f>+'12'!D52+'5'!D52++'8'!D52+'2'!D52+'7'!D52+'6'!D52+'4'!D52+'9'!D52+'1'!D52+'10'!D52+'3'!D52+'11'!D52+'13'!D52+'14'!D52+'15'!D52+'16'!D52+'17'!D52+'18'!D52+'19'!D52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="35">
         <v>2875892</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B53" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="34">
-        <f>+'12'!D53+'5'!D53++'8'!D53+'2'!D53+'7'!D53+'6'!D53+'4'!D53+'9'!D53+'1'!D53+'10'!D53+'3'!D53+'11'!D53+'13'!D53+'14'!D53+'15'!D53+'16'!D53+'17'!D53+'18'!D53+'19'!D53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
+      <c r="C53" s="56"/>
+      <c r="D53" s="34">
+        <f>+'12'!D54+'5'!D54++'8'!D54+'2'!D54+'7'!D54+'6'!D54+'4'!D54+'9'!D54+'1'!D54+'10'!D54+'3'!D54+'11'!D54+'13'!D54+'14'!D54+'15'!D54+'16'!D54+'17'!D54+'18'!D54+'19'!D54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="35">
         <v>2830113</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B54" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="34">
-        <f>+'12'!D53+'5'!D53++'8'!D53+'2'!D53+'7'!D53+'6'!D53+'4'!D53+'9'!D53+'1'!D53+'10'!D53+'3'!D53+'11'!D53+'13'!D53+'14'!D53+'15'!D53+'16'!D53+'17'!D53+'18'!D53+'19'!D53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="35">
-        <v>2876884</v>
-      </c>
-      <c r="B54" s="43" t="s">
-        <v>27</v>
-      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="34">
         <f>+'12'!D54+'5'!D54++'8'!D54+'2'!D54+'7'!D54+'6'!D54+'4'!D54+'9'!D54+'1'!D54+'10'!D54+'3'!D54+'11'!D54+'13'!D54+'14'!D54+'15'!D54+'16'!D54+'17'!D54+'18'!D54+'19'!D54</f>
         <v>0</v>
@@ -6143,10 +6163,10 @@
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D55" s="34">
         <f>+'12'!D55+'5'!D55++'8'!D55+'2'!D55+'7'!D55+'6'!D55+'4'!D55+'9'!D55+'1'!D55+'10'!D55+'3'!D55+'11'!D55+'13'!D55+'14'!D55+'15'!D55+'16'!D55+'17'!D55+'18'!D55+'19'!D55</f>
@@ -6155,10 +6175,10 @@
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="34">
         <f>+'12'!D56+'5'!D56++'8'!D56+'2'!D56+'7'!D56+'6'!D56+'4'!D56+'9'!D56+'1'!D56+'10'!D56+'3'!D56+'11'!D56+'13'!D56+'14'!D56+'15'!D56+'16'!D56+'17'!D56+'18'!D56+'19'!D56</f>
@@ -6167,10 +6187,10 @@
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="35">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D57" s="34">
         <f>+'12'!D57+'5'!D57++'8'!D57+'2'!D57+'7'!D57+'6'!D57+'4'!D57+'9'!D57+'1'!D57+'10'!D57+'3'!D57+'11'!D57+'13'!D57+'14'!D57+'15'!D57+'16'!D57+'17'!D57+'18'!D57+'19'!D57</f>
@@ -6178,11 +6198,11 @@
       </c>
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="52">
-        <v>2766729</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>35</v>
+      <c r="A58" s="35">
+        <v>2922764</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D58" s="34">
         <f>+'12'!D58+'5'!D58++'8'!D58+'2'!D58+'7'!D58+'6'!D58+'4'!D58+'9'!D58+'1'!D58+'10'!D58+'3'!D58+'11'!D58+'13'!D58+'14'!D58+'15'!D58+'16'!D58+'17'!D58+'18'!D58+'19'!D58</f>
@@ -6191,22 +6211,22 @@
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="52">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D59" s="34">
         <f>+'12'!D59+'5'!D59++'8'!D59+'2'!D59+'7'!D59+'6'!D59+'4'!D59+'9'!D59+'1'!D59+'10'!D59+'3'!D59+'11'!D59+'13'!D59+'14'!D59+'15'!D59+'16'!D59+'17'!D59+'18'!D59+'19'!D59</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="52">
-        <v>2910278</v>
+        <v>2875893</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D60" s="34">
         <f>+'12'!D60+'5'!D60++'8'!D60+'2'!D60+'7'!D60+'6'!D60+'4'!D60+'9'!D60+'1'!D60+'10'!D60+'3'!D60+'11'!D60+'13'!D60+'14'!D60+'15'!D60+'16'!D60+'17'!D60+'18'!D60+'19'!D60</f>
@@ -6214,96 +6234,108 @@
       </c>
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A61" s="52"/>
-      <c r="B61" s="54"/>
-      <c r="D61" s="55"/>
-    </row>
-    <row r="62" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="54"/>
+      <c r="A61" s="52">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="34">
+        <f>+'12'!D61+'5'!D61++'8'!D61+'2'!D61+'7'!D61+'6'!D61+'4'!D61+'9'!D61+'1'!D61+'10'!D61+'3'!D61+'11'!D61+'13'!D61+'14'!D61+'15'!D61+'16'!D61+'17'!D61+'18'!D61+'19'!D61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A62" s="52"/>
       <c r="B62" s="54"/>
+      <c r="D62" s="55"/>
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="56" t="s">
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+    </row>
+    <row r="64" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B63" s="57"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="21" t="s">
+      <c r="B64" s="59"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E64" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F63" s="66" t="s">
+      <c r="F64" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="G63" s="67"/>
-    </row>
-    <row r="64" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="56" t="s">
+      <c r="G64" s="69"/>
+    </row>
+    <row r="65" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="57"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="69"/>
-    </row>
-    <row r="66" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="56" t="s">
+      <c r="B66" s="59"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="71"/>
+    </row>
+    <row r="67" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="57"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="82"/>
-    </row>
-    <row r="67" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="56" t="s">
+      <c r="B67" s="59"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="84"/>
+    </row>
+    <row r="68" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="57"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="82"/>
-    </row>
-    <row r="68" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="56" t="s">
+      <c r="B68" s="59"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="84"/>
+    </row>
+    <row r="69" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="57"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="59"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="F67:G67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="F68:G68"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="F67:G67"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D49:D61">
+  <conditionalFormatting sqref="D12 D50:D62">
     <cfRule type="cellIs" dxfId="470" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6314,7 +6346,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="467" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6347,7 +6379,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
+  <conditionalFormatting sqref="E12:E46">
     <cfRule type="cellIs" dxfId="458" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6368,10 +6400,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D45"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6385,45 +6417,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -6431,8 +6463,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -6451,11 +6483,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="87" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -6492,7 +6524,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F46" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -7123,150 +7155,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+    <row r="46" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>2943549</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7">
+        <v>168</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
+      <c r="C47" s="82"/>
+      <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="F47" s="17">
+        <f>SUM(F12:F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
+      <c r="B49" s="86"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>24</v>
+    <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>2875892</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-    </row>
-    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
+        <v>2918203</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
         <v>2922764</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B58" s="43" t="s">
         <v>59</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52">
-        <v>2766729</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
         <v>2910278</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -7274,7 +7325,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D53:D60">
+  <conditionalFormatting sqref="D12 D54:D61">
     <cfRule type="cellIs" dxfId="263" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7285,7 +7336,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="260" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7318,7 +7369,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
+  <conditionalFormatting sqref="E12:E46">
     <cfRule type="cellIs" dxfId="251" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7329,7 +7380,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
+  <conditionalFormatting sqref="D50:D51">
     <cfRule type="cellIs" dxfId="248" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7340,7 +7391,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="245" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7351,7 +7402,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="242" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7372,10 +7423,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D45"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7389,45 +7440,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -7435,8 +7486,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -7455,11 +7506,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="87" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -7496,7 +7547,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F46" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -8127,150 +8178,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>2943549</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7">
+        <v>168</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
+      <c r="C47" s="82"/>
+      <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="F47" s="17">
+        <f>SUM(F12:F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
+      <c r="B49" s="86"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>24</v>
+    <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>2875892</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-    </row>
-    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
+        <v>2918203</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
         <v>2922764</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B58" s="43" t="s">
         <v>59</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52">
-        <v>2766729</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
         <v>2910278</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -8278,7 +8348,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D53:D60">
+  <conditionalFormatting sqref="D12 D54:D61">
     <cfRule type="cellIs" dxfId="239" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8289,7 +8359,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="236" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8322,7 +8392,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
+  <conditionalFormatting sqref="E12:E46">
     <cfRule type="cellIs" dxfId="227" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8333,7 +8403,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
+  <conditionalFormatting sqref="D50:D51">
     <cfRule type="cellIs" dxfId="224" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8344,7 +8414,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="221" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8355,7 +8425,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="218" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8376,10 +8446,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D45"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8393,45 +8463,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -8439,8 +8509,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -8459,11 +8529,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="87" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -8500,7 +8570,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F46" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -9131,150 +9201,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>2943549</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7">
+        <v>168</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
+      <c r="C47" s="82"/>
+      <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="F47" s="17">
+        <f>SUM(F12:F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
+      <c r="B49" s="86"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>24</v>
+    <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>2875892</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-    </row>
-    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
+        <v>2918203</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
         <v>2922764</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B58" s="43" t="s">
         <v>59</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52">
-        <v>2766729</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
         <v>2910278</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -9282,7 +9371,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D53:D60">
+  <conditionalFormatting sqref="D12 D54:D61">
     <cfRule type="cellIs" dxfId="215" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9293,7 +9382,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="212" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9326,7 +9415,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
+  <conditionalFormatting sqref="E12:E46">
     <cfRule type="cellIs" dxfId="203" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9337,7 +9426,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
+  <conditionalFormatting sqref="D50:D51">
     <cfRule type="cellIs" dxfId="200" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9348,7 +9437,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="197" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9359,7 +9448,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="194" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9380,10 +9469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D45"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9397,45 +9486,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -9461,11 +9550,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="87" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -9502,7 +9591,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F46" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -10133,157 +10222,176 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>2943549</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7">
+        <v>168</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
+      <c r="C47" s="82"/>
+      <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="F47" s="17">
+        <f>SUM(F12:F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
+      <c r="B49" s="86"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C50" s="48"/>
       <c r="D50" s="34"/>
     </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>24</v>
+    <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="48"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="48"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>2875892</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-    </row>
-    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
+        <v>2918203</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
         <v>2922764</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B58" s="43" t="s">
         <v>59</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52">
-        <v>2766729</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
         <v>2910278</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D53:D60">
+  <conditionalFormatting sqref="D12 D54:D61">
     <cfRule type="cellIs" dxfId="191" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10294,7 +10402,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="188" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10327,7 +10435,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
+  <conditionalFormatting sqref="E12:E46">
     <cfRule type="cellIs" dxfId="179" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10338,7 +10446,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
+  <conditionalFormatting sqref="D50:D51">
     <cfRule type="cellIs" dxfId="176" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10349,7 +10457,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="173" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10360,7 +10468,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="170" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10381,10 +10489,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D45"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10398,45 +10506,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -10444,8 +10552,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -10464,11 +10572,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="87" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -10505,7 +10613,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F46" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -11136,150 +11244,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>2943549</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7">
+        <v>168</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
+      <c r="C47" s="82"/>
+      <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="F47" s="17">
+        <f>SUM(F12:F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
+      <c r="B49" s="86"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>24</v>
+    <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>2875892</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-    </row>
-    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
+        <v>2918203</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
         <v>2922764</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B58" s="43" t="s">
         <v>59</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52">
-        <v>2766729</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
         <v>2910278</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -11287,7 +11414,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D53:D60">
+  <conditionalFormatting sqref="D12 D54:D61">
     <cfRule type="cellIs" dxfId="167" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11298,7 +11425,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="164" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11331,7 +11458,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
+  <conditionalFormatting sqref="E12:E46">
     <cfRule type="cellIs" dxfId="155" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11342,7 +11469,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
+  <conditionalFormatting sqref="D50:D51">
     <cfRule type="cellIs" dxfId="152" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11353,7 +11480,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="149" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11364,7 +11491,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="146" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11385,10 +11512,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D45"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11402,45 +11529,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -11448,8 +11575,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -11468,11 +11595,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="87" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -11509,7 +11636,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F46" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -12140,150 +12267,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>2943549</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7">
+        <v>168</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
+      <c r="C47" s="82"/>
+      <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="F47" s="17">
+        <f>SUM(F12:F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
+      <c r="B49" s="86"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>24</v>
+    <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>2875892</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-    </row>
-    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
+        <v>2918203</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
         <v>2922764</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B58" s="43" t="s">
         <v>59</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52">
-        <v>2766729</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
         <v>2910278</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -12291,7 +12437,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D53:D60">
+  <conditionalFormatting sqref="D12 D54:D61">
     <cfRule type="cellIs" dxfId="143" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12302,7 +12448,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="140" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12335,7 +12481,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
+  <conditionalFormatting sqref="E12:E46">
     <cfRule type="cellIs" dxfId="131" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12346,7 +12492,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
+  <conditionalFormatting sqref="D50:D51">
     <cfRule type="cellIs" dxfId="128" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12357,7 +12503,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="125" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12368,7 +12514,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="122" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12389,10 +12535,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D45"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12406,45 +12552,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -12452,8 +12598,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -12472,11 +12618,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="87" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -12513,7 +12659,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F46" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -13144,150 +13290,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>2943549</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7">
+        <v>168</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
+      <c r="C47" s="82"/>
+      <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="F47" s="17">
+        <f>SUM(F12:F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
+      <c r="B49" s="86"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>24</v>
+    <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>2875892</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-    </row>
-    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
+        <v>2918203</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
         <v>2922764</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B58" s="43" t="s">
         <v>59</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52">
-        <v>2766729</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
         <v>2910278</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -13295,7 +13460,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D53:D60">
+  <conditionalFormatting sqref="D12 D54:D61">
     <cfRule type="cellIs" dxfId="119" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13306,7 +13471,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="116" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13339,7 +13504,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
+  <conditionalFormatting sqref="E12:E46">
     <cfRule type="cellIs" dxfId="107" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13350,7 +13515,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
+  <conditionalFormatting sqref="D50:D51">
     <cfRule type="cellIs" dxfId="104" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13361,7 +13526,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="101" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13372,7 +13537,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="98" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13393,10 +13558,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D45"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13410,45 +13575,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -13456,8 +13621,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -13476,11 +13641,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="87" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -13517,7 +13682,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F46" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -14148,150 +14313,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>2943549</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7">
+        <v>168</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
+      <c r="C47" s="82"/>
+      <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="F47" s="17">
+        <f>SUM(F12:F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
+      <c r="B49" s="86"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>24</v>
+    <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>2875892</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-    </row>
-    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
+        <v>2918203</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
         <v>2922764</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B58" s="43" t="s">
         <v>59</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52">
-        <v>2766729</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
         <v>2910278</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -14299,7 +14483,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D53:D60">
+  <conditionalFormatting sqref="D12 D54:D61">
     <cfRule type="cellIs" dxfId="95" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14310,7 +14494,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="92" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14343,7 +14527,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
+  <conditionalFormatting sqref="E12:E46">
     <cfRule type="cellIs" dxfId="83" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14354,7 +14538,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
+  <conditionalFormatting sqref="D50:D51">
     <cfRule type="cellIs" dxfId="80" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14365,7 +14549,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="77" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14376,7 +14560,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="74" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14397,10 +14581,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D45"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14414,45 +14598,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -14460,8 +14644,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -14480,11 +14664,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="87" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -14521,7 +14705,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F46" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -15152,150 +15336,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>2943549</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7">
+        <v>168</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
+      <c r="C47" s="82"/>
+      <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="F47" s="17">
+        <f>SUM(F12:F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
+      <c r="B49" s="86"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>24</v>
+    <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>2875892</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-    </row>
-    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
+        <v>2918203</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
         <v>2922764</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B58" s="43" t="s">
         <v>59</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52">
-        <v>2766729</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
         <v>2910278</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -15303,7 +15506,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D53:D60">
+  <conditionalFormatting sqref="D12 D54:D61">
     <cfRule type="cellIs" dxfId="71" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15314,7 +15517,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="68" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15347,7 +15550,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
+  <conditionalFormatting sqref="E12:E46">
     <cfRule type="cellIs" dxfId="59" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15358,7 +15561,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
+  <conditionalFormatting sqref="D50:D51">
     <cfRule type="cellIs" dxfId="56" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15369,7 +15572,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="53" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15380,7 +15583,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="50" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15401,10 +15604,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D45"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15418,45 +15621,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -15464,8 +15667,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -15484,11 +15687,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="87" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -15525,7 +15728,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F46" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -16156,150 +16359,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>2943549</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7">
+        <v>168</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
+      <c r="C47" s="82"/>
+      <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="F47" s="17">
+        <f>SUM(F12:F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
+      <c r="B49" s="86"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>24</v>
+    <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>2875892</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-    </row>
-    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
+        <v>2918203</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
         <v>2922764</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B58" s="43" t="s">
         <v>59</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52">
-        <v>2766729</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
         <v>2910278</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -16307,7 +16529,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D53:D60">
+  <conditionalFormatting sqref="D12 D54:D61">
     <cfRule type="cellIs" dxfId="47" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16318,7 +16540,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="44" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16351,7 +16573,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
+  <conditionalFormatting sqref="E12:E46">
     <cfRule type="cellIs" dxfId="35" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16362,7 +16584,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
+  <conditionalFormatting sqref="D50:D51">
     <cfRule type="cellIs" dxfId="32" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16373,7 +16595,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="29" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16384,7 +16606,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="26" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16405,10 +16627,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D45"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16422,45 +16644,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -16468,8 +16690,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -16488,11 +16710,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="87" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -16529,7 +16751,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F46" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -17160,150 +17382,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>2943549</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7">
+        <v>168</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
+      <c r="C47" s="82"/>
+      <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="F47" s="17">
+        <f>SUM(F12:F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
+      <c r="B49" s="86"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>24</v>
+    <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>2875892</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-    </row>
-    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
+        <v>2918203</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
         <v>2922764</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B58" s="43" t="s">
         <v>59</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52">
-        <v>2766729</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
         <v>2910278</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -17311,7 +17552,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D53:D60">
+  <conditionalFormatting sqref="D12 D54:D61">
     <cfRule type="cellIs" dxfId="455" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17322,7 +17563,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="452" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17355,7 +17596,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
+  <conditionalFormatting sqref="E12:E46">
     <cfRule type="cellIs" dxfId="443" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17366,7 +17607,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
+  <conditionalFormatting sqref="D50:D51">
     <cfRule type="cellIs" dxfId="440" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17377,7 +17618,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="437" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17388,7 +17629,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="434" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17409,10 +17650,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D45"/>
+    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17426,45 +17667,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -17472,8 +17713,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -17489,11 +17730,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="87" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -17530,7 +17771,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F46" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -18161,150 +18402,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>2943549</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7">
+        <v>168</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
+      <c r="C47" s="82"/>
+      <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="F47" s="17">
+        <f>SUM(F12:F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
+      <c r="B49" s="86"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>24</v>
+    <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>2875892</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-    </row>
-    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
+        <v>2918203</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
         <v>2922764</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B58" s="43" t="s">
         <v>59</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52">
-        <v>2766729</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
         <v>2910278</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -18312,7 +18572,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D53:D60">
+  <conditionalFormatting sqref="D12 D54:D61">
     <cfRule type="cellIs" dxfId="23" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18323,7 +18583,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="20" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18356,7 +18616,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
+  <conditionalFormatting sqref="E12:E46">
     <cfRule type="cellIs" dxfId="11" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18367,7 +18627,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
+  <conditionalFormatting sqref="D50:D51">
     <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18378,7 +18638,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18389,7 +18649,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18410,10 +18670,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D45"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18427,45 +18687,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -18473,8 +18733,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -18493,11 +18753,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="87" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -18534,7 +18794,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F46" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -19165,150 +19425,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>2943549</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7">
+        <v>168</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
+      <c r="C47" s="82"/>
+      <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="F47" s="17">
+        <f>SUM(F12:F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
+      <c r="B49" s="86"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C50" s="48"/>
       <c r="D50" s="34"/>
     </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>24</v>
+    <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="48"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="48"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>2875892</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-    </row>
-    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
+        <v>2918203</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
         <v>2922764</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B58" s="43" t="s">
         <v>59</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52">
-        <v>2766729</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
         <v>2910278</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -19316,7 +19595,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D53:D60">
+  <conditionalFormatting sqref="D12 D54:D61">
     <cfRule type="cellIs" dxfId="431" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19327,7 +19606,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="428" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19360,7 +19639,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
+  <conditionalFormatting sqref="E12:E46">
     <cfRule type="cellIs" dxfId="419" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19371,7 +19650,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
+  <conditionalFormatting sqref="D50:D51">
     <cfRule type="cellIs" dxfId="416" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19382,7 +19661,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="413" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19393,7 +19672,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="410" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19414,10 +19693,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D45"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19431,45 +19710,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -19477,8 +19756,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -19497,11 +19776,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="87" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -19538,7 +19817,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F46" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -20169,150 +20448,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>2943549</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7">
+        <v>168</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
+      <c r="C47" s="82"/>
+      <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="F47" s="17">
+        <f>SUM(F12:F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
+      <c r="B49" s="86"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>24</v>
+    <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>2875892</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-    </row>
-    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
+        <v>2918203</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
         <v>2922764</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B58" s="43" t="s">
         <v>59</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52">
-        <v>2766729</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
         <v>2910278</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -20320,7 +20618,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D53:D60">
+  <conditionalFormatting sqref="D12 D54:D61">
     <cfRule type="cellIs" dxfId="407" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20331,7 +20629,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="404" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20364,7 +20662,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
+  <conditionalFormatting sqref="E12:E46">
     <cfRule type="cellIs" dxfId="395" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20375,7 +20673,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
+  <conditionalFormatting sqref="D50:D51">
     <cfRule type="cellIs" dxfId="392" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20386,7 +20684,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="389" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20397,7 +20695,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="386" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20418,10 +20716,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D45"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20435,45 +20733,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -20481,8 +20779,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -20501,11 +20799,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="87" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -20542,7 +20840,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F46" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -21173,150 +21471,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>2943549</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7">
+        <v>168</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
+      <c r="C47" s="82"/>
+      <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="F47" s="17">
+        <f>SUM(F12:F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
+      <c r="B49" s="86"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>24</v>
+    <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>2875892</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-    </row>
-    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
+        <v>2918203</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
         <v>2922764</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B58" s="43" t="s">
         <v>59</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52">
-        <v>2766729</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
         <v>2910278</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -21324,7 +21641,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D53:D60">
+  <conditionalFormatting sqref="D12 D54:D61">
     <cfRule type="cellIs" dxfId="383" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21335,7 +21652,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="380" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21368,7 +21685,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
+  <conditionalFormatting sqref="E12:E46">
     <cfRule type="cellIs" dxfId="371" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21379,7 +21696,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
+  <conditionalFormatting sqref="D50:D51">
     <cfRule type="cellIs" dxfId="368" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21390,7 +21707,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="365" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21401,7 +21718,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="362" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21422,10 +21739,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D45"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21439,45 +21756,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -21485,8 +21802,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -21505,11 +21822,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="87" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -21546,7 +21863,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F46" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -22177,150 +22494,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>2943549</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7">
+        <v>168</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
+      <c r="C47" s="82"/>
+      <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="F47" s="17">
+        <f>SUM(F12:F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
+      <c r="B49" s="86"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C50" s="48"/>
       <c r="D50" s="34"/>
     </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>24</v>
+    <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="48"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="48"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>2875892</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-    </row>
-    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
+        <v>2918203</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
         <v>2922764</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B58" s="43" t="s">
         <v>59</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52">
-        <v>2766729</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
         <v>2910278</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -22328,7 +22664,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D53:D60">
+  <conditionalFormatting sqref="D12 D54:D61">
     <cfRule type="cellIs" dxfId="359" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22339,7 +22675,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="356" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22372,7 +22708,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
+  <conditionalFormatting sqref="E12:E46">
     <cfRule type="cellIs" dxfId="347" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22383,7 +22719,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
+  <conditionalFormatting sqref="D50:D51">
     <cfRule type="cellIs" dxfId="344" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22394,7 +22730,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="341" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22405,7 +22741,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="338" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22426,10 +22762,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D45"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22443,45 +22779,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -22507,11 +22843,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="89" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="89"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="47" t="s">
@@ -22553,7 +22889,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F46" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -23184,157 +23520,176 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>2943549</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7">
+        <v>168</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
+      <c r="C47" s="82"/>
+      <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="F47" s="17">
+        <f>SUM(F12:F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
+      <c r="B49" s="86"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="34"/>
     </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>24</v>
+    <row r="51" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>2875892</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-    </row>
-    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
+        <v>2918203</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
         <v>2922764</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B58" s="43" t="s">
         <v>59</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52">
-        <v>2766729</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
         <v>2910278</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D53:D60">
+  <conditionalFormatting sqref="D12 D54:D61">
     <cfRule type="cellIs" dxfId="335" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23345,7 +23700,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="332" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23378,7 +23733,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
+  <conditionalFormatting sqref="E12:E46">
     <cfRule type="cellIs" dxfId="323" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23389,7 +23744,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
+  <conditionalFormatting sqref="D50:D51">
     <cfRule type="cellIs" dxfId="320" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23400,7 +23755,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="317" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23411,7 +23766,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="314" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23432,10 +23787,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D45"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23449,45 +23804,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -23495,8 +23850,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -23515,11 +23870,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="87" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -23556,7 +23911,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F46" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -24187,150 +24542,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>2943549</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7">
+        <v>168</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
+      <c r="C47" s="82"/>
+      <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="F47" s="17">
+        <f>SUM(F12:F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
+      <c r="B49" s="86"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C50" s="48"/>
       <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>24</v>
+      <c r="A51" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="48"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="48"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>2875892</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-    </row>
-    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
+        <v>2918203</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
         <v>2922764</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B58" s="43" t="s">
         <v>59</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52">
-        <v>2766729</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
         <v>2910278</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -24338,7 +24712,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D53:D60">
+  <conditionalFormatting sqref="D12 D54:D61">
     <cfRule type="cellIs" dxfId="311" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -24349,7 +24723,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="308" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -24382,7 +24756,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
+  <conditionalFormatting sqref="E12:E46">
     <cfRule type="cellIs" dxfId="299" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -24393,7 +24767,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
+  <conditionalFormatting sqref="D50:D51">
     <cfRule type="cellIs" dxfId="296" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -24404,7 +24778,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="293" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -24415,7 +24789,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="290" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -24436,10 +24810,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D45"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24453,45 +24827,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -24499,8 +24873,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -24519,11 +24893,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="85" t="str">
+      <c r="E9" s="87" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -24560,7 +24934,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F46" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -25191,150 +25565,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="79" t="s">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>2943549</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7">
+        <v>168</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="10">
+      <c r="C47" s="82"/>
+      <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="17">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="83" t="s">
+      <c r="F47" s="17">
+        <f>SUM(F12:F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
+      <c r="B49" s="86"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
         <v>2845959</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C50" s="48"/>
       <c r="D50" s="34"/>
     </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>2875891</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>24</v>
+    <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="48"/>
       <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="35">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="48"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>2875892</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-    </row>
-    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
-        <v>2830113</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
+        <v>2918203</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
         <v>2922764</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B58" s="43" t="s">
         <v>59</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52">
-        <v>2766729</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>35</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
         <v>2910278</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -25342,7 +25735,7 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D53:D60">
+  <conditionalFormatting sqref="D12 D54:D61">
     <cfRule type="cellIs" dxfId="287" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -25353,7 +25746,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="284" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -25386,7 +25779,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
+  <conditionalFormatting sqref="E12:E46">
     <cfRule type="cellIs" dxfId="275" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -25397,7 +25790,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
+  <conditionalFormatting sqref="D50:D51">
     <cfRule type="cellIs" dxfId="272" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -25408,7 +25801,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="269" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -25419,7 +25812,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
+  <conditionalFormatting sqref="D52:D53">
     <cfRule type="cellIs" dxfId="266" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/MM.xlsx
+++ b/MM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\Desktop\Nouveau dossier (4)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96C45D0-2659-4298-B260-3C21F16C873E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0B5D46-F5F0-4596-992F-E0609D107C12}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4425" windowHeight="6120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -255,9 +255,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
-    <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -913,7 +913,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="90">
@@ -930,14 +930,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -951,14 +951,14 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -998,7 +998,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1022,7 +1022,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5199,8 +5199,8 @@
   </sheetPr>
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5904,7 +5904,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>130</v>
+        <v>123.5</v>
       </c>
       <c r="E39" s="15">
         <f>+'1'!E39+'2'!E39+'3'!E39+'4'!E39+'5'!E39+'6'!E39+'7'!E39+'8'!E39+'9'!E39+'10'!E39+'11'!E39+'12'!E39+'13'!E39+'14'!E39+'15'!E39+'16'!E39+'17'!E39+'18'!E39+'19'!E39</f>
@@ -6403,7 +6403,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7033,7 +7033,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>130</v>
+        <v>123.5</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -7426,7 +7426,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8056,7 +8056,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>130</v>
+        <v>123.5</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -8449,7 +8449,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9079,7 +9079,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>130</v>
+        <v>123.5</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -9472,7 +9472,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10100,7 +10100,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>130</v>
+        <v>123.5</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -10492,7 +10492,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11122,7 +11122,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>130</v>
+        <v>123.5</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -11515,7 +11515,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12145,7 +12145,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>130</v>
+        <v>123.5</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -12538,7 +12538,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13168,7 +13168,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>130</v>
+        <v>123.5</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -13561,7 +13561,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14191,7 +14191,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>130</v>
+        <v>123.5</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -14584,7 +14584,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15214,7 +15214,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>130</v>
+        <v>123.5</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -15607,7 +15607,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16237,7 +16237,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>130</v>
+        <v>123.5</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -16629,8 +16629,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17260,7 +17260,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>130</v>
+        <v>123.5</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -17653,7 +17653,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18280,7 +18280,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>130</v>
+        <v>123.5</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -18673,7 +18673,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19303,7 +19303,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>130</v>
+        <v>123.5</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -19696,7 +19696,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20326,7 +20326,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>130</v>
+        <v>123.5</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -20719,7 +20719,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21349,7 +21349,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>130</v>
+        <v>123.5</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -21742,7 +21742,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22372,7 +22372,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>130</v>
+        <v>123.5</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -22765,7 +22765,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23398,7 +23398,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>130</v>
+        <v>123.5</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -23790,7 +23790,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24420,7 +24420,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>130</v>
+        <v>123.5</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
@@ -24813,7 +24813,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25443,7 +25443,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="16">
-        <v>130</v>
+        <v>123.5</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">

--- a/MM.xlsx
+++ b/MM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0B5D46-F5F0-4596-992F-E0609D107C12}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E272456-604D-4130-AFC2-0F7ACF3F33F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6780" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="68">
   <si>
     <t>Code IDH</t>
   </si>
@@ -255,9 +255,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
-    <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -913,10 +913,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -930,14 +930,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -951,14 +951,14 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -998,7 +998,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1022,7 +1022,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1037,9 +1037,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5199,8 +5196,8 @@
   </sheetPr>
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5215,45 +5212,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -6071,10 +6068,10 @@
     </row>
     <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="82"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="10">
         <f>SUM(E12:E45)</f>
         <v>0</v>
@@ -6089,12 +6086,12 @@
     </row>
     <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="72" t="s">
+      <c r="A49" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="74"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="73"/>
     </row>
     <row r="50" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="32">
@@ -6142,7 +6139,7 @@
       <c r="B53" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="56"/>
+      <c r="C53" s="55"/>
       <c r="D53" s="34">
         <f>+'12'!D54+'5'!D54++'8'!D54+'2'!D54+'7'!D54+'6'!D54+'4'!D54+'9'!D54+'1'!D54+'10'!D54+'3'!D54+'11'!D54+'13'!D54+'14'!D54+'15'!D54+'16'!D54+'17'!D54+'18'!D54+'19'!D54</f>
         <v>0</v>
@@ -6233,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="52">
         <v>2910278</v>
       </c>
@@ -6246,19 +6243,26 @@
       </c>
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="52"/>
-      <c r="B62" s="54"/>
-      <c r="D62" s="55"/>
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="34">
+        <f>+'12'!D62+'5'!D62++'8'!D62+'2'!D62+'7'!D62+'6'!D62+'4'!D62+'9'!D62+'1'!D62+'10'!D62+'3'!D62+'11'!D62+'13'!D62+'14'!D62+'15'!D62+'16'!D62+'17'!D62+'18'!D62+'19'!D62</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="54"/>
       <c r="B63" s="54"/>
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A64" s="58" t="s">
+      <c r="A64" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="59"/>
+      <c r="B64" s="58"/>
       <c r="C64" s="20"/>
       <c r="D64" s="21" t="s">
         <v>48</v>
@@ -6266,55 +6270,55 @@
       <c r="E64" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="68" t="s">
+      <c r="F64" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="G64" s="69"/>
+      <c r="G64" s="68"/>
     </row>
     <row r="65" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="58" t="s">
+      <c r="A66" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="59"/>
+      <c r="B66" s="58"/>
       <c r="C66" s="23"/>
       <c r="D66" s="24"/>
       <c r="E66" s="25"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="71"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="70"/>
     </row>
     <row r="67" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="58" t="s">
+      <c r="A67" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="59"/>
+      <c r="B67" s="58"/>
       <c r="C67" s="23"/>
       <c r="D67" s="26"/>
       <c r="E67" s="27"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="84"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="83"/>
     </row>
     <row r="68" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="58" t="s">
+      <c r="A68" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B68" s="59"/>
+      <c r="B68" s="58"/>
       <c r="C68" s="49"/>
       <c r="D68" s="50"/>
       <c r="E68" s="51"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="84"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="83"/>
     </row>
     <row r="69" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="58" t="s">
+      <c r="A69" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="59"/>
+      <c r="B69" s="58"/>
       <c r="C69" s="23"/>
       <c r="D69" s="28"/>
       <c r="E69" s="29"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="61"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -6400,10 +6404,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B66" sqref="B66:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6417,45 +6421,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -6463,8 +6467,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -6483,11 +6487,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -7176,10 +7180,10 @@
     </row>
     <row r="47" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="82"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -7194,10 +7198,10 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
     </row>
@@ -7238,8 +7242,8 @@
       <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
@@ -7313,6 +7317,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7325,7 +7338,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D54:D61">
+  <conditionalFormatting sqref="D12 D54:D62">
     <cfRule type="cellIs" dxfId="263" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7423,10 +7436,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B66" sqref="B66:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7440,45 +7453,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -7486,8 +7499,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -7506,11 +7519,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -8199,10 +8212,10 @@
     </row>
     <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="82"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -8217,10 +8230,10 @@
     </row>
     <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
     </row>
@@ -8261,8 +8274,8 @@
       <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
@@ -8336,6 +8349,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8348,7 +8370,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D54:D61">
+  <conditionalFormatting sqref="D12 D54:D62">
     <cfRule type="cellIs" dxfId="239" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8446,10 +8468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B66" sqref="B66:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8463,45 +8485,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -8509,8 +8531,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -8529,11 +8551,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -9222,10 +9244,10 @@
     </row>
     <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="82"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -9240,10 +9262,10 @@
     </row>
     <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
     </row>
@@ -9284,8 +9306,8 @@
       <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
@@ -9359,6 +9381,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9371,7 +9402,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D54:D61">
+  <conditionalFormatting sqref="D12 D54:D62">
     <cfRule type="cellIs" dxfId="215" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9469,10 +9500,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B66" sqref="B66:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9486,45 +9517,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -9550,11 +9581,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -10243,10 +10274,10 @@
     </row>
     <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="82"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -10261,10 +10292,10 @@
     </row>
     <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
     </row>
@@ -10305,8 +10336,8 @@
       <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
@@ -10380,6 +10411,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10391,7 +10431,7 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D54:D61">
+  <conditionalFormatting sqref="D12 D54:D62">
     <cfRule type="cellIs" dxfId="191" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10489,10 +10529,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10506,45 +10546,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -10552,8 +10592,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -10572,11 +10612,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -11265,10 +11305,10 @@
     </row>
     <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="82"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -11283,10 +11323,10 @@
     </row>
     <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
     </row>
@@ -11327,8 +11367,8 @@
       <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
@@ -11402,6 +11442,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11414,7 +11463,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D54:D61">
+  <conditionalFormatting sqref="D12 D54:D62">
     <cfRule type="cellIs" dxfId="167" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11512,10 +11561,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B66" sqref="B66:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11529,45 +11578,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -11575,8 +11624,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -11595,11 +11644,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -12288,10 +12337,10 @@
     </row>
     <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="82"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -12306,10 +12355,10 @@
     </row>
     <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
     </row>
@@ -12350,8 +12399,8 @@
       <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
@@ -12425,6 +12474,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12437,7 +12495,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D54:D61">
+  <conditionalFormatting sqref="D12 D54:D62">
     <cfRule type="cellIs" dxfId="143" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12535,10 +12593,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B66" sqref="B66:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12552,45 +12610,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -12598,8 +12656,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -12618,11 +12676,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -13311,10 +13369,10 @@
     </row>
     <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="82"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -13329,10 +13387,10 @@
     </row>
     <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
     </row>
@@ -13373,8 +13431,8 @@
       <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
@@ -13448,6 +13506,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13460,7 +13527,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D54:D61">
+  <conditionalFormatting sqref="D12 D54:D62">
     <cfRule type="cellIs" dxfId="119" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13558,10 +13625,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B66" sqref="B66:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13575,45 +13642,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -13621,8 +13688,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -13641,11 +13708,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -14334,10 +14401,10 @@
     </row>
     <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="82"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -14352,10 +14419,10 @@
     </row>
     <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
     </row>
@@ -14396,8 +14463,8 @@
       <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
@@ -14471,6 +14538,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14483,7 +14559,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D54:D61">
+  <conditionalFormatting sqref="D12 D54:D62">
     <cfRule type="cellIs" dxfId="95" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14581,10 +14657,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B66" sqref="B66:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14598,45 +14674,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -14644,8 +14720,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -14664,11 +14740,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -15357,10 +15433,10 @@
     </row>
     <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="82"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -15375,10 +15451,10 @@
     </row>
     <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
     </row>
@@ -15419,8 +15495,8 @@
       <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
@@ -15494,6 +15570,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15506,7 +15591,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D54:D61">
+  <conditionalFormatting sqref="D12 D54:D62">
     <cfRule type="cellIs" dxfId="71" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15604,10 +15689,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B66" sqref="B66:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15621,45 +15706,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -15667,8 +15752,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -15687,11 +15772,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -16380,10 +16465,10 @@
     </row>
     <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="82"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -16398,10 +16483,10 @@
     </row>
     <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
     </row>
@@ -16442,8 +16527,8 @@
       <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
@@ -16517,6 +16602,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -16529,7 +16623,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D54:D61">
+  <conditionalFormatting sqref="D12 D54:D62">
     <cfRule type="cellIs" dxfId="47" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16627,10 +16721,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16644,45 +16738,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -16690,8 +16784,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -16710,11 +16804,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -17403,10 +17497,10 @@
     </row>
     <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="82"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -17421,10 +17515,10 @@
     </row>
     <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
     </row>
@@ -17465,8 +17559,8 @@
       <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
@@ -17540,6 +17634,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -17552,7 +17655,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D54:D61">
+  <conditionalFormatting sqref="D12 D54:D62">
     <cfRule type="cellIs" dxfId="455" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17650,10 +17753,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B66" sqref="B66:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17667,45 +17770,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -17713,8 +17816,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -17730,11 +17833,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -18423,10 +18526,10 @@
     </row>
     <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="82"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -18441,10 +18544,10 @@
     </row>
     <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
     </row>
@@ -18485,8 +18588,8 @@
       <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
@@ -18560,6 +18663,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -18572,7 +18684,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D54:D61">
+  <conditionalFormatting sqref="D12 D54:D62">
     <cfRule type="cellIs" dxfId="23" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18670,10 +18782,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B66" sqref="B66:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18687,45 +18799,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -18733,8 +18845,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -18753,11 +18865,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -19446,10 +19558,10 @@
     </row>
     <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="82"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -19464,10 +19576,10 @@
     </row>
     <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
     </row>
@@ -19508,8 +19620,8 @@
       <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
@@ -19583,6 +19695,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19595,7 +19716,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D54:D61">
+  <conditionalFormatting sqref="D12 D54:D62">
     <cfRule type="cellIs" dxfId="431" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19693,10 +19814,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B66" sqref="B66:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19710,45 +19831,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -19756,8 +19877,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -19776,11 +19897,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -20469,10 +20590,10 @@
     </row>
     <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="82"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -20487,10 +20608,10 @@
     </row>
     <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
     </row>
@@ -20531,8 +20652,8 @@
       <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
@@ -20606,6 +20727,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -20618,7 +20748,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D54:D61">
+  <conditionalFormatting sqref="D12 D54:D62">
     <cfRule type="cellIs" dxfId="407" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20716,10 +20846,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20733,45 +20863,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -20779,8 +20909,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -20799,11 +20929,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -21492,10 +21622,10 @@
     </row>
     <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="82"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -21510,10 +21640,10 @@
     </row>
     <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
     </row>
@@ -21554,8 +21684,8 @@
       <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
@@ -21629,6 +21759,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -21641,7 +21780,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D54:D61">
+  <conditionalFormatting sqref="D12 D54:D62">
     <cfRule type="cellIs" dxfId="383" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21739,10 +21878,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B66" sqref="B66:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21756,45 +21895,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -21802,8 +21941,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -21822,11 +21961,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -22515,10 +22654,10 @@
     </row>
     <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="82"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -22533,10 +22672,10 @@
     </row>
     <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
     </row>
@@ -22577,8 +22716,8 @@
       <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
@@ -22652,6 +22791,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -22664,7 +22812,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D54:D61">
+  <conditionalFormatting sqref="D12 D54:D62">
     <cfRule type="cellIs" dxfId="359" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22762,10 +22910,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B66" sqref="B66:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22779,45 +22927,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -22843,11 +22991,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="89" t="str">
+      <c r="E9" s="88" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="89"/>
+      <c r="F9" s="88"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="47" t="s">
@@ -23541,10 +23689,10 @@
     </row>
     <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="82"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -23559,10 +23707,10 @@
     </row>
     <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
     </row>
@@ -23603,8 +23751,8 @@
       <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
@@ -23678,6 +23826,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -23689,7 +23846,7 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D54:D61">
+  <conditionalFormatting sqref="D12 D54:D62">
     <cfRule type="cellIs" dxfId="335" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23787,10 +23944,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B66" sqref="B66:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23804,45 +23961,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -23850,8 +24007,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -23870,11 +24027,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -24563,10 +24720,10 @@
     </row>
     <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="82"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -24581,10 +24738,10 @@
     </row>
     <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
     </row>
@@ -24625,8 +24782,8 @@
       <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
@@ -24700,6 +24857,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -24712,7 +24878,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D54:D61">
+  <conditionalFormatting sqref="D12 D54:D62">
     <cfRule type="cellIs" dxfId="311" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -24810,10 +24976,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B66" sqref="B66:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24827,45 +24993,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -24873,8 +25039,8 @@
       </c>
       <c r="B7" s="18"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -24893,11 +25059,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="86" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -25586,10 +25752,10 @@
     </row>
     <row r="47" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="82"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -25604,10 +25770,10 @@
     </row>
     <row r="48" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
     </row>
@@ -25648,8 +25814,8 @@
       <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
@@ -25723,6 +25889,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -25735,7 +25910,7 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D54:D61">
+  <conditionalFormatting sqref="D12 D54:D62">
     <cfRule type="cellIs" dxfId="287" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/MM.xlsx
+++ b/MM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Nouveau dossier (4)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\Desktop\Nouveau dossier (4)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0217271-0581-48FD-8932-88FE2D7231E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BC818E-01F0-4E2F-831B-7147B0C167B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="72">
   <si>
     <t>Code IDH</t>
   </si>
@@ -267,9 +267,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
-    <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -925,7 +925,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="87">
@@ -942,14 +942,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -963,14 +963,14 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,7 +1004,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1028,7 +1028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5200,10 +5200,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5885,7 +5885,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="E38" s="15">
         <f>+'1'!E38+'2'!E38+'3'!E38+'4'!E38+'5'!E38+'6'!E38+'7'!E38+'8'!E38+'9'!E38+'10'!E38+'11'!E38+'12'!E38+'13'!E38+'14'!E38+'15'!E38+'16'!E38+'17'!E38+'18'!E38+'19'!E38</f>
@@ -6073,24 +6073,24 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="50" t="s">
-        <v>68</v>
+      <c r="A47" s="50">
+        <v>2952095</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="51">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="35">
-        <v>168</v>
+        <v>1190</v>
       </c>
       <c r="E47" s="15">
         <f>+'1'!E47+'2'!E47+'3'!E47+'4'!E47+'5'!E47+'6'!E47+'7'!E47+'8'!E47+'9'!E47+'10'!E47+'11'!E47+'12'!E47+'13'!E47+'14'!E47+'15'!E47+'16'!E47+'17'!E47+'18'!E47+'19'!E47</f>
         <v>0</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" ref="F47:F48" si="1">C47*D47*E47</f>
+        <f t="shared" ref="F47:F49" si="1">C47*D47*E47</f>
         <v>0</v>
       </c>
     </row>
@@ -6112,56 +6112,65 @@
         <v>0</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="78" t="s">
+        <f t="shared" ref="F48:F49" si="2">C48*D48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="51">
+        <v>12</v>
+      </c>
+      <c r="D49" s="35">
+        <v>168</v>
+      </c>
+      <c r="E49" s="15">
+        <f>+'1'!E49+'2'!E49+'3'!E49+'4'!E49+'5'!E49+'6'!E49+'7'!E49+'8'!E49+'9'!E49+'10'!E49+'11'!E49+'12'!E49+'13'!E49+'14'!E49+'15'!E49+'16'!E49+'17'!E49+'18'!E49+'19'!E49</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="17">
-        <f>SUM(F12:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="69" t="s">
+      <c r="F50" s="17">
+        <f>SUM(F12:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="71"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="71"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="32">
-        <f>+'12'!D52+'5'!D52++'8'!D52+'2'!D52+'7'!D52+'6'!D52+'4'!D52+'9'!D52+'1'!D52+'10'!D52+'3'!D52+'11'!D52+'13'!D52+'14'!D52+'15'!D52+'16'!D52+'17'!D52+'18'!D52+'19'!D52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="32">
@@ -6170,11 +6179,11 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="32">
@@ -6184,37 +6193,38 @@
     </row>
     <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="33">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="32">
+        <f>+'12'!D55+'5'!D55++'8'!D55+'2'!D55+'7'!D55+'6'!D55+'4'!D55+'9'!D55+'1'!D55+'10'!D55+'3'!D55+'11'!D55+'13'!D55+'14'!D55+'15'!D55+'16'!D55+'17'!D55+'18'!D55+'19'!D55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="33">
         <v>2875892</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B56" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="32">
-        <f>+'12'!D56+'5'!D56++'8'!D56+'2'!D56+'7'!D56+'6'!D56+'4'!D56+'9'!D56+'1'!D56+'10'!D56+'3'!D56+'11'!D56+'13'!D56+'14'!D56+'15'!D56+'16'!D56+'17'!D56+'18'!D56+'19'!D56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
+      <c r="C56" s="53"/>
+      <c r="D56" s="32">
+        <f>+'12'!D57+'5'!D57++'8'!D57+'2'!D57+'7'!D57+'6'!D57+'4'!D57+'9'!D57+'1'!D57+'10'!D57+'3'!D57+'11'!D57+'13'!D57+'14'!D57+'15'!D57+'16'!D57+'17'!D57+'18'!D57+'19'!D57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="33">
         <v>2830113</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B57" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="32">
-        <f>+'12'!D56+'5'!D56++'8'!D56+'2'!D56+'7'!D56+'6'!D56+'4'!D56+'9'!D56+'1'!D56+'10'!D56+'3'!D56+'11'!D56+'13'!D56+'14'!D56+'15'!D56+'16'!D56+'17'!D56+'18'!D56+'19'!D56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="33">
-        <v>2876884</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>27</v>
-      </c>
+      <c r="C57" s="42"/>
       <c r="D57" s="32">
         <f>+'12'!D57+'5'!D57++'8'!D57+'2'!D57+'7'!D57+'6'!D57+'4'!D57+'9'!D57+'1'!D57+'10'!D57+'3'!D57+'11'!D57+'13'!D57+'14'!D57+'15'!D57+'16'!D57+'17'!D57+'18'!D57+'19'!D57</f>
         <v>0</v>
@@ -6222,10 +6232,10 @@
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="33">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D58" s="32">
         <f>+'12'!D58+'5'!D58++'8'!D58+'2'!D58+'7'!D58+'6'!D58+'4'!D58+'9'!D58+'1'!D58+'10'!D58+'3'!D58+'11'!D58+'13'!D58+'14'!D58+'15'!D58+'16'!D58+'17'!D58+'18'!D58+'19'!D58</f>
@@ -6234,10 +6244,10 @@
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="33">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="32">
         <f>+'12'!D59+'5'!D59++'8'!D59+'2'!D59+'7'!D59+'6'!D59+'4'!D59+'9'!D59+'1'!D59+'10'!D59+'3'!D59+'11'!D59+'13'!D59+'14'!D59+'15'!D59+'16'!D59+'17'!D59+'18'!D59+'19'!D59</f>
@@ -6246,10 +6256,10 @@
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="33">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D60" s="32">
         <f>+'12'!D60+'5'!D60++'8'!D60+'2'!D60+'7'!D60+'6'!D60+'4'!D60+'9'!D60+'1'!D60+'10'!D60+'3'!D60+'11'!D60+'13'!D60+'14'!D60+'15'!D60+'16'!D60+'17'!D60+'18'!D60+'19'!D60</f>
@@ -6257,11 +6267,11 @@
       </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="50">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>35</v>
+      <c r="A61" s="33">
+        <v>2922764</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>59</v>
       </c>
       <c r="D61" s="32">
         <f>+'12'!D61+'5'!D61++'8'!D61+'2'!D61+'7'!D61+'6'!D61+'4'!D61+'9'!D61+'1'!D61+'10'!D61+'3'!D61+'11'!D61+'13'!D61+'14'!D61+'15'!D61+'16'!D61+'17'!D61+'18'!D61+'19'!D61</f>
@@ -6270,10 +6280,10 @@
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="50">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="32">
         <f>+'12'!D62+'5'!D62++'8'!D62+'2'!D62+'7'!D62+'6'!D62+'4'!D62+'9'!D62+'1'!D62+'10'!D62+'3'!D62+'11'!D62+'13'!D62+'14'!D62+'15'!D62+'16'!D62+'17'!D62+'18'!D62+'19'!D62</f>
@@ -6282,114 +6292,126 @@
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="50">
-        <v>2910278</v>
+        <v>2875893</v>
       </c>
       <c r="B63" s="52" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D63" s="32">
         <f>+'12'!D63+'5'!D63++'8'!D63+'2'!D63+'7'!D63+'6'!D63+'4'!D63+'9'!D63+'1'!D63+'10'!D63+'3'!D63+'11'!D63+'13'!D63+'14'!D63+'15'!D63+'16'!D63+'17'!D63+'18'!D63+'19'!D63</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A64" s="5">
-        <v>2845956</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>20</v>
+    <row r="64" spans="1:6" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="50">
+        <v>2910278</v>
+      </c>
+      <c r="B64" s="52" t="s">
+        <v>28</v>
       </c>
       <c r="D64" s="32">
         <f>+'12'!D64+'5'!D64++'8'!D64+'2'!D64+'7'!D64+'6'!D64+'4'!D64+'9'!D64+'1'!D64+'10'!D64+'3'!D64+'11'!D64+'13'!D64+'14'!D64+'15'!D64+'16'!D64+'17'!D64+'18'!D64+'19'!D64</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="52"/>
-      <c r="B65" s="52"/>
+    <row r="65" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A65" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="32">
+        <f>+'12'!D65+'5'!D65++'8'!D65+'2'!D65+'7'!D65+'6'!D65+'4'!D65+'9'!D65+'1'!D65+'10'!D65+'3'!D65+'11'!D65+'13'!D65+'14'!D65+'15'!D65+'16'!D65+'17'!D65+'18'!D65+'19'!D65</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="52"/>
+      <c r="B66" s="52"/>
+    </row>
+    <row r="67" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B66" s="56"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="21" t="s">
+      <c r="B67" s="56"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E67" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F66" s="65" t="s">
+      <c r="F67" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="G66" s="66"/>
-    </row>
-    <row r="67" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" s="56"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="68"/>
-    </row>
+      <c r="G67" s="66"/>
+    </row>
+    <row r="68" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="55" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B69" s="56"/>
       <c r="C69" s="23"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="80"/>
-      <c r="G69" s="81"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="68"/>
     </row>
     <row r="70" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="55" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B70" s="56"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="49"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="27"/>
       <c r="F70" s="80"/>
       <c r="G70" s="81"/>
     </row>
     <row r="71" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="56"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="80"/>
+      <c r="G71" s="81"/>
+    </row>
+    <row r="72" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="56"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="58"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="F70:G70"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="F71:G71"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="F70:G70"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D52:D64">
+  <conditionalFormatting sqref="D12 D53:D65">
     <cfRule type="cellIs" dxfId="470" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6400,7 +6422,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="467" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6433,7 +6455,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
+  <conditionalFormatting sqref="E12:E49">
     <cfRule type="cellIs" dxfId="458" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6454,10 +6476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6578,7 +6600,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -7068,7 +7090,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -7229,17 +7251,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>68</v>
+      <c r="A47" s="37">
+        <v>2952095</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>168</v>
+        <v>1190</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="7">
@@ -7254,171 +7276,190 @@
       <c r="B48" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="36">
         <v>12</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="35">
         <v>284</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="78" t="s">
+        <f t="shared" ref="F48:F49" si="1">C48*D48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13">
+        <v>12</v>
+      </c>
+      <c r="D49" s="7">
+        <v>168</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="17">
-        <f>SUM(F12:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="82" t="s">
+      <c r="F50" s="17">
+        <f>SUM(F12:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="32"/>
     </row>
-    <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>24</v>
+    <row r="54" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="33">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
-        <v>2830113</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
     </row>
     <row r="57" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C57" s="42"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33">
+        <v>2918203</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
         <v>2922764</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>59</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>35</v>
       </c>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50">
         <v>2910278</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D65" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -7426,7 +7467,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D56:D64">
+  <conditionalFormatting sqref="D12 D57:D65">
     <cfRule type="cellIs" dxfId="263" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7437,7 +7478,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="260" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7470,7 +7511,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
+  <conditionalFormatting sqref="E12:E49">
     <cfRule type="cellIs" dxfId="251" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7481,7 +7522,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="cellIs" dxfId="248" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7492,7 +7533,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="245" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7503,7 +7544,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="242" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7524,10 +7565,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7648,7 +7689,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -8138,7 +8179,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -8299,17 +8340,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>68</v>
+      <c r="A47" s="37">
+        <v>2952095</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>168</v>
+        <v>1190</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="7">
@@ -8324,171 +8365,190 @@
       <c r="B48" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="36">
         <v>12</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="35">
         <v>284</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="78" t="s">
+        <f t="shared" ref="F48:F49" si="1">C48*D48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13">
+        <v>12</v>
+      </c>
+      <c r="D49" s="7">
+        <v>168</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="17">
-        <f>SUM(F12:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="82" t="s">
+      <c r="F50" s="17">
+        <f>SUM(F12:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="32"/>
     </row>
-    <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>24</v>
+    <row r="54" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="33">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
-        <v>2830113</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
     </row>
     <row r="57" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C57" s="42"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33">
+        <v>2918203</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
         <v>2922764</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>59</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>35</v>
       </c>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50">
         <v>2910278</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D65" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -8496,7 +8556,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D56:D64">
+  <conditionalFormatting sqref="D12 D57:D65">
     <cfRule type="cellIs" dxfId="239" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8507,7 +8567,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="236" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8540,7 +8600,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
+  <conditionalFormatting sqref="E12:E49">
     <cfRule type="cellIs" dxfId="227" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8551,7 +8611,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="cellIs" dxfId="224" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8562,7 +8622,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="221" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8573,7 +8633,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="218" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8594,10 +8654,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8718,7 +8778,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -9208,7 +9268,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -9369,17 +9429,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>68</v>
+      <c r="A47" s="37">
+        <v>2952095</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>168</v>
+        <v>1190</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="7">
@@ -9394,171 +9454,190 @@
       <c r="B48" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="36">
         <v>12</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="35">
         <v>284</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="78" t="s">
+        <f t="shared" ref="F48:F49" si="1">C48*D48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13">
+        <v>12</v>
+      </c>
+      <c r="D49" s="7">
+        <v>168</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="17">
-        <f>SUM(F12:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="82" t="s">
+      <c r="F50" s="17">
+        <f>SUM(F12:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="32"/>
     </row>
-    <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>24</v>
+    <row r="54" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="33">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
-        <v>2830113</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
     </row>
     <row r="57" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C57" s="42"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33">
+        <v>2918203</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
         <v>2922764</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>59</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>35</v>
       </c>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50">
         <v>2910278</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D65" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -9566,7 +9645,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D56:D64">
+  <conditionalFormatting sqref="D12 D57:D65">
     <cfRule type="cellIs" dxfId="215" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9577,7 +9656,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="212" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9610,7 +9689,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
+  <conditionalFormatting sqref="E12:E49">
     <cfRule type="cellIs" dxfId="203" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9621,7 +9700,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="cellIs" dxfId="200" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9632,7 +9711,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="197" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9643,7 +9722,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="194" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9664,10 +9743,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9786,7 +9865,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -10276,7 +10355,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -10437,17 +10516,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>68</v>
+      <c r="A47" s="37">
+        <v>2952095</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>168</v>
+        <v>1190</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="7">
@@ -10462,178 +10541,197 @@
       <c r="B48" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="36">
         <v>12</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="35">
         <v>284</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="78" t="s">
+        <f t="shared" ref="F48:F49" si="1">C48*D48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13">
+        <v>12</v>
+      </c>
+      <c r="D49" s="7">
+        <v>168</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="17">
-        <f>SUM(F12:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="82" t="s">
+      <c r="F50" s="17">
+        <f>SUM(F12:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="46"/>
       <c r="D53" s="32"/>
     </row>
-    <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>24</v>
+    <row r="54" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="46"/>
       <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="33">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="46"/>
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
-        <v>2830113</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
     </row>
     <row r="57" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C57" s="42"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33">
+        <v>2918203</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
         <v>2922764</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>59</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>35</v>
       </c>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50">
         <v>2910278</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D65" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D56:D64">
+  <conditionalFormatting sqref="D12 D57:D65">
     <cfRule type="cellIs" dxfId="191" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10644,7 +10742,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="188" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10677,7 +10775,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
+  <conditionalFormatting sqref="E12:E49">
     <cfRule type="cellIs" dxfId="179" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10688,7 +10786,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="cellIs" dxfId="176" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10699,7 +10797,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="173" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10710,7 +10808,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="170" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10731,10 +10829,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10855,7 +10953,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -11345,7 +11443,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -11506,17 +11604,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>68</v>
+      <c r="A47" s="37">
+        <v>2952095</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>168</v>
+        <v>1190</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="7">
@@ -11531,171 +11629,190 @@
       <c r="B48" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="36">
         <v>12</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="35">
         <v>284</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="78" t="s">
+        <f t="shared" ref="F48:F49" si="1">C48*D48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13">
+        <v>12</v>
+      </c>
+      <c r="D49" s="7">
+        <v>168</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="17">
-        <f>SUM(F12:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="82" t="s">
+      <c r="F50" s="17">
+        <f>SUM(F12:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="32"/>
     </row>
-    <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>24</v>
+    <row r="54" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="33">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
-        <v>2830113</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
     </row>
     <row r="57" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C57" s="42"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33">
+        <v>2918203</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
         <v>2922764</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>59</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>35</v>
       </c>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50">
         <v>2910278</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D65" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -11703,7 +11820,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D56:D64">
+  <conditionalFormatting sqref="D12 D57:D65">
     <cfRule type="cellIs" dxfId="167" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11714,7 +11831,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="164" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11747,7 +11864,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
+  <conditionalFormatting sqref="E12:E49">
     <cfRule type="cellIs" dxfId="155" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11758,7 +11875,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="cellIs" dxfId="152" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11769,7 +11886,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="149" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11780,7 +11897,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="146" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11801,10 +11918,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11925,7 +12042,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -12415,7 +12532,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -12576,17 +12693,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>68</v>
+      <c r="A47" s="37">
+        <v>2952095</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>168</v>
+        <v>1190</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="7">
@@ -12601,171 +12718,190 @@
       <c r="B48" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="36">
         <v>12</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="35">
         <v>284</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="78" t="s">
+        <f t="shared" ref="F48:F49" si="1">C48*D48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13">
+        <v>12</v>
+      </c>
+      <c r="D49" s="7">
+        <v>168</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="17">
-        <f>SUM(F12:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="82" t="s">
+      <c r="F50" s="17">
+        <f>SUM(F12:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="32"/>
     </row>
-    <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>24</v>
+    <row r="54" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="33">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
-        <v>2830113</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
     </row>
     <row r="57" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C57" s="42"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33">
+        <v>2918203</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
         <v>2922764</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>59</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>35</v>
       </c>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50">
         <v>2910278</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D65" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -12773,7 +12909,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D56:D64">
+  <conditionalFormatting sqref="D12 D57:D65">
     <cfRule type="cellIs" dxfId="143" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12784,7 +12920,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="140" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12817,7 +12953,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
+  <conditionalFormatting sqref="E12:E49">
     <cfRule type="cellIs" dxfId="131" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12828,7 +12964,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="cellIs" dxfId="128" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12839,7 +12975,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="125" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12850,7 +12986,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="122" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12871,10 +13007,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12995,7 +13131,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -13485,7 +13621,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -13646,17 +13782,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>68</v>
+      <c r="A47" s="37">
+        <v>2952095</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>168</v>
+        <v>1190</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="7">
@@ -13671,171 +13807,190 @@
       <c r="B48" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="36">
         <v>12</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="35">
         <v>284</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="78" t="s">
+        <f t="shared" ref="F48:F49" si="1">C48*D48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13">
+        <v>12</v>
+      </c>
+      <c r="D49" s="7">
+        <v>168</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="17">
-        <f>SUM(F12:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="82" t="s">
+      <c r="F50" s="17">
+        <f>SUM(F12:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="32"/>
     </row>
-    <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>24</v>
+    <row r="54" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="33">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
-        <v>2830113</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
     </row>
     <row r="57" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C57" s="42"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33">
+        <v>2918203</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
         <v>2922764</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>59</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>35</v>
       </c>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50">
         <v>2910278</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D65" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -13843,7 +13998,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D56:D64">
+  <conditionalFormatting sqref="D12 D57:D65">
     <cfRule type="cellIs" dxfId="119" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13854,7 +14009,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="116" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13887,7 +14042,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
+  <conditionalFormatting sqref="E12:E49">
     <cfRule type="cellIs" dxfId="107" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13898,7 +14053,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="cellIs" dxfId="104" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13909,7 +14064,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="101" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13920,7 +14075,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="98" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13941,10 +14096,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14065,7 +14220,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -14555,7 +14710,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -14716,17 +14871,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>68</v>
+      <c r="A47" s="37">
+        <v>2952095</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>168</v>
+        <v>1190</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="7">
@@ -14741,171 +14896,190 @@
       <c r="B48" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="36">
         <v>12</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="35">
         <v>284</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="78" t="s">
+        <f t="shared" ref="F48:F49" si="1">C48*D48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13">
+        <v>12</v>
+      </c>
+      <c r="D49" s="7">
+        <v>168</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="17">
-        <f>SUM(F12:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="82" t="s">
+      <c r="F50" s="17">
+        <f>SUM(F12:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="32"/>
     </row>
-    <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>24</v>
+    <row r="54" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="33">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
-        <v>2830113</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
     </row>
     <row r="57" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C57" s="42"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33">
+        <v>2918203</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
         <v>2922764</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>59</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>35</v>
       </c>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50">
         <v>2910278</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D65" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -14913,7 +15087,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D56:D64">
+  <conditionalFormatting sqref="D12 D57:D65">
     <cfRule type="cellIs" dxfId="95" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14924,7 +15098,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="92" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14957,7 +15131,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
+  <conditionalFormatting sqref="E12:E49">
     <cfRule type="cellIs" dxfId="83" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14968,7 +15142,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="cellIs" dxfId="80" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14979,7 +15153,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="77" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14990,7 +15164,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="74" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15011,10 +15185,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15135,7 +15309,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -15625,7 +15799,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -15786,17 +15960,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>68</v>
+      <c r="A47" s="37">
+        <v>2952095</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>168</v>
+        <v>1190</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="7">
@@ -15811,171 +15985,190 @@
       <c r="B48" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="36">
         <v>12</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="35">
         <v>284</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="78" t="s">
+        <f t="shared" ref="F48:F49" si="1">C48*D48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13">
+        <v>12</v>
+      </c>
+      <c r="D49" s="7">
+        <v>168</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="17">
-        <f>SUM(F12:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="82" t="s">
+      <c r="F50" s="17">
+        <f>SUM(F12:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="32"/>
     </row>
-    <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>24</v>
+    <row r="54" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="33">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
-        <v>2830113</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
     </row>
     <row r="57" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C57" s="42"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33">
+        <v>2918203</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
         <v>2922764</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>59</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>35</v>
       </c>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50">
         <v>2910278</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D65" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -15983,7 +16176,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D56:D64">
+  <conditionalFormatting sqref="D12 D57:D65">
     <cfRule type="cellIs" dxfId="71" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15994,7 +16187,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="68" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16027,7 +16220,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
+  <conditionalFormatting sqref="E12:E49">
     <cfRule type="cellIs" dxfId="59" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16038,7 +16231,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="cellIs" dxfId="56" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16049,7 +16242,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="53" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16060,7 +16253,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="50" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16081,10 +16274,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16205,7 +16398,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -16695,7 +16888,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -16856,17 +17049,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>68</v>
+      <c r="A47" s="37">
+        <v>2952095</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>168</v>
+        <v>1190</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="7">
@@ -16881,171 +17074,190 @@
       <c r="B48" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="36">
         <v>12</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="35">
         <v>284</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="78" t="s">
+        <f t="shared" ref="F48:F49" si="1">C48*D48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13">
+        <v>12</v>
+      </c>
+      <c r="D49" s="7">
+        <v>168</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="17">
-        <f>SUM(F12:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="82" t="s">
+      <c r="F50" s="17">
+        <f>SUM(F12:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="32"/>
     </row>
-    <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>24</v>
+    <row r="54" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="33">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
-        <v>2830113</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
     </row>
     <row r="57" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C57" s="42"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33">
+        <v>2918203</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
         <v>2922764</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>59</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>35</v>
       </c>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50">
         <v>2910278</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D65" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -17053,7 +17265,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D56:D64">
+  <conditionalFormatting sqref="D12 D57:D65">
     <cfRule type="cellIs" dxfId="47" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17064,7 +17276,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="44" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17097,7 +17309,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
+  <conditionalFormatting sqref="E12:E49">
     <cfRule type="cellIs" dxfId="35" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17108,7 +17320,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="cellIs" dxfId="32" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17119,7 +17331,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="29" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17130,7 +17342,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="26" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17151,10 +17363,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17275,7 +17487,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -17765,7 +17977,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -17926,17 +18138,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>68</v>
+      <c r="A47" s="37">
+        <v>2952095</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>168</v>
+        <v>1190</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="7">
@@ -17951,171 +18163,190 @@
       <c r="B48" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="36">
         <v>12</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="35">
         <v>284</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="78" t="s">
+        <f t="shared" ref="F48:F49" si="1">C48*D48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13">
+        <v>12</v>
+      </c>
+      <c r="D49" s="7">
+        <v>168</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="17">
-        <f>SUM(F12:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="82" t="s">
+      <c r="F50" s="17">
+        <f>SUM(F12:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="32"/>
     </row>
-    <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>24</v>
+    <row r="54" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="33">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
-        <v>2830113</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
     </row>
     <row r="57" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C57" s="42"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33">
+        <v>2918203</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
         <v>2922764</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>59</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>35</v>
       </c>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50">
         <v>2910278</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D65" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -18123,7 +18354,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D56:D64">
+  <conditionalFormatting sqref="D12 D57:D65">
     <cfRule type="cellIs" dxfId="455" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18134,7 +18365,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="452" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18167,7 +18398,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
+  <conditionalFormatting sqref="E12:E49">
     <cfRule type="cellIs" dxfId="443" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18178,7 +18409,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="cellIs" dxfId="440" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18189,7 +18420,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="437" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18200,7 +18431,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="434" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18221,10 +18452,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18342,7 +18573,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -18832,7 +19063,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -18993,17 +19224,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>68</v>
+      <c r="A47" s="37">
+        <v>2952095</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>168</v>
+        <v>1190</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="7">
@@ -19018,171 +19249,190 @@
       <c r="B48" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="36">
         <v>12</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="35">
         <v>284</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="78" t="s">
+        <f t="shared" ref="F48:F49" si="1">C48*D48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13">
+        <v>12</v>
+      </c>
+      <c r="D49" s="7">
+        <v>168</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="17">
-        <f>SUM(F12:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="82" t="s">
+      <c r="F50" s="17">
+        <f>SUM(F12:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="32"/>
     </row>
-    <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>24</v>
+    <row r="54" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="33">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
-        <v>2830113</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
     </row>
     <row r="57" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C57" s="42"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33">
+        <v>2918203</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
         <v>2922764</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>59</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>35</v>
       </c>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50">
         <v>2910278</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D65" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -19190,7 +19440,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D56:D64">
+  <conditionalFormatting sqref="D12 D57:D65">
     <cfRule type="cellIs" dxfId="23" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19201,7 +19451,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="20" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19234,7 +19484,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
+  <conditionalFormatting sqref="E12:E49">
     <cfRule type="cellIs" dxfId="11" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19245,7 +19495,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19256,7 +19506,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19267,7 +19517,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19288,10 +19538,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19412,7 +19662,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -19902,7 +20152,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -20063,17 +20313,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>68</v>
+      <c r="A47" s="37">
+        <v>2952095</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>168</v>
+        <v>1190</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="7">
@@ -20088,171 +20338,190 @@
       <c r="B48" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="36">
         <v>12</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="35">
         <v>284</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="78" t="s">
+        <f t="shared" ref="F48:F49" si="1">C48*D48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13">
+        <v>12</v>
+      </c>
+      <c r="D49" s="7">
+        <v>168</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="17">
-        <f>SUM(F12:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="82" t="s">
+      <c r="F50" s="17">
+        <f>SUM(F12:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="46"/>
       <c r="D53" s="32"/>
     </row>
-    <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>24</v>
+    <row r="54" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="46"/>
       <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="33">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="46"/>
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
-        <v>2830113</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
     </row>
     <row r="57" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C57" s="42"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33">
+        <v>2918203</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
         <v>2922764</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>59</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>35</v>
       </c>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50">
         <v>2910278</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D65" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -20260,7 +20529,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D56:D64">
+  <conditionalFormatting sqref="D12 D57:D65">
     <cfRule type="cellIs" dxfId="431" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20271,7 +20540,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="428" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20304,7 +20573,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
+  <conditionalFormatting sqref="E12:E49">
     <cfRule type="cellIs" dxfId="419" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20315,7 +20584,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="cellIs" dxfId="416" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20326,7 +20595,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="413" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20337,7 +20606,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="410" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20358,10 +20627,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20482,7 +20751,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -20972,7 +21241,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -21133,17 +21402,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>68</v>
+      <c r="A47" s="37">
+        <v>2952095</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>168</v>
+        <v>1190</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="7">
@@ -21158,171 +21427,190 @@
       <c r="B48" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="36">
         <v>12</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="35">
         <v>284</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="78" t="s">
+        <f t="shared" ref="F48:F49" si="1">C48*D48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13">
+        <v>12</v>
+      </c>
+      <c r="D49" s="7">
+        <v>168</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="17">
-        <f>SUM(F12:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="82" t="s">
+      <c r="F50" s="17">
+        <f>SUM(F12:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="32"/>
     </row>
-    <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>24</v>
+    <row r="54" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="33">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
-        <v>2830113</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
     </row>
     <row r="57" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C57" s="42"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33">
+        <v>2918203</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
         <v>2922764</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>59</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>35</v>
       </c>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50">
         <v>2910278</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D65" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -21330,7 +21618,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D56:D64">
+  <conditionalFormatting sqref="D12 D57:D65">
     <cfRule type="cellIs" dxfId="407" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21341,7 +21629,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="404" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21374,7 +21662,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
+  <conditionalFormatting sqref="E12:E49">
     <cfRule type="cellIs" dxfId="395" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21385,7 +21673,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="cellIs" dxfId="392" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21396,7 +21684,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="389" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21407,7 +21695,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="386" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21428,10 +21716,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21552,7 +21840,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -22042,7 +22330,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -22203,17 +22491,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>68</v>
+      <c r="A47" s="37">
+        <v>2952095</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>168</v>
+        <v>1190</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="7">
@@ -22228,171 +22516,190 @@
       <c r="B48" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="36">
         <v>12</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="35">
         <v>284</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="78" t="s">
+        <f t="shared" ref="F48:F49" si="1">C48*D48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13">
+        <v>12</v>
+      </c>
+      <c r="D49" s="7">
+        <v>168</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="17">
-        <f>SUM(F12:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="82" t="s">
+      <c r="F50" s="17">
+        <f>SUM(F12:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="32"/>
     </row>
-    <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>24</v>
+    <row r="54" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="33">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
-        <v>2830113</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
     </row>
     <row r="57" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C57" s="42"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33">
+        <v>2918203</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
         <v>2922764</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>59</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>35</v>
       </c>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50">
         <v>2910278</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D65" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -22400,7 +22707,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D56:D64">
+  <conditionalFormatting sqref="D12 D57:D65">
     <cfRule type="cellIs" dxfId="383" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22411,7 +22718,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="380" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22444,7 +22751,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
+  <conditionalFormatting sqref="E12:E49">
     <cfRule type="cellIs" dxfId="371" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22455,7 +22762,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="cellIs" dxfId="368" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22466,7 +22773,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="365" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22477,7 +22784,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="362" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22498,10 +22805,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22622,7 +22929,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -23112,7 +23419,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -23273,17 +23580,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>68</v>
+      <c r="A47" s="37">
+        <v>2952095</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>168</v>
+        <v>1190</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="7">
@@ -23298,171 +23605,190 @@
       <c r="B48" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="36">
         <v>12</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="35">
         <v>284</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="78" t="s">
+        <f t="shared" ref="F48:F49" si="1">C48*D48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13">
+        <v>12</v>
+      </c>
+      <c r="D49" s="7">
+        <v>168</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="17">
-        <f>SUM(F12:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="82" t="s">
+      <c r="F50" s="17">
+        <f>SUM(F12:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="46"/>
       <c r="D53" s="32"/>
     </row>
-    <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>24</v>
+    <row r="54" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="46"/>
       <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="33">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="46"/>
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
-        <v>2830113</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
     </row>
     <row r="57" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C57" s="42"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33">
+        <v>2918203</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
         <v>2922764</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>59</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>35</v>
       </c>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50">
         <v>2910278</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D65" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -23470,7 +23796,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D56:D64">
+  <conditionalFormatting sqref="D12 D57:D65">
     <cfRule type="cellIs" dxfId="359" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23481,7 +23807,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="356" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23514,7 +23840,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
+  <conditionalFormatting sqref="E12:E49">
     <cfRule type="cellIs" dxfId="347" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23525,7 +23851,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="cellIs" dxfId="344" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23536,7 +23862,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="341" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23547,7 +23873,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="338" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23568,10 +23894,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23695,7 +24021,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -24185,7 +24511,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -24346,17 +24672,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>68</v>
+      <c r="A47" s="37">
+        <v>2952095</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>168</v>
+        <v>1190</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="7">
@@ -24371,178 +24697,197 @@
       <c r="B48" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="36">
         <v>12</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="35">
         <v>284</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="78" t="s">
+        <f t="shared" ref="F48:F49" si="1">C48*D48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13">
+        <v>12</v>
+      </c>
+      <c r="D49" s="7">
+        <v>168</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="17">
-        <f>SUM(F12:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="82" t="s">
+      <c r="F50" s="17">
+        <f>SUM(F12:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="32"/>
     </row>
-    <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>24</v>
+    <row r="54" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="33">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
-        <v>2830113</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
     </row>
     <row r="57" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C57" s="42"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33">
+        <v>2918203</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
         <v>2922764</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>59</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>35</v>
       </c>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50">
         <v>2910278</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D65" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D56:D64">
+  <conditionalFormatting sqref="D12 D57:D65">
     <cfRule type="cellIs" dxfId="335" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -24553,7 +24898,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="332" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -24586,7 +24931,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
+  <conditionalFormatting sqref="E12:E49">
     <cfRule type="cellIs" dxfId="323" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -24597,7 +24942,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="cellIs" dxfId="320" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -24608,7 +24953,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="317" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -24619,7 +24964,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="314" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -24640,10 +24985,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24764,7 +25109,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -25254,7 +25599,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -25415,17 +25760,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>68</v>
+      <c r="A47" s="37">
+        <v>2952095</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>168</v>
+        <v>1190</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="7">
@@ -25440,171 +25785,190 @@
       <c r="B48" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="36">
         <v>12</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="35">
         <v>284</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="78" t="s">
+        <f t="shared" ref="F48:F49" si="1">C48*D48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13">
+        <v>12</v>
+      </c>
+      <c r="D49" s="7">
+        <v>168</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="17">
-        <f>SUM(F12:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="82" t="s">
+      <c r="F50" s="17">
+        <f>SUM(F12:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="46"/>
       <c r="D53" s="32"/>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="46"/>
       <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="33">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="46"/>
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
-        <v>2830113</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
     </row>
     <row r="57" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C57" s="42"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33">
+        <v>2918203</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
         <v>2922764</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>59</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>35</v>
       </c>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50">
         <v>2910278</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D65" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -25612,7 +25976,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D56:D64">
+  <conditionalFormatting sqref="D12 D57:D65">
     <cfRule type="cellIs" dxfId="311" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -25623,7 +25987,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="308" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -25656,7 +26020,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
+  <conditionalFormatting sqref="E12:E49">
     <cfRule type="cellIs" dxfId="299" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -25667,7 +26031,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="cellIs" dxfId="296" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -25678,7 +26042,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="293" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -25689,7 +26053,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="290" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -25710,10 +26074,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25834,7 +26198,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -26324,7 +26688,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -26485,17 +26849,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>68</v>
+      <c r="A47" s="37">
+        <v>2952095</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>168</v>
+        <v>1190</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="7">
@@ -26510,171 +26874,190 @@
       <c r="B48" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="36">
         <v>12</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="35">
         <v>284</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="78" t="s">
+        <f t="shared" ref="F48:F49" si="1">C48*D48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13">
+        <v>12</v>
+      </c>
+      <c r="D49" s="7">
+        <v>168</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="17">
-        <f>SUM(F12:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="82" t="s">
+      <c r="F50" s="17">
+        <f>SUM(F12:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="46"/>
       <c r="D53" s="32"/>
     </row>
-    <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>24</v>
+    <row r="54" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="46"/>
       <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="33">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="46"/>
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
-        <v>2830113</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
     </row>
     <row r="57" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C57" s="42"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33">
+        <v>2918203</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
         <v>2922764</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>59</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>35</v>
       </c>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50">
         <v>2910278</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D65" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -26682,7 +27065,7 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D56:D64">
+  <conditionalFormatting sqref="D12 D57:D65">
     <cfRule type="cellIs" dxfId="287" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -26693,7 +27076,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="284" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -26726,7 +27109,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
+  <conditionalFormatting sqref="E12:E49">
     <cfRule type="cellIs" dxfId="275" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -26737,7 +27120,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="cellIs" dxfId="272" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -26748,7 +27131,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="269" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -26759,7 +27142,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D55:D56">
     <cfRule type="cellIs" dxfId="266" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/MM.xlsx
+++ b/MM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D79A978-8D1D-4D88-B386-9D35BD334650}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA614A6-E84A-4F82-B64C-29A2B4FAC712}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -5235,8 +5235,8 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -5346,7 +5346,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E12" s="15">
         <f>+'6'!E12+'12'!E12+'8'!E12+'7'!E12+'2'!E12+'5'!E12+'4'!E12+'9'!E12+'1'!E12+'10'!E12+'3'!E12+'11'!E12+'13'!E12+'14'!E12+'15'!E12+'16'!E12+'17'!E12+'18'!E12+'19'!E12</f>
@@ -5368,7 +5368,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E13" s="15">
         <f>+'6'!E13+'12'!E13+'8'!E13+'7'!E13+'2'!E13+'5'!E13+'4'!E13+'9'!E13+'1'!E13+'10'!E13+'3'!E13+'11'!E13+'13'!E13+'14'!E13+'15'!E13+'16'!E13+'17'!E13+'18'!E13+'19'!E13</f>
@@ -6642,7 +6642,7 @@
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="F80:G80"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D62:D74">
+  <conditionalFormatting sqref="D62:D74 D12:D13">
     <cfRule type="cellIs" dxfId="470" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6661,17 +6661,6 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="465" priority="27" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="464" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="23" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6709,8 +6698,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6818,7 +6807,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -6827,7 +6816,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -6846,7 +6835,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -7869,7 +7858,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D66:D74">
+  <conditionalFormatting sqref="D66:D74 D12:D13">
     <cfRule type="cellIs" dxfId="263" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7888,17 +7877,6 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="258" priority="33" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="257" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="29" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7969,8 +7947,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8078,7 +8056,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -8087,7 +8065,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -8106,7 +8084,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -9129,7 +9107,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D66:D74">
+  <conditionalFormatting sqref="D66:D74 D12:D13">
     <cfRule type="cellIs" dxfId="239" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9148,17 +9126,6 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="234" priority="33" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="233" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="29" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9229,8 +9196,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9338,7 +9305,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -9347,7 +9314,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -9366,7 +9333,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -10389,7 +10356,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D66:D74">
+  <conditionalFormatting sqref="D66:D74 D12:D13">
     <cfRule type="cellIs" dxfId="215" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10408,17 +10375,6 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="210" priority="33" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="209" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="29" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10489,8 +10445,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10596,7 +10552,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -10605,7 +10561,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -10624,7 +10580,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -11646,7 +11602,7 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D66:D74">
+  <conditionalFormatting sqref="D66:D74 D12:D13">
     <cfRule type="cellIs" dxfId="191" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11665,17 +11621,6 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="186" priority="33" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="185" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="29" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11746,8 +11691,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11855,7 +11800,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -11864,7 +11809,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -11883,7 +11828,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -12906,7 +12851,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D66:D74">
+  <conditionalFormatting sqref="D66:D74 D12:D13">
     <cfRule type="cellIs" dxfId="167" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12925,17 +12870,6 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="162" priority="33" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="161" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="29" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13006,8 +12940,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13115,7 +13049,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -13124,7 +13058,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -13143,7 +13077,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -14166,7 +14100,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D66:D74">
+  <conditionalFormatting sqref="D66:D74 D12:D13">
     <cfRule type="cellIs" dxfId="143" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14185,17 +14119,6 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="138" priority="33" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="137" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="29" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14266,8 +14189,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14375,7 +14298,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -14384,7 +14307,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -14403,7 +14326,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -15426,7 +15349,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D66:D74">
+  <conditionalFormatting sqref="D66:D74 D12:D13">
     <cfRule type="cellIs" dxfId="119" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15445,17 +15368,6 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="114" priority="33" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="113" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="29" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15526,8 +15438,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15635,7 +15547,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -15644,7 +15556,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -15663,7 +15575,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -16686,7 +16598,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D66:D74">
+  <conditionalFormatting sqref="D66:D74 D12:D13">
     <cfRule type="cellIs" dxfId="95" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16705,17 +16617,6 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="90" priority="33" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="89" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="29" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16786,8 +16687,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16895,7 +16796,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -16904,7 +16805,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -16923,7 +16824,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -17946,7 +17847,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D66:D74">
+  <conditionalFormatting sqref="D66:D74 D12:D13">
     <cfRule type="cellIs" dxfId="71" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17965,17 +17866,6 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="66" priority="33" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="65" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="29" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18046,8 +17936,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18155,7 +18045,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -18164,7 +18054,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -18183,7 +18073,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -19206,7 +19096,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D66:D74">
+  <conditionalFormatting sqref="D66:D74 D12:D13">
     <cfRule type="cellIs" dxfId="47" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19225,17 +19115,6 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="42" priority="33" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="41" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="29" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19306,8 +19185,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19415,7 +19294,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -19424,7 +19303,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -19443,7 +19322,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -20466,7 +20345,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D66:D74">
+  <conditionalFormatting sqref="D66:D74 D12:D13">
     <cfRule type="cellIs" dxfId="455" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20485,17 +20364,6 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="450" priority="33" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="449" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="29" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20566,8 +20434,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20672,7 +20540,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -20681,7 +20549,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -20700,7 +20568,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -21723,7 +21591,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D66:D74">
+  <conditionalFormatting sqref="D66:D74 D12:D13">
     <cfRule type="cellIs" dxfId="23" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21742,17 +21610,6 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="33" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="17" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="29" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21823,8 +21680,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21932,7 +21789,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -21941,7 +21798,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -21960,7 +21817,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -22983,7 +22840,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D66:D74">
+  <conditionalFormatting sqref="D66:D74 D12:D13">
     <cfRule type="cellIs" dxfId="431" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -23002,17 +22859,6 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="426" priority="33" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="425" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="29" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23083,8 +22929,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23192,7 +23038,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -23201,7 +23047,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -23220,7 +23066,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -24243,7 +24089,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D66:D74">
+  <conditionalFormatting sqref="D66:D74 D12:D13">
     <cfRule type="cellIs" dxfId="407" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -24262,17 +24108,6 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="402" priority="33" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="401" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="29" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24343,8 +24178,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24452,7 +24287,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -24461,7 +24296,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -24480,7 +24315,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -25503,7 +25338,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D66:D74">
+  <conditionalFormatting sqref="D66:D74 D12:D13">
     <cfRule type="cellIs" dxfId="383" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -25522,17 +25357,6 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="378" priority="33" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="377" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="29" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25603,8 +25427,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25712,7 +25536,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -25721,7 +25545,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -25740,7 +25564,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -26763,7 +26587,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D66:D74">
+  <conditionalFormatting sqref="D66:D74 D12:D13">
     <cfRule type="cellIs" dxfId="359" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -26782,17 +26606,6 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="354" priority="45" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="353" priority="40" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="41" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26863,8 +26676,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26975,7 +26788,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -26984,7 +26797,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -27003,7 +26816,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -28025,7 +27838,7 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D66:D74">
+  <conditionalFormatting sqref="D66:D74 D12:D13">
     <cfRule type="cellIs" dxfId="335" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -28044,17 +27857,6 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="330" priority="33" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="329" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="29" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28125,8 +27927,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28234,7 +28036,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -28243,7 +28045,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -28262,7 +28064,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -29285,7 +29087,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D66:D74">
+  <conditionalFormatting sqref="D66:D74 D12:D13">
     <cfRule type="cellIs" dxfId="311" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -29304,17 +29106,6 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="306" priority="42" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="305" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="38" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29385,8 +29176,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29494,7 +29285,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -29503,7 +29294,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -29522,7 +29313,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -30545,7 +30336,7 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 D66:D74">
+  <conditionalFormatting sqref="D66:D74 D12:D13">
     <cfRule type="cellIs" dxfId="287" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -30564,17 +30355,6 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="282" priority="33" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="281" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="29" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MM.xlsx
+++ b/MM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA614A6-E84A-4F82-B64C-29A2B4FAC712}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDDD90C-94E8-4A8A-8ECD-AC3D5A7A9FBF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -1185,487 +1185,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{1912818B-2099-4781-B8AD-80348CC03BD7}"/>
   </cellStyles>
-  <dxfs count="471">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="411">
     <dxf>
       <fill>
         <patternFill>
@@ -5235,8 +4755,8 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6292,7 +5812,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="35">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15">
         <f>+'1'!E55+'2'!E55+'3'!E55+'4'!E55+'5'!E55+'6'!E55+'7'!E55+'8'!E55+'9'!E55+'10'!E55+'11'!E55+'12'!E55+'13'!E55+'14'!E55+'15'!E55+'16'!E55+'17'!E55+'18'!E55+'19'!E55</f>
@@ -6314,7 +5834,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="35">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E56" s="15">
         <f>+'1'!E56+'2'!E56+'3'!E56+'4'!E56+'5'!E56+'6'!E56+'7'!E56+'8'!E56+'9'!E56+'10'!E56+'11'!E56+'12'!E56+'13'!E56+'14'!E56+'15'!E56+'16'!E56+'17'!E56+'18'!E56+'19'!E56</f>
@@ -6643,46 +6163,46 @@
     <mergeCell ref="F80:G80"/>
   </mergeCells>
   <conditionalFormatting sqref="D62:D74 D12:D13">
-    <cfRule type="cellIs" dxfId="470" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="410" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="409" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="408" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="467" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="407" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="406" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="405" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="461" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="404" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="403" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="402" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E58">
-    <cfRule type="cellIs" dxfId="458" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="401" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="400" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="399" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6699,7 +6219,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7633,7 +7153,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="35">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="7">
@@ -7652,7 +7172,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="35">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="7">
@@ -7859,79 +7379,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D66:D74 D12:D13">
-    <cfRule type="cellIs" dxfId="263" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="230" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="229" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="228" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="260" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="227" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="226" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="225" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="254" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="224" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="223" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="222" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E58">
-    <cfRule type="cellIs" dxfId="251" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="221" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="220" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="219" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" dxfId="248" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="218" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="217" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="216" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="245" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="215" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="214" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="213" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="242" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="212" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="211" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="210" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7948,7 +7468,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8882,7 +8402,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="35">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="7">
@@ -8901,7 +8421,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="35">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="7">
@@ -9108,79 +8628,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D66:D74 D12:D13">
-    <cfRule type="cellIs" dxfId="239" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="209" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="208" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="207" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="236" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="206" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="205" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="204" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="230" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="203" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="202" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="201" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E58">
-    <cfRule type="cellIs" dxfId="227" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="200" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="199" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="198" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" dxfId="224" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="197" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="196" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="195" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="221" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="194" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="193" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="192" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="218" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="191" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="190" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="189" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9197,7 +8717,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10131,7 +9651,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="35">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="7">
@@ -10150,7 +9670,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="35">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="7">
@@ -10357,79 +9877,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D66:D74 D12:D13">
-    <cfRule type="cellIs" dxfId="215" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="188" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="187" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="186" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="212" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="185" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="184" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="206" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="182" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="181" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="180" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E58">
-    <cfRule type="cellIs" dxfId="203" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="178" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="177" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" dxfId="200" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="176" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="175" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="197" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="172" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="194" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="170" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="169" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10446,7 +9966,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11378,7 +10898,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="35">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="7">
@@ -11397,7 +10917,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="35">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="7">
@@ -11603,79 +11123,79 @@
     <mergeCell ref="A5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="D66:D74 D12:D13">
-    <cfRule type="cellIs" dxfId="191" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="167" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="166" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="188" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="163" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="182" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="160" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E58">
-    <cfRule type="cellIs" dxfId="179" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" dxfId="176" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="154" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="173" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="170" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11692,7 +11212,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12626,7 +12146,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="35">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="7">
@@ -12645,7 +12165,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="35">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="7">
@@ -12852,79 +12372,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D66:D74 D12:D13">
-    <cfRule type="cellIs" dxfId="167" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="164" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="158" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E58">
-    <cfRule type="cellIs" dxfId="155" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" dxfId="152" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="149" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="146" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12941,7 +12461,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13875,7 +13395,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="35">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="7">
@@ -13894,7 +13414,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="35">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="7">
@@ -14101,79 +13621,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D66:D74 D12:D13">
-    <cfRule type="cellIs" dxfId="143" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="140" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="134" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E58">
-    <cfRule type="cellIs" dxfId="131" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" dxfId="128" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="125" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="122" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14190,7 +13710,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15124,7 +14644,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="35">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="7">
@@ -15143,7 +14663,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="35">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="7">
@@ -15350,79 +14870,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D66:D74 D12:D13">
-    <cfRule type="cellIs" dxfId="119" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="116" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="110" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E58">
-    <cfRule type="cellIs" dxfId="107" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" dxfId="104" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="101" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="98" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15439,7 +14959,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16373,7 +15893,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="35">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="7">
@@ -16392,7 +15912,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="35">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="7">
@@ -16599,79 +16119,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D66:D74 D12:D13">
-    <cfRule type="cellIs" dxfId="95" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="92" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="86" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E58">
-    <cfRule type="cellIs" dxfId="83" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" dxfId="80" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="77" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="74" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16688,7 +16208,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17622,7 +17142,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="35">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="7">
@@ -17641,7 +17161,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="35">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="7">
@@ -17848,79 +17368,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D66:D74 D12:D13">
-    <cfRule type="cellIs" dxfId="71" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="68" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="62" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E58">
-    <cfRule type="cellIs" dxfId="59" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" dxfId="56" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="53" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17937,7 +17457,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18871,7 +18391,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="35">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="7">
@@ -18890,7 +18410,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="35">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="7">
@@ -19097,79 +18617,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D66:D74 D12:D13">
-    <cfRule type="cellIs" dxfId="47" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="44" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="38" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E58">
-    <cfRule type="cellIs" dxfId="35" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19186,7 +18706,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20120,7 +19640,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="35">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="7">
@@ -20139,7 +19659,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="35">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="7">
@@ -20346,79 +19866,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D66:D74 D12:D13">
-    <cfRule type="cellIs" dxfId="455" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="398" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="397" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="396" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="452" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="395" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="394" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="393" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="446" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="392" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="391" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="390" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E58">
-    <cfRule type="cellIs" dxfId="443" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="389" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="388" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="387" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" dxfId="440" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="386" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="385" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="384" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="437" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="383" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="382" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="381" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="434" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="380" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="379" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="378" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20435,7 +19955,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21366,7 +20886,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="35">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="7">
@@ -21385,7 +20905,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="35">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="7">
@@ -21592,24 +21112,24 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D66:D74 D12:D13">
-    <cfRule type="cellIs" dxfId="23" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="20" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21681,7 +21201,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22615,7 +22135,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="35">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="7">
@@ -22634,7 +22154,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="35">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="7">
@@ -22841,79 +22361,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D66:D74 D12:D13">
-    <cfRule type="cellIs" dxfId="431" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="377" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="376" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="375" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="428" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="374" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="373" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="372" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="422" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="371" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="370" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="369" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E58">
-    <cfRule type="cellIs" dxfId="419" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="368" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="367" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="366" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" dxfId="416" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="365" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="364" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="363" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="413" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="362" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="361" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="360" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="410" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="359" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="358" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="357" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22930,7 +22450,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23864,7 +23384,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="35">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="7">
@@ -23883,7 +23403,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="35">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="7">
@@ -24090,79 +23610,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D66:D74 D12:D13">
-    <cfRule type="cellIs" dxfId="407" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="356" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="355" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="354" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="404" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="353" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="352" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="351" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="398" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="350" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="349" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="348" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E58">
-    <cfRule type="cellIs" dxfId="395" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="347" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="346" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="345" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" dxfId="392" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="344" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="343" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="342" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="389" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="341" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="340" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="339" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="386" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="338" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="337" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="336" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24179,7 +23699,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25113,7 +24633,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="35">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="7">
@@ -25132,7 +24652,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="35">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="7">
@@ -25339,79 +24859,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D66:D74 D12:D13">
-    <cfRule type="cellIs" dxfId="383" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="335" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="334" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="333" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="380" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="332" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="331" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="330" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="374" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="329" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="328" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="327" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E58">
-    <cfRule type="cellIs" dxfId="371" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="326" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="325" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="324" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" dxfId="368" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="323" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="322" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="321" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="365" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="320" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="319" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="318" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="362" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="317" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="316" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="315" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25428,7 +24948,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26362,7 +25882,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="35">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="7">
@@ -26381,7 +25901,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="35">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="7">
@@ -26588,79 +26108,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D66:D74 D12:D13">
-    <cfRule type="cellIs" dxfId="359" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="314" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="313" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="312" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="356" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="311" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="310" priority="44" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="309" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="350" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="308" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="307" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="306" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E58">
-    <cfRule type="cellIs" dxfId="347" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="305" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="304" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="303" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" dxfId="344" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="302" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="301" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="300" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="341" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="299" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="298" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="297" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="338" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="296" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="295" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="294" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26677,7 +26197,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27614,7 +27134,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="35">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="7">
@@ -27633,7 +27153,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="35">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="7">
@@ -27839,79 +27359,79 @@
     <mergeCell ref="A5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="D66:D74 D12:D13">
-    <cfRule type="cellIs" dxfId="335" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="293" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="292" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="291" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="332" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="290" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="289" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="288" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="326" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="287" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="286" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="285" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E58">
-    <cfRule type="cellIs" dxfId="323" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="284" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="283" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="282" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" dxfId="320" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="281" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="280" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="279" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="317" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="278" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="277" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="276" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="314" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="275" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="274" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="273" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27928,7 +27448,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28862,7 +28382,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="35">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="7">
@@ -28881,7 +28401,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="35">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="7">
@@ -29088,79 +28608,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D66:D74 D12:D13">
-    <cfRule type="cellIs" dxfId="311" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="272" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="271" priority="44" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="270" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="308" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="269" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="268" priority="41" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="267" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="302" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="266" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="265" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="264" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E58">
-    <cfRule type="cellIs" dxfId="299" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="263" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="262" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="261" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" dxfId="296" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="260" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="259" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="258" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="293" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="257" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="256" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="255" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="290" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="254" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="253" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="252" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29177,7 +28697,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30111,7 +29631,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="35">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="7">
@@ -30130,7 +29650,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="35">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="7">
@@ -30337,79 +29857,79 @@
     <mergeCell ref="A5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="D66:D74 D12:D13">
-    <cfRule type="cellIs" dxfId="287" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="251" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="250" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="249" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="284" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="248" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="247" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="246" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="278" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="245" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="244" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="243" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E58">
-    <cfRule type="cellIs" dxfId="275" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="242" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="241" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="240" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" dxfId="272" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="239" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="238" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="237" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="269" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="236" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="235" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="234" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="cellIs" dxfId="266" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="233" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="232" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="231" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
